--- a/I1_spread.xlsx
+++ b/I1_spread.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C56E680-D518-4768-A3AD-A865F540F08A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDECF609-C747-4033-83F3-8BAC17BE2514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="172">
   <si>
     <t>Div</t>
   </si>
@@ -180,64 +180,94 @@
     <t>GoalsXcornerXbookings</t>
   </si>
   <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>308</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>313</t>
-  </si>
-  <si>
-    <t>314</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>316</t>
-  </si>
-  <si>
-    <t>317</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
-    <t>319</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>323</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>482</t>
+  </si>
+  <si>
+    <t>483</t>
+  </si>
+  <si>
+    <t>484</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>487</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>489</t>
   </si>
   <si>
     <t>I1</t>
@@ -333,6 +363,9 @@
     <t>2-0</t>
   </si>
   <si>
+    <t>1-2</t>
+  </si>
+  <si>
     <t>2-2</t>
   </si>
   <si>
@@ -345,12 +378,12 @@
     <t>0-4</t>
   </si>
   <si>
-    <t>1-2</t>
-  </si>
-  <si>
     <t>0-3</t>
   </si>
   <si>
+    <t>4-0</t>
+  </si>
+  <si>
     <t>1-4</t>
   </si>
   <si>
@@ -399,6 +432,24 @@
     <t>4-1</t>
   </si>
   <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>7-10</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>6-0</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -463,6 +514,36 @@
   </si>
   <si>
     <t>Verona-Juventus</t>
+  </si>
+  <si>
+    <t>Venezia-Torino</t>
+  </si>
+  <si>
+    <t>Inter-Atalanta</t>
+  </si>
+  <si>
+    <t>Bologna-Empoli</t>
+  </si>
+  <si>
+    <t>Lecce-Cagliari</t>
+  </si>
+  <si>
+    <t>Lazio-Milan</t>
+  </si>
+  <si>
+    <t>Napoli-Parma</t>
+  </si>
+  <si>
+    <t>Fiorentina-Monza</t>
+  </si>
+  <si>
+    <t>Genoa-Verona</t>
+  </si>
+  <si>
+    <t>Juventus-Roma</t>
+  </si>
+  <si>
+    <t>Udinese-Como</t>
   </si>
 </sst>
 </file>
@@ -470,7 +551,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -818,61 +899,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY21"/>
+  <dimension ref="A1:AY31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO22" sqref="AO22"/>
+      <selection pane="bottomRight" activeCell="AO32" sqref="AO32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="6" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -1032,16 +1113,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1">
         <v>45521</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1050,7 +1131,7 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1059,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="L2">
         <v>6.6</v>
@@ -1071,10 +1152,10 @@
         <v>1.55</v>
       </c>
       <c r="O2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1122,16 +1203,16 @@
         <v>29</v>
       </c>
       <c r="AF2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG2" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AH2" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AI2" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AJ2">
         <v>3</v>
@@ -1140,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="AM2">
         <v>222</v>
@@ -1164,22 +1245,18 @@
         <v>150</v>
       </c>
       <c r="AT2">
-        <f>AO2*AP2</f>
         <v>1260</v>
       </c>
       <c r="AU2">
         <v>20</v>
       </c>
       <c r="AV2">
-        <f>AN2*AO2</f>
         <v>168</v>
       </c>
       <c r="AW2">
-        <f>AO2*AD2</f>
         <v>210</v>
       </c>
       <c r="AX2">
-        <f>AM2*AD2</f>
         <v>1110</v>
       </c>
       <c r="AY2">
@@ -1191,16 +1268,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1">
         <v>45521</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1209,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1218,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="L3">
         <v>3.37</v>
@@ -1230,10 +1307,10 @@
         <v>2.25</v>
       </c>
       <c r="O3" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="Q3">
         <v>13</v>
@@ -1281,16 +1358,16 @@
         <v>24</v>
       </c>
       <c r="AF3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AG3" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AH3" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AI3" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AJ3">
         <v>5</v>
@@ -1299,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="AL3" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="AM3">
         <v>97</v>
@@ -1323,22 +1400,18 @@
         <v>975</v>
       </c>
       <c r="AT3">
-        <f t="shared" ref="AT3:AT21" si="0">AO3*AP3</f>
         <v>7575</v>
       </c>
       <c r="AU3">
         <v>26</v>
       </c>
       <c r="AV3">
-        <f t="shared" ref="AV3:AV21" si="1">AN3*AO3</f>
         <v>202</v>
       </c>
       <c r="AW3">
-        <f t="shared" ref="AW3:AW21" si="2">AO3*AD3</f>
         <v>1313</v>
       </c>
       <c r="AX3">
-        <f t="shared" ref="AX3:AX21" si="3">AM3*AD3</f>
         <v>1261</v>
       </c>
       <c r="AY3">
@@ -1350,16 +1423,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1">
         <v>45521</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1368,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1377,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="L4">
         <v>2.5299999999999998</v>
@@ -1389,10 +1462,10 @@
         <v>3.14</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="P4" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1440,16 +1513,16 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="AG4" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AH4" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AI4" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AJ4">
         <v>2</v>
@@ -1458,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -1482,22 +1555,18 @@
         <v>200</v>
       </c>
       <c r="AT4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU4">
         <v>0</v>
       </c>
       <c r="AV4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW4">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AX4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY4">
@@ -1509,16 +1578,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1">
         <v>45521</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1527,7 +1596,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1536,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="L5">
         <v>1.62</v>
@@ -1548,10 +1617,10 @@
         <v>5.76</v>
       </c>
       <c r="O5" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="P5" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="Q5">
         <v>20</v>
@@ -1599,16 +1668,16 @@
         <v>17</v>
       </c>
       <c r="AF5" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="AG5" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AH5" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AI5" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AJ5">
         <v>6</v>
@@ -1617,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="AM5">
         <v>277</v>
@@ -1641,22 +1710,18 @@
         <v>660</v>
       </c>
       <c r="AT5">
-        <f t="shared" si="0"/>
         <v>8580</v>
       </c>
       <c r="AU5">
         <v>44</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="1"/>
         <v>572</v>
       </c>
       <c r="AW5">
-        <f t="shared" si="2"/>
         <v>1573</v>
       </c>
       <c r="AX5">
-        <f t="shared" si="3"/>
         <v>3047</v>
       </c>
       <c r="AY5">
@@ -1668,16 +1733,16 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1">
         <v>45522</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1686,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1695,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="L6">
         <v>1.95</v>
@@ -1707,10 +1772,10 @@
         <v>4.57</v>
       </c>
       <c r="O6" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="P6" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="Q6">
         <v>22</v>
@@ -1758,16 +1823,16 @@
         <v>28</v>
       </c>
       <c r="AF6" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="AG6" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AH6" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AI6" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AJ6">
         <v>4</v>
@@ -1776,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="AM6">
         <v>125</v>
@@ -1800,22 +1865,18 @@
         <v>480</v>
       </c>
       <c r="AT6">
-        <f t="shared" si="0"/>
         <v>1480</v>
       </c>
       <c r="AU6">
         <v>24</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="AW6">
-        <f t="shared" si="2"/>
         <v>444</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="3"/>
         <v>1500</v>
       </c>
       <c r="AY6">
@@ -1827,16 +1888,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1">
         <v>45522</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -1845,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1854,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="L7">
         <v>4.99</v>
@@ -1866,10 +1927,10 @@
         <v>1.78</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="P7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="Q7">
         <v>8</v>
@@ -1917,16 +1978,16 @@
         <v>28</v>
       </c>
       <c r="AF7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AH7" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AI7" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AJ7">
         <v>5</v>
@@ -1935,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="AM7">
         <v>215</v>
@@ -1959,22 +2020,18 @@
         <v>300</v>
       </c>
       <c r="AT7">
-        <f t="shared" si="0"/>
         <v>4200</v>
       </c>
       <c r="AU7">
         <v>18</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="1"/>
         <v>252</v>
       </c>
       <c r="AW7">
-        <f t="shared" si="2"/>
         <v>504</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="3"/>
         <v>1290</v>
       </c>
       <c r="AY7">
@@ -1986,16 +2043,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1">
         <v>45522</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2004,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2013,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="L8">
         <v>4.04</v>
@@ -2025,10 +2082,10 @@
         <v>1.99</v>
       </c>
       <c r="O8" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="Q8">
         <v>12</v>
@@ -2076,16 +2133,16 @@
         <v>22</v>
       </c>
       <c r="AF8" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AG8" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AH8" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AI8" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AJ8">
         <v>2</v>
@@ -2094,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="AM8">
         <v>0</v>
@@ -2118,22 +2175,18 @@
         <v>160</v>
       </c>
       <c r="AT8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU8">
         <v>0</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY8">
@@ -2145,16 +2198,16 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1">
         <v>45522</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -2163,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -2172,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="L9">
         <v>1.48</v>
@@ -2184,10 +2237,10 @@
         <v>7.29</v>
       </c>
       <c r="O9" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="P9" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="Q9">
         <v>13</v>
@@ -2235,16 +2288,16 @@
         <v>25</v>
       </c>
       <c r="AF9" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AG9" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AH9" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AI9" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AJ9">
         <v>3</v>
@@ -2253,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="AM9">
         <v>139</v>
@@ -2277,22 +2330,18 @@
         <v>270</v>
       </c>
       <c r="AT9">
-        <f t="shared" si="0"/>
         <v>2220</v>
       </c>
       <c r="AU9">
         <v>36</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="1"/>
         <v>296</v>
       </c>
       <c r="AW9">
-        <f t="shared" si="2"/>
         <v>666</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="3"/>
         <v>1251</v>
       </c>
       <c r="AY9">
@@ -2304,16 +2353,16 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1">
         <v>45523</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2322,7 +2371,7 @@
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2331,7 +2380,7 @@
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="L10">
         <v>4.4400000000000004</v>
@@ -2343,10 +2392,10 @@
         <v>1.88</v>
       </c>
       <c r="O10" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="P10" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="Q10">
         <v>19</v>
@@ -2394,16 +2443,16 @@
         <v>34</v>
       </c>
       <c r="AF10" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AG10" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AH10" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AI10" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AJ10">
         <v>2</v>
@@ -2412,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="AM10">
         <v>203</v>
@@ -2436,22 +2485,18 @@
         <v>160</v>
       </c>
       <c r="AT10">
-        <f t="shared" si="0"/>
         <v>3040</v>
       </c>
       <c r="AU10">
         <v>32</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="1"/>
         <v>608</v>
       </c>
       <c r="AW10">
-        <f t="shared" si="2"/>
         <v>1216</v>
       </c>
       <c r="AX10">
-        <f t="shared" si="3"/>
         <v>1624</v>
       </c>
       <c r="AY10">
@@ -2463,16 +2508,16 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C11" s="1">
         <v>45523</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -2481,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -2490,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="L11">
         <v>1.34</v>
@@ -2502,10 +2547,10 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="O11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="P11" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="Q11">
         <v>12</v>
@@ -2553,16 +2598,16 @@
         <v>18</v>
       </c>
       <c r="AF11" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AG11" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AH11" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AI11" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AJ11">
         <v>6</v>
@@ -2571,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="AM11">
         <v>158</v>
@@ -2595,22 +2640,18 @@
         <v>180</v>
       </c>
       <c r="AT11">
-        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="AU11">
         <v>9</v>
       </c>
       <c r="AV11">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="AW11">
-        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="AX11">
-        <f t="shared" si="3"/>
         <v>474</v>
       </c>
       <c r="AY11">
@@ -2622,16 +2663,16 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1">
         <v>45528</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -2640,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2649,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="L12">
         <v>4.9000000000000004</v>
@@ -2661,10 +2702,10 @@
         <v>1.69</v>
       </c>
       <c r="O12" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="P12" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -2712,16 +2753,16 @@
         <v>22</v>
       </c>
       <c r="AF12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="AG12" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AH12" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AI12" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AJ12">
         <v>3</v>
@@ -2730,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="AM12">
         <v>145</v>
@@ -2754,22 +2795,18 @@
         <v>360</v>
       </c>
       <c r="AT12">
-        <f t="shared" si="0"/>
         <v>3930</v>
       </c>
       <c r="AU12">
         <v>36</v>
       </c>
       <c r="AV12">
-        <f t="shared" si="1"/>
         <v>393</v>
       </c>
       <c r="AW12">
-        <f t="shared" si="2"/>
         <v>1572</v>
       </c>
       <c r="AX12">
-        <f t="shared" si="3"/>
         <v>1740</v>
       </c>
       <c r="AY12">
@@ -2781,16 +2818,16 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1">
         <v>45528</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -2799,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -2808,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="L13">
         <v>3.38</v>
@@ -2820,10 +2857,10 @@
         <v>2.4</v>
       </c>
       <c r="O13" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="P13" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -2871,16 +2908,16 @@
         <v>25</v>
       </c>
       <c r="AF13" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="AG13" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AH13" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AI13" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AJ13">
         <v>0</v>
@@ -2889,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="AL13" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AM13">
         <v>144</v>
@@ -2913,22 +2950,18 @@
         <v>425</v>
       </c>
       <c r="AT13">
-        <f t="shared" si="0"/>
         <v>1125</v>
       </c>
       <c r="AU13">
         <v>51</v>
       </c>
       <c r="AV13">
-        <f t="shared" si="1"/>
         <v>135</v>
       </c>
       <c r="AW13">
-        <f t="shared" si="2"/>
         <v>765</v>
       </c>
       <c r="AX13">
-        <f t="shared" si="3"/>
         <v>2448</v>
       </c>
       <c r="AY13">
@@ -2940,16 +2973,16 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1">
         <v>45528</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -2958,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -2967,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="L14">
         <v>1.2</v>
@@ -2979,10 +3012,10 @@
         <v>15.07</v>
       </c>
       <c r="O14" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -3030,16 +3063,16 @@
         <v>21</v>
       </c>
       <c r="AF14" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AG14" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AH14" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AI14" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AJ14">
         <v>2</v>
@@ -3048,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AM14">
         <v>74</v>
@@ -3072,22 +3105,18 @@
         <v>320</v>
       </c>
       <c r="AT14">
-        <f t="shared" si="0"/>
         <v>1120</v>
       </c>
       <c r="AU14">
         <v>32</v>
       </c>
       <c r="AV14">
-        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="AW14">
-        <f t="shared" si="2"/>
         <v>896</v>
       </c>
       <c r="AX14">
-        <f t="shared" si="3"/>
         <v>1184</v>
       </c>
       <c r="AY14">
@@ -3099,16 +3128,16 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1">
         <v>45528</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -3117,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3126,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="L15">
         <v>2.68</v>
@@ -3138,10 +3167,10 @@
         <v>2.96</v>
       </c>
       <c r="O15" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="P15" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -3189,16 +3218,16 @@
         <v>23</v>
       </c>
       <c r="AF15" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AG15" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AH15" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AI15" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AJ15">
         <v>5</v>
@@ -3207,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="AM15">
         <v>45</v>
@@ -3231,22 +3260,18 @@
         <v>550</v>
       </c>
       <c r="AT15">
-        <f t="shared" si="0"/>
         <v>950</v>
       </c>
       <c r="AU15">
         <v>11</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="AW15">
-        <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="AX15">
-        <f t="shared" si="3"/>
         <v>495</v>
       </c>
       <c r="AY15">
@@ -3258,16 +3283,16 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1">
         <v>45529</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3276,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3285,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="L16">
         <v>1.44</v>
@@ -3297,10 +3322,10 @@
         <v>7.64</v>
       </c>
       <c r="O16" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="P16" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="Q16">
         <v>12</v>
@@ -3348,16 +3373,16 @@
         <v>32</v>
       </c>
       <c r="AF16" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="AG16" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AH16" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AI16" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AJ16">
         <v>3</v>
@@ -3366,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -3390,22 +3415,18 @@
         <v>300</v>
       </c>
       <c r="AT16">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU16">
         <v>0</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW16">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AX16">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY16">
@@ -3417,16 +3438,16 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1">
         <v>45529</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -3435,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -3444,7 +3465,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="L17">
         <v>3.32</v>
@@ -3456,10 +3477,10 @@
         <v>2.35</v>
       </c>
       <c r="O17" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="P17" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="Q17">
         <v>13</v>
@@ -3507,16 +3528,16 @@
         <v>21</v>
       </c>
       <c r="AF17" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="AG17" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AH17" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AI17" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AJ17">
         <v>7</v>
@@ -3525,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AM17">
         <v>106</v>
@@ -3549,22 +3570,18 @@
         <v>700</v>
       </c>
       <c r="AT17">
-        <f t="shared" si="0"/>
         <v>4060</v>
       </c>
       <c r="AU17">
         <v>30</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="1"/>
         <v>174</v>
       </c>
       <c r="AW17">
-        <f t="shared" si="2"/>
         <v>580</v>
       </c>
       <c r="AX17">
-        <f t="shared" si="3"/>
         <v>1060</v>
       </c>
       <c r="AY17">
@@ -3576,16 +3593,16 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1">
         <v>45529</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -3594,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3603,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="L18">
         <v>1.94</v>
@@ -3615,10 +3632,10 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="O18" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="Q18">
         <v>16</v>
@@ -3666,16 +3683,16 @@
         <v>28</v>
       </c>
       <c r="AF18" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="AG18" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AH18" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AI18" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AJ18">
         <v>4</v>
@@ -3684,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AM18">
         <v>210</v>
@@ -3708,22 +3725,18 @@
         <v>480</v>
       </c>
       <c r="AT18">
-        <f t="shared" si="0"/>
         <v>4680</v>
       </c>
       <c r="AU18">
         <v>36</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="1"/>
         <v>351</v>
       </c>
       <c r="AW18">
-        <f t="shared" si="2"/>
         <v>1404</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="3"/>
         <v>2520</v>
       </c>
       <c r="AY18">
@@ -3735,16 +3748,16 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1">
         <v>45529</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -3753,7 +3766,7 @@
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -3762,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="L19">
         <v>1.5</v>
@@ -3774,10 +3787,10 @@
         <v>6.8</v>
       </c>
       <c r="O19" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="Q19">
         <v>17</v>
@@ -3825,16 +3838,16 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="AG19" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AH19" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AI19" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AJ19">
         <v>3</v>
@@ -3843,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="AM19">
         <v>186</v>
@@ -3867,22 +3880,18 @@
         <v>390</v>
       </c>
       <c r="AT19">
-        <f t="shared" si="0"/>
         <v>1620</v>
       </c>
       <c r="AU19">
         <v>39</v>
       </c>
       <c r="AV19">
-        <f t="shared" si="1"/>
         <v>162</v>
       </c>
       <c r="AW19">
-        <f t="shared" si="2"/>
         <v>702</v>
       </c>
       <c r="AX19">
-        <f t="shared" si="3"/>
         <v>2418</v>
       </c>
       <c r="AY19">
@@ -3894,16 +3903,16 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C20" s="1">
         <v>45530</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -3912,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -3921,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="L20">
         <v>2.13</v>
@@ -3933,10 +3942,10 @@
         <v>3.66</v>
       </c>
       <c r="O20" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="P20" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -3984,16 +3993,16 @@
         <v>22</v>
       </c>
       <c r="AF20" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AG20" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AH20" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AI20" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AJ20">
         <v>4</v>
@@ -4002,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AM20">
         <v>97</v>
@@ -4026,22 +4035,18 @@
         <v>440</v>
       </c>
       <c r="AT20">
-        <f t="shared" si="0"/>
         <v>4040</v>
       </c>
       <c r="AU20">
         <v>22</v>
       </c>
       <c r="AV20">
-        <f t="shared" si="1"/>
         <v>202</v>
       </c>
       <c r="AW20">
-        <f t="shared" si="2"/>
         <v>1111</v>
       </c>
       <c r="AX20">
-        <f t="shared" si="3"/>
         <v>1067</v>
       </c>
       <c r="AY20">
@@ -4053,16 +4058,16 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1">
         <v>45530</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -4071,7 +4076,7 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -4080,7 +4085,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="L21">
         <v>5.23</v>
@@ -4092,10 +4097,10 @@
         <v>1.72</v>
       </c>
       <c r="O21" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4143,16 +4148,16 @@
         <v>16</v>
       </c>
       <c r="AF21" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AG21" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AH21" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AI21" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AJ21">
         <v>2</v>
@@ -4161,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="AM21">
         <v>120</v>
@@ -4185,25 +4190,1611 @@
         <v>100</v>
       </c>
       <c r="AT21">
-        <f t="shared" si="0"/>
         <v>1100</v>
       </c>
       <c r="AU21">
         <v>15</v>
       </c>
       <c r="AV21">
+        <v>165</v>
+      </c>
+      <c r="AW21">
+        <v>275</v>
+      </c>
+      <c r="AX21">
+        <v>600</v>
+      </c>
+      <c r="AY21">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>101</v>
+      </c>
+      <c r="L22">
+        <v>3.63</v>
+      </c>
+      <c r="M22">
+        <v>3.3</v>
+      </c>
+      <c r="N22">
+        <v>2.23</v>
+      </c>
+      <c r="O22" t="s">
+        <v>106</v>
+      </c>
+      <c r="P22" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q22">
+        <v>13</v>
+      </c>
+      <c r="R22">
+        <v>4</v>
+      </c>
+      <c r="S22">
+        <v>12</v>
+      </c>
+      <c r="T22">
+        <v>6</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
+        <v>4</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>3</v>
+      </c>
+      <c r="Z22">
+        <v>3</v>
+      </c>
+      <c r="AA22">
+        <v>7</v>
+      </c>
+      <c r="AB22">
+        <v>15</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>6</v>
+      </c>
+      <c r="AE22">
+        <v>22</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ22">
+        <v>6</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM22">
+        <v>86</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
+        <v>23</v>
+      </c>
+      <c r="AP22">
+        <v>60</v>
+      </c>
+      <c r="AQ22">
+        <v>800</v>
+      </c>
+      <c r="AR22">
+        <v>60</v>
+      </c>
+      <c r="AS22">
+        <v>360</v>
+      </c>
+      <c r="AT22">
+        <f>AO22*AP22</f>
+        <v>1380</v>
+      </c>
+      <c r="AU22">
+        <v>6</v>
+      </c>
+      <c r="AV22">
+        <f>AN22*AO22</f>
+        <v>23</v>
+      </c>
+      <c r="AW22">
+        <f>AO22*AD22</f>
+        <v>138</v>
+      </c>
+      <c r="AX22">
+        <f>AM22*AD22</f>
+        <v>516</v>
+      </c>
+      <c r="AY22">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L23">
+        <v>1.58</v>
+      </c>
+      <c r="M23">
+        <v>4.43</v>
+      </c>
+      <c r="N23">
+        <v>5.79</v>
+      </c>
+      <c r="O23" t="s">
+        <v>110</v>
+      </c>
+      <c r="P23" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q23">
+        <v>13</v>
+      </c>
+      <c r="R23">
+        <v>5</v>
+      </c>
+      <c r="S23">
+        <v>11</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>3</v>
+      </c>
+      <c r="Z23">
+        <v>4</v>
+      </c>
+      <c r="AA23">
+        <v>6</v>
+      </c>
+      <c r="AB23">
+        <v>15</v>
+      </c>
+      <c r="AC23">
+        <v>4</v>
+      </c>
+      <c r="AD23">
+        <v>7</v>
+      </c>
+      <c r="AE23">
+        <v>21</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ23">
+        <v>2</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM23">
+        <v>116</v>
+      </c>
+      <c r="AN23">
+        <v>4</v>
+      </c>
+      <c r="AO23">
+        <v>60</v>
+      </c>
+      <c r="AP23">
+        <v>20</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>80</v>
+      </c>
+      <c r="AS23">
+        <v>140</v>
+      </c>
+      <c r="AT23">
+        <f t="shared" ref="AT23:AT31" si="0">AO23*AP23</f>
+        <v>1200</v>
+      </c>
+      <c r="AU23">
+        <v>28</v>
+      </c>
+      <c r="AV23">
+        <f t="shared" ref="AV23:AV31" si="1">AN23*AO23</f>
+        <v>240</v>
+      </c>
+      <c r="AW23">
+        <f t="shared" ref="AW23:AW31" si="2">AO23*AD23</f>
+        <v>420</v>
+      </c>
+      <c r="AX23">
+        <f t="shared" ref="AX23:AX31" si="3">AM23*AD23</f>
+        <v>812</v>
+      </c>
+      <c r="AY23">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>101</v>
+      </c>
+      <c r="L24">
+        <v>1.66</v>
+      </c>
+      <c r="M24">
+        <v>3.79</v>
+      </c>
+      <c r="N24">
+        <v>5.89</v>
+      </c>
+      <c r="O24" t="s">
+        <v>104</v>
+      </c>
+      <c r="P24" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q24">
+        <v>14</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>6</v>
+      </c>
+      <c r="Z24">
+        <v>3</v>
+      </c>
+      <c r="AA24">
+        <v>15</v>
+      </c>
+      <c r="AB24">
+        <v>18</v>
+      </c>
+      <c r="AC24">
+        <v>2</v>
+      </c>
+      <c r="AD24">
+        <v>9</v>
+      </c>
+      <c r="AE24">
+        <v>33</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ24">
+        <v>3</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM24">
+        <v>5</v>
+      </c>
+      <c r="AN24">
+        <v>2</v>
+      </c>
+      <c r="AO24">
+        <v>91</v>
+      </c>
+      <c r="AP24">
+        <v>30</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>60</v>
+      </c>
+      <c r="AS24">
+        <v>270</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" si="0"/>
+        <v>2730</v>
+      </c>
+      <c r="AU24">
+        <v>18</v>
+      </c>
+      <c r="AV24">
         <f t="shared" si="1"/>
+        <v>182</v>
+      </c>
+      <c r="AW24">
+        <f t="shared" si="2"/>
+        <v>819</v>
+      </c>
+      <c r="AX24">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="AY24">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>102</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>102</v>
+      </c>
+      <c r="L25">
+        <v>2.33</v>
+      </c>
+      <c r="M25">
+        <v>3.18</v>
+      </c>
+      <c r="N25">
+        <v>3.45</v>
+      </c>
+      <c r="O25" t="s">
+        <v>105</v>
+      </c>
+      <c r="P25" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q25">
+        <v>17</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
+      </c>
+      <c r="S25">
+        <v>21</v>
+      </c>
+      <c r="T25">
+        <v>2</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>7</v>
+      </c>
+      <c r="Z25">
+        <v>10</v>
+      </c>
+      <c r="AA25">
+        <v>10</v>
+      </c>
+      <c r="AB25">
+        <v>13</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>17</v>
+      </c>
+      <c r="AE25">
+        <v>23</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ25">
+        <v>4</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25" t="s">
         <v>165</v>
       </c>
-      <c r="AW21">
+      <c r="AM25">
+        <v>26</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
+        <v>9</v>
+      </c>
+      <c r="AP25">
+        <v>65</v>
+      </c>
+      <c r="AQ25">
+        <v>1050</v>
+      </c>
+      <c r="AR25">
+        <v>65</v>
+      </c>
+      <c r="AS25">
+        <v>1105</v>
+      </c>
+      <c r="AT25">
+        <f t="shared" si="0"/>
+        <v>585</v>
+      </c>
+      <c r="AU25">
+        <v>17</v>
+      </c>
+      <c r="AV25">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AW25">
         <f t="shared" si="2"/>
-        <v>275</v>
-      </c>
-      <c r="AX21">
+        <v>153</v>
+      </c>
+      <c r="AX25">
         <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="AY21">
+        <v>442</v>
+      </c>
+      <c r="AY25">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>103</v>
+      </c>
+      <c r="L26">
+        <v>2.97</v>
+      </c>
+      <c r="M26">
+        <v>3.44</v>
+      </c>
+      <c r="N26">
+        <v>2.46</v>
+      </c>
+      <c r="O26" t="s">
+        <v>107</v>
+      </c>
+      <c r="P26" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q26">
+        <v>7</v>
+      </c>
+      <c r="R26">
+        <v>5</v>
+      </c>
+      <c r="S26">
+        <v>10</v>
+      </c>
+      <c r="T26">
+        <v>4</v>
+      </c>
+      <c r="U26">
+        <v>4</v>
+      </c>
+      <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>5</v>
+      </c>
+      <c r="Z26">
+        <v>7</v>
+      </c>
+      <c r="AA26">
+        <v>12</v>
+      </c>
+      <c r="AB26">
+        <v>9</v>
+      </c>
+      <c r="AC26">
+        <v>4</v>
+      </c>
+      <c r="AD26">
+        <v>12</v>
+      </c>
+      <c r="AE26">
+        <v>21</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ26">
+        <v>6</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM26">
+        <v>208</v>
+      </c>
+      <c r="AN26">
+        <v>4</v>
+      </c>
+      <c r="AO26">
+        <v>71</v>
+      </c>
+      <c r="AP26">
+        <v>60</v>
+      </c>
+      <c r="AQ26">
+        <v>800</v>
+      </c>
+      <c r="AR26">
+        <v>240</v>
+      </c>
+      <c r="AS26">
+        <v>720</v>
+      </c>
+      <c r="AT26">
+        <f t="shared" si="0"/>
+        <v>4260</v>
+      </c>
+      <c r="AU26">
+        <v>48</v>
+      </c>
+      <c r="AV26">
+        <f t="shared" si="1"/>
+        <v>284</v>
+      </c>
+      <c r="AW26">
+        <f t="shared" si="2"/>
+        <v>852</v>
+      </c>
+      <c r="AX26">
+        <f t="shared" si="3"/>
+        <v>2496</v>
+      </c>
+      <c r="AY26">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>103</v>
+      </c>
+      <c r="L27">
+        <v>1.5</v>
+      </c>
+      <c r="M27">
+        <v>4.66</v>
+      </c>
+      <c r="N27">
+        <v>6.48</v>
+      </c>
+      <c r="O27" t="s">
+        <v>107</v>
+      </c>
+      <c r="P27" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q27">
+        <v>29</v>
+      </c>
+      <c r="R27">
+        <v>7</v>
+      </c>
+      <c r="S27">
+        <v>13</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>4</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>6</v>
+      </c>
+      <c r="Z27">
+        <v>4</v>
+      </c>
+      <c r="AA27">
+        <v>12</v>
+      </c>
+      <c r="AB27">
+        <v>6</v>
+      </c>
+      <c r="AC27">
+        <v>3</v>
+      </c>
+      <c r="AD27">
+        <v>10</v>
+      </c>
+      <c r="AE27">
+        <v>18</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ27">
+        <v>6</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM27">
+        <v>199</v>
+      </c>
+      <c r="AN27">
+        <v>3</v>
+      </c>
+      <c r="AO27">
+        <v>123</v>
+      </c>
+      <c r="AP27">
+        <v>85</v>
+      </c>
+      <c r="AQ27">
+        <v>1300</v>
+      </c>
+      <c r="AR27">
+        <v>255</v>
+      </c>
+      <c r="AS27">
+        <v>850</v>
+      </c>
+      <c r="AT27">
+        <f t="shared" si="0"/>
+        <v>10455</v>
+      </c>
+      <c r="AU27">
+        <v>30</v>
+      </c>
+      <c r="AV27">
+        <f t="shared" si="1"/>
+        <v>369</v>
+      </c>
+      <c r="AW27">
+        <f t="shared" si="2"/>
+        <v>1230</v>
+      </c>
+      <c r="AX27">
+        <f t="shared" si="3"/>
+        <v>1990</v>
+      </c>
+      <c r="AY27">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>101</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28" t="s">
+        <v>103</v>
+      </c>
+      <c r="L28">
+        <v>1.7</v>
+      </c>
+      <c r="M28">
+        <v>3.86</v>
+      </c>
+      <c r="N28">
+        <v>5.24</v>
+      </c>
+      <c r="O28" t="s">
+        <v>111</v>
+      </c>
+      <c r="P28" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q28">
+        <v>15</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="T28">
+        <v>3</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>4</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>6</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>11</v>
+      </c>
+      <c r="AB28">
+        <v>21</v>
+      </c>
+      <c r="AC28">
+        <v>4</v>
+      </c>
+      <c r="AD28">
+        <v>6</v>
+      </c>
+      <c r="AE28">
+        <v>32</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ28">
+        <v>6</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM28">
+        <v>185</v>
+      </c>
+      <c r="AN28">
+        <v>4</v>
+      </c>
+      <c r="AO28">
+        <v>66</v>
+      </c>
+      <c r="AP28">
+        <v>60</v>
+      </c>
+      <c r="AQ28">
+        <v>800</v>
+      </c>
+      <c r="AR28">
+        <v>240</v>
+      </c>
+      <c r="AS28">
+        <v>360</v>
+      </c>
+      <c r="AT28">
+        <f t="shared" si="0"/>
+        <v>3960</v>
+      </c>
+      <c r="AU28">
+        <v>24</v>
+      </c>
+      <c r="AV28">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+      <c r="AW28">
+        <f t="shared" si="2"/>
+        <v>396</v>
+      </c>
+      <c r="AX28">
+        <f t="shared" si="3"/>
+        <v>1110</v>
+      </c>
+      <c r="AY28">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>101</v>
+      </c>
+      <c r="L29">
+        <v>2.02</v>
+      </c>
+      <c r="M29">
+        <v>3.29</v>
+      </c>
+      <c r="N29">
+        <v>4.25</v>
+      </c>
+      <c r="O29" t="s">
+        <v>106</v>
+      </c>
+      <c r="P29" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q29">
+        <v>11</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>10</v>
+      </c>
+      <c r="T29">
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <v>2</v>
+      </c>
+      <c r="V29">
+        <v>6</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>3</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>8</v>
+      </c>
+      <c r="AB29">
+        <v>16</v>
+      </c>
+      <c r="AC29">
+        <v>2</v>
+      </c>
+      <c r="AD29">
+        <v>4</v>
+      </c>
+      <c r="AE29">
+        <v>24</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ29">
+        <v>8</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM29">
+        <v>119</v>
+      </c>
+      <c r="AN29">
+        <v>2</v>
+      </c>
+      <c r="AO29">
+        <v>49</v>
+      </c>
+      <c r="AP29">
+        <v>80</v>
+      </c>
+      <c r="AQ29">
+        <v>1200</v>
+      </c>
+      <c r="AR29">
+        <v>160</v>
+      </c>
+      <c r="AS29">
+        <v>320</v>
+      </c>
+      <c r="AT29">
+        <f t="shared" si="0"/>
+        <v>3920</v>
+      </c>
+      <c r="AU29">
+        <v>8</v>
+      </c>
+      <c r="AV29">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="AW29">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="AX29">
+        <f t="shared" si="3"/>
+        <v>476</v>
+      </c>
+      <c r="AY29">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>101</v>
+      </c>
+      <c r="L30">
+        <v>1.76</v>
+      </c>
+      <c r="M30">
+        <v>3.73</v>
+      </c>
+      <c r="N30">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="O30" t="s">
+        <v>106</v>
+      </c>
+      <c r="P30" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q30">
+        <v>8</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>7</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>2</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>6</v>
+      </c>
+      <c r="Z30">
+        <v>4</v>
+      </c>
+      <c r="AA30">
+        <v>11</v>
+      </c>
+      <c r="AB30">
+        <v>12</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>10</v>
+      </c>
+      <c r="AE30">
+        <v>23</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ30">
+        <v>4</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>170</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>40</v>
+      </c>
+      <c r="AQ30">
+        <v>400</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>400</v>
+      </c>
+      <c r="AT30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>102</v>
+      </c>
+      <c r="L31">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="M31">
+        <v>3.4</v>
+      </c>
+      <c r="N31">
+        <v>3.89</v>
+      </c>
+      <c r="O31" t="s">
+        <v>105</v>
+      </c>
+      <c r="P31" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q31">
+        <v>10</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>21</v>
+      </c>
+      <c r="T31">
+        <v>4</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>4</v>
+      </c>
+      <c r="Z31">
+        <v>6</v>
+      </c>
+      <c r="AA31">
+        <v>16</v>
+      </c>
+      <c r="AB31">
+        <v>9</v>
+      </c>
+      <c r="AC31">
+        <v>1</v>
+      </c>
+      <c r="AD31">
+        <v>10</v>
+      </c>
+      <c r="AE31">
+        <v>25</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ31">
+        <v>3</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM31">
+        <v>43</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
+        <v>22</v>
+      </c>
+      <c r="AP31">
+        <v>30</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>30</v>
+      </c>
+      <c r="AS31">
+        <v>300</v>
+      </c>
+      <c r="AT31">
+        <f t="shared" si="0"/>
+        <v>660</v>
+      </c>
+      <c r="AU31">
+        <v>10</v>
+      </c>
+      <c r="AV31">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="AW31">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+      <c r="AX31">
+        <f t="shared" si="3"/>
+        <v>430</v>
+      </c>
+      <c r="AY31">
         <v>300</v>
       </c>
     </row>

--- a/I1_spread.xlsx
+++ b/I1_spread.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDECF609-C747-4033-83F3-8BAC17BE2514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8845928-4B9E-4F39-9FC3-59506A5700BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5505" yWindow="6675" windowWidth="20355" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="227">
   <si>
     <t>Div</t>
   </si>
@@ -240,34 +240,94 @@
     <t>20</t>
   </si>
   <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>481</t>
-  </si>
-  <si>
-    <t>482</t>
-  </si>
-  <si>
-    <t>483</t>
-  </si>
-  <si>
-    <t>484</t>
-  </si>
-  <si>
-    <t>485</t>
-  </si>
-  <si>
-    <t>486</t>
-  </si>
-  <si>
-    <t>487</t>
-  </si>
-  <si>
-    <t>488</t>
-  </si>
-  <si>
-    <t>489</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>771</t>
+  </si>
+  <si>
+    <t>772</t>
+  </si>
+  <si>
+    <t>773</t>
+  </si>
+  <si>
+    <t>774</t>
+  </si>
+  <si>
+    <t>775</t>
+  </si>
+  <si>
+    <t>776</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>778</t>
+  </si>
+  <si>
+    <t>779</t>
+  </si>
+  <si>
+    <t>780</t>
   </si>
   <si>
     <t>I1</t>
@@ -327,12 +387,12 @@
     <t>Venezia</t>
   </si>
   <si>
+    <t>Como</t>
+  </si>
+  <si>
     <t>Atalanta</t>
   </si>
   <si>
-    <t>Como</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -366,6 +426,12 @@
     <t>1-2</t>
   </si>
   <si>
+    <t>4-0</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
     <t>2-2</t>
   </si>
   <si>
@@ -381,7 +447,7 @@
     <t>0-3</t>
   </si>
   <si>
-    <t>4-0</t>
+    <t>2-3</t>
   </si>
   <si>
     <t>1-4</t>
@@ -450,6 +516,45 @@
     <t>6-0</t>
   </si>
   <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>1-8</t>
+  </si>
+  <si>
+    <t>9-6</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>2-12</t>
+  </si>
+  <si>
+    <t>3-10</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -544,6 +649,66 @@
   </si>
   <si>
     <t>Udinese-Como</t>
+  </si>
+  <si>
+    <t>Como-Bologna</t>
+  </si>
+  <si>
+    <t>Empoli-Juventus</t>
+  </si>
+  <si>
+    <t>Milan-Venezia</t>
+  </si>
+  <si>
+    <t>Genoa-Roma</t>
+  </si>
+  <si>
+    <t>Atalanta-Fiorentina</t>
+  </si>
+  <si>
+    <t>Torino-Lecce</t>
+  </si>
+  <si>
+    <t>Cagliari-Napoli</t>
+  </si>
+  <si>
+    <t>Monza-Inter</t>
+  </si>
+  <si>
+    <t>Parma-Udinese</t>
+  </si>
+  <si>
+    <t>Lazio-Verona</t>
+  </si>
+  <si>
+    <t>Cagliari-Empoli</t>
+  </si>
+  <si>
+    <t>Verona-Torino</t>
+  </si>
+  <si>
+    <t>Venezia-Genoa</t>
+  </si>
+  <si>
+    <t>Juventus-Napoli</t>
+  </si>
+  <si>
+    <t>Lecce-Parma</t>
+  </si>
+  <si>
+    <t>Fiorentina-Lazio</t>
+  </si>
+  <si>
+    <t>Monza-Bologna</t>
+  </si>
+  <si>
+    <t>Roma-Udinese</t>
+  </si>
+  <si>
+    <t>Inter-Milan</t>
+  </si>
+  <si>
+    <t>Atalanta-Como</t>
   </si>
 </sst>
 </file>
@@ -899,13 +1064,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY31"/>
+  <dimension ref="A1:AY51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AB35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO32" sqref="AO32"/>
+      <selection pane="bottomRight" activeCell="AO52" sqref="AO52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +1105,7 @@
     <col min="33" max="35" width="6" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="2.42578125" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="13.140625" bestFit="1" customWidth="1"/>
@@ -1113,16 +1278,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1">
         <v>45521</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1131,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1140,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L2">
         <v>6.6</v>
@@ -1152,10 +1317,10 @@
         <v>1.55</v>
       </c>
       <c r="O2" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="P2" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1203,16 +1368,16 @@
         <v>29</v>
       </c>
       <c r="AF2" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="AG2" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AH2" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AI2" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AJ2">
         <v>3</v>
@@ -1221,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="AM2">
         <v>222</v>
@@ -1268,16 +1433,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1">
         <v>45521</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1286,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1295,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="L3">
         <v>3.37</v>
@@ -1307,10 +1472,10 @@
         <v>2.25</v>
       </c>
       <c r="O3" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="P3" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="Q3">
         <v>13</v>
@@ -1358,16 +1523,16 @@
         <v>24</v>
       </c>
       <c r="AF3" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="AG3" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AH3" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AI3" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AJ3">
         <v>5</v>
@@ -1376,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="AL3" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="AM3">
         <v>97</v>
@@ -1423,16 +1588,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1">
         <v>45521</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1441,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1450,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L4">
         <v>2.5299999999999998</v>
@@ -1462,10 +1627,10 @@
         <v>3.14</v>
       </c>
       <c r="O4" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="P4" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1513,16 +1678,16 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="AG4" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AH4" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AI4" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AJ4">
         <v>2</v>
@@ -1531,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -1578,16 +1743,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1">
         <v>45521</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1596,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1605,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="L5">
         <v>1.62</v>
@@ -1617,10 +1782,10 @@
         <v>5.76</v>
       </c>
       <c r="O5" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="Q5">
         <v>20</v>
@@ -1668,16 +1833,16 @@
         <v>17</v>
       </c>
       <c r="AF5" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="AG5" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AH5" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AI5" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AJ5">
         <v>6</v>
@@ -1686,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="AM5">
         <v>277</v>
@@ -1733,16 +1898,16 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1">
         <v>45522</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1751,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1760,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L6">
         <v>1.95</v>
@@ -1772,10 +1937,10 @@
         <v>4.57</v>
       </c>
       <c r="O6" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="Q6">
         <v>22</v>
@@ -1823,16 +1988,16 @@
         <v>28</v>
       </c>
       <c r="AF6" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="AG6" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AH6" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AI6" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AJ6">
         <v>4</v>
@@ -1841,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="AM6">
         <v>125</v>
@@ -1888,16 +2053,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1">
         <v>45522</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -1906,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1915,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L7">
         <v>4.99</v>
@@ -1927,10 +2092,10 @@
         <v>1.78</v>
       </c>
       <c r="O7" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="Q7">
         <v>8</v>
@@ -1978,16 +2143,16 @@
         <v>28</v>
       </c>
       <c r="AF7" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="AG7" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AH7" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AI7" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AJ7">
         <v>5</v>
@@ -1996,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="AM7">
         <v>215</v>
@@ -2043,16 +2208,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1">
         <v>45522</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2061,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2070,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L8">
         <v>4.04</v>
@@ -2082,10 +2247,10 @@
         <v>1.99</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="Q8">
         <v>12</v>
@@ -2133,16 +2298,16 @@
         <v>22</v>
       </c>
       <c r="AF8" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="AG8" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AH8" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AI8" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AJ8">
         <v>2</v>
@@ -2151,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="AM8">
         <v>0</v>
@@ -2198,16 +2363,16 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1">
         <v>45522</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -2216,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -2225,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="L9">
         <v>1.48</v>
@@ -2237,10 +2402,10 @@
         <v>7.29</v>
       </c>
       <c r="O9" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="P9" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="Q9">
         <v>13</v>
@@ -2288,16 +2453,16 @@
         <v>25</v>
       </c>
       <c r="AF9" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="AG9" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AH9" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AI9" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AJ9">
         <v>3</v>
@@ -2306,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="AM9">
         <v>139</v>
@@ -2353,16 +2518,16 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1">
         <v>45523</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2371,7 +2536,7 @@
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2380,7 +2545,7 @@
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="L10">
         <v>4.4400000000000004</v>
@@ -2392,10 +2557,10 @@
         <v>1.88</v>
       </c>
       <c r="O10" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="Q10">
         <v>19</v>
@@ -2443,16 +2608,16 @@
         <v>34</v>
       </c>
       <c r="AF10" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AH10" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AI10" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AJ10">
         <v>2</v>
@@ -2461,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="AM10">
         <v>203</v>
@@ -2508,16 +2673,16 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1">
         <v>45523</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -2526,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -2535,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="L11">
         <v>1.34</v>
@@ -2547,10 +2712,10 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="O11" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="P11" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="Q11">
         <v>12</v>
@@ -2598,16 +2763,16 @@
         <v>18</v>
       </c>
       <c r="AF11" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="AG11" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AH11" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AI11" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AJ11">
         <v>6</v>
@@ -2616,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="AM11">
         <v>158</v>
@@ -2663,16 +2828,16 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1">
         <v>45528</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -2681,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2690,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="L12">
         <v>4.9000000000000004</v>
@@ -2702,10 +2867,10 @@
         <v>1.69</v>
       </c>
       <c r="O12" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="P12" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -2753,16 +2918,16 @@
         <v>22</v>
       </c>
       <c r="AF12" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AG12" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AH12" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AI12" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AJ12">
         <v>3</v>
@@ -2771,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="AM12">
         <v>145</v>
@@ -2818,16 +2983,16 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C13" s="1">
         <v>45528</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -2836,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -2845,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="L13">
         <v>3.38</v>
@@ -2857,10 +3022,10 @@
         <v>2.4</v>
       </c>
       <c r="O13" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="P13" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -2908,16 +3073,16 @@
         <v>25</v>
       </c>
       <c r="AF13" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AG13" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AH13" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AI13" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AJ13">
         <v>0</v>
@@ -2926,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="AL13" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="AM13">
         <v>144</v>
@@ -2973,16 +3138,16 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1">
         <v>45528</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -2991,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3000,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="L14">
         <v>1.2</v>
@@ -3012,10 +3177,10 @@
         <v>15.07</v>
       </c>
       <c r="O14" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="P14" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -3063,16 +3228,16 @@
         <v>21</v>
       </c>
       <c r="AF14" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="AG14" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AH14" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AI14" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AJ14">
         <v>2</v>
@@ -3081,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="AM14">
         <v>74</v>
@@ -3128,16 +3293,16 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1">
         <v>45528</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -3146,7 +3311,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3155,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="L15">
         <v>2.68</v>
@@ -3167,10 +3332,10 @@
         <v>2.96</v>
       </c>
       <c r="O15" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="P15" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -3218,16 +3383,16 @@
         <v>23</v>
       </c>
       <c r="AF15" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="AG15" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AH15" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AI15" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AJ15">
         <v>5</v>
@@ -3236,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="AM15">
         <v>45</v>
@@ -3283,16 +3448,16 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C16" s="1">
         <v>45529</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3301,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3310,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L16">
         <v>1.44</v>
@@ -3322,10 +3487,10 @@
         <v>7.64</v>
       </c>
       <c r="O16" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="P16" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="Q16">
         <v>12</v>
@@ -3373,16 +3538,16 @@
         <v>32</v>
       </c>
       <c r="AF16" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="AG16" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AH16" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AI16" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AJ16">
         <v>3</v>
@@ -3391,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -3438,16 +3603,16 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C17" s="1">
         <v>45529</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -3456,7 +3621,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -3465,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L17">
         <v>3.32</v>
@@ -3477,10 +3642,10 @@
         <v>2.35</v>
       </c>
       <c r="O17" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="P17" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="Q17">
         <v>13</v>
@@ -3528,16 +3693,16 @@
         <v>21</v>
       </c>
       <c r="AF17" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="AG17" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AH17" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AI17" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AJ17">
         <v>7</v>
@@ -3546,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="AM17">
         <v>106</v>
@@ -3593,16 +3758,16 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C18" s="1">
         <v>45529</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -3611,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3620,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="L18">
         <v>1.94</v>
@@ -3632,10 +3797,10 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="O18" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="P18" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="Q18">
         <v>16</v>
@@ -3683,16 +3848,16 @@
         <v>28</v>
       </c>
       <c r="AF18" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="AG18" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AH18" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AI18" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AJ18">
         <v>4</v>
@@ -3701,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="AM18">
         <v>210</v>
@@ -3748,16 +3913,16 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C19" s="1">
         <v>45529</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -3766,7 +3931,7 @@
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -3775,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="L19">
         <v>1.5</v>
@@ -3787,10 +3952,10 @@
         <v>6.8</v>
       </c>
       <c r="O19" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="P19" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="Q19">
         <v>17</v>
@@ -3838,16 +4003,16 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="AG19" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AH19" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AI19" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AJ19">
         <v>3</v>
@@ -3856,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="AM19">
         <v>186</v>
@@ -3903,16 +4068,16 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C20" s="1">
         <v>45530</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -3921,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -3930,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="L20">
         <v>2.13</v>
@@ -3942,10 +4107,10 @@
         <v>3.66</v>
       </c>
       <c r="O20" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="P20" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -3993,16 +4158,16 @@
         <v>22</v>
       </c>
       <c r="AF20" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="AG20" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AH20" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AI20" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AJ20">
         <v>4</v>
@@ -4011,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="AM20">
         <v>97</v>
@@ -4058,16 +4223,16 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C21" s="1">
         <v>45530</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -4076,7 +4241,7 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -4085,7 +4250,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="L21">
         <v>5.23</v>
@@ -4097,10 +4262,10 @@
         <v>1.72</v>
       </c>
       <c r="O21" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="P21" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4148,16 +4313,16 @@
         <v>16</v>
       </c>
       <c r="AF21" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="AG21" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AH21" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AI21" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AJ21">
         <v>2</v>
@@ -4166,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="AM21">
         <v>120</v>
@@ -4213,16 +4378,16 @@
         <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1">
         <v>45534</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -4231,7 +4396,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -4240,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L22">
         <v>3.63</v>
@@ -4252,10 +4417,10 @@
         <v>2.23</v>
       </c>
       <c r="O22" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="P22" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="Q22">
         <v>13</v>
@@ -4303,16 +4468,16 @@
         <v>22</v>
       </c>
       <c r="AF22" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="AG22" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AH22" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AI22" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AJ22">
         <v>6</v>
@@ -4321,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="AM22">
         <v>86</v>
@@ -4345,22 +4510,18 @@
         <v>360</v>
       </c>
       <c r="AT22">
-        <f>AO22*AP22</f>
         <v>1380</v>
       </c>
       <c r="AU22">
         <v>6</v>
       </c>
       <c r="AV22">
-        <f>AN22*AO22</f>
         <v>23</v>
       </c>
       <c r="AW22">
-        <f>AO22*AD22</f>
         <v>138</v>
       </c>
       <c r="AX22">
-        <f>AM22*AD22</f>
         <v>516</v>
       </c>
       <c r="AY22">
@@ -4372,16 +4533,16 @@
         <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C23" s="1">
         <v>45534</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -4390,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -4399,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="L23">
         <v>1.58</v>
@@ -4411,10 +4572,10 @@
         <v>5.79</v>
       </c>
       <c r="O23" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="P23" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="Q23">
         <v>13</v>
@@ -4462,16 +4623,16 @@
         <v>21</v>
       </c>
       <c r="AF23" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="AG23" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AH23" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AI23" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AJ23">
         <v>2</v>
@@ -4480,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="AM23">
         <v>116</v>
@@ -4504,22 +4665,18 @@
         <v>140</v>
       </c>
       <c r="AT23">
-        <f t="shared" ref="AT23:AT31" si="0">AO23*AP23</f>
         <v>1200</v>
       </c>
       <c r="AU23">
         <v>28</v>
       </c>
       <c r="AV23">
-        <f t="shared" ref="AV23:AV31" si="1">AN23*AO23</f>
         <v>240</v>
       </c>
       <c r="AW23">
-        <f t="shared" ref="AW23:AW31" si="2">AO23*AD23</f>
         <v>420</v>
       </c>
       <c r="AX23">
-        <f t="shared" ref="AX23:AX31" si="3">AM23*AD23</f>
         <v>812</v>
       </c>
       <c r="AY23">
@@ -4531,16 +4688,16 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C24" s="1">
         <v>45535</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -4549,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -4558,7 +4715,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L24">
         <v>1.66</v>
@@ -4570,10 +4727,10 @@
         <v>5.89</v>
       </c>
       <c r="O24" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="P24" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="Q24">
         <v>14</v>
@@ -4621,16 +4778,16 @@
         <v>33</v>
       </c>
       <c r="AF24" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="AG24" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AH24" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AI24" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AJ24">
         <v>3</v>
@@ -4639,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="AM24">
         <v>5</v>
@@ -4663,22 +4820,18 @@
         <v>270</v>
       </c>
       <c r="AT24">
-        <f t="shared" si="0"/>
         <v>2730</v>
       </c>
       <c r="AU24">
         <v>18</v>
       </c>
       <c r="AV24">
-        <f t="shared" si="1"/>
         <v>182</v>
       </c>
       <c r="AW24">
-        <f t="shared" si="2"/>
         <v>819</v>
       </c>
       <c r="AX24">
-        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="AY24">
@@ -4690,16 +4843,16 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C25" s="1">
         <v>45535</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -4708,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -4717,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="L25">
         <v>2.33</v>
@@ -4729,10 +4882,10 @@
         <v>3.45</v>
       </c>
       <c r="O25" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="P25" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="Q25">
         <v>17</v>
@@ -4780,16 +4933,16 @@
         <v>23</v>
       </c>
       <c r="AF25" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="AG25" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AH25" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AI25" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AJ25">
         <v>4</v>
@@ -4798,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="AM25">
         <v>26</v>
@@ -4822,22 +4975,18 @@
         <v>1105</v>
       </c>
       <c r="AT25">
-        <f t="shared" si="0"/>
         <v>585</v>
       </c>
       <c r="AU25">
         <v>17</v>
       </c>
       <c r="AV25">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AW25">
-        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="AX25">
-        <f t="shared" si="3"/>
         <v>442</v>
       </c>
       <c r="AY25">
@@ -4849,16 +4998,16 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C26" s="1">
         <v>45535</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -4867,7 +5016,7 @@
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -4876,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="L26">
         <v>2.97</v>
@@ -4888,10 +5037,10 @@
         <v>2.46</v>
       </c>
       <c r="O26" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="P26" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -4939,16 +5088,16 @@
         <v>21</v>
       </c>
       <c r="AF26" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="AG26" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AH26" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AI26" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AJ26">
         <v>6</v>
@@ -4957,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="AL26" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="AM26">
         <v>208</v>
@@ -4981,22 +5130,18 @@
         <v>720</v>
       </c>
       <c r="AT26">
-        <f t="shared" si="0"/>
         <v>4260</v>
       </c>
       <c r="AU26">
         <v>48</v>
       </c>
       <c r="AV26">
-        <f t="shared" si="1"/>
         <v>284</v>
       </c>
       <c r="AW26">
-        <f t="shared" si="2"/>
         <v>852</v>
       </c>
       <c r="AX26">
-        <f t="shared" si="3"/>
         <v>2496</v>
       </c>
       <c r="AY26">
@@ -5008,16 +5153,16 @@
         <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C27" s="1">
         <v>45535</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -5026,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -5035,7 +5180,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="L27">
         <v>1.5</v>
@@ -5047,10 +5192,10 @@
         <v>6.48</v>
       </c>
       <c r="O27" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="P27" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="Q27">
         <v>29</v>
@@ -5098,16 +5243,16 @@
         <v>18</v>
       </c>
       <c r="AF27" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="AG27" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AH27" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AI27" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AJ27">
         <v>6</v>
@@ -5116,7 +5261,7 @@
         <v>1</v>
       </c>
       <c r="AL27" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="AM27">
         <v>199</v>
@@ -5140,22 +5285,18 @@
         <v>850</v>
       </c>
       <c r="AT27">
-        <f t="shared" si="0"/>
         <v>10455</v>
       </c>
       <c r="AU27">
         <v>30</v>
       </c>
       <c r="AV27">
-        <f t="shared" si="1"/>
         <v>369</v>
       </c>
       <c r="AW27">
-        <f t="shared" si="2"/>
         <v>1230</v>
       </c>
       <c r="AX27">
-        <f t="shared" si="3"/>
         <v>1990</v>
       </c>
       <c r="AY27">
@@ -5167,16 +5308,16 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C28" s="1">
         <v>45536</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -5185,7 +5326,7 @@
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -5194,7 +5335,7 @@
         <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="L28">
         <v>1.7</v>
@@ -5206,10 +5347,10 @@
         <v>5.24</v>
       </c>
       <c r="O28" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="P28" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="Q28">
         <v>15</v>
@@ -5257,16 +5398,16 @@
         <v>32</v>
       </c>
       <c r="AF28" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="AG28" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AH28" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AI28" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AJ28">
         <v>6</v>
@@ -5275,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="AL28" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="AM28">
         <v>185</v>
@@ -5299,22 +5440,18 @@
         <v>360</v>
       </c>
       <c r="AT28">
-        <f t="shared" si="0"/>
         <v>3960</v>
       </c>
       <c r="AU28">
         <v>24</v>
       </c>
       <c r="AV28">
-        <f t="shared" si="1"/>
         <v>264</v>
       </c>
       <c r="AW28">
-        <f t="shared" si="2"/>
         <v>396</v>
       </c>
       <c r="AX28">
-        <f t="shared" si="3"/>
         <v>1110</v>
       </c>
       <c r="AY28">
@@ -5326,16 +5463,16 @@
         <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C29" s="1">
         <v>45536</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -5344,7 +5481,7 @@
         <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -5353,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L29">
         <v>2.02</v>
@@ -5365,10 +5502,10 @@
         <v>4.25</v>
       </c>
       <c r="O29" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="P29" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -5416,16 +5553,16 @@
         <v>24</v>
       </c>
       <c r="AF29" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="AG29" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AH29" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AI29" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AJ29">
         <v>8</v>
@@ -5434,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="AL29" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="AM29">
         <v>119</v>
@@ -5458,22 +5595,18 @@
         <v>320</v>
       </c>
       <c r="AT29">
-        <f t="shared" si="0"/>
         <v>3920</v>
       </c>
       <c r="AU29">
         <v>8</v>
       </c>
       <c r="AV29">
-        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="AW29">
-        <f t="shared" si="2"/>
         <v>196</v>
       </c>
       <c r="AX29">
-        <f t="shared" si="3"/>
         <v>476</v>
       </c>
       <c r="AY29">
@@ -5485,16 +5618,16 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C30" s="1">
         <v>45536</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -5503,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -5512,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L30">
         <v>1.76</v>
@@ -5524,10 +5657,10 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="O30" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="P30" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -5575,16 +5708,16 @@
         <v>23</v>
       </c>
       <c r="AF30" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="AG30" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AH30" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AI30" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AJ30">
         <v>4</v>
@@ -5593,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="AM30">
         <v>0</v>
@@ -5617,22 +5750,18 @@
         <v>400</v>
       </c>
       <c r="AT30">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU30">
         <v>0</v>
       </c>
       <c r="AV30">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW30">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AX30">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY30">
@@ -5644,16 +5773,16 @@
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C31" s="1">
         <v>45536</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -5662,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -5671,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="L31">
         <v>2.0699999999999998</v>
@@ -5683,10 +5812,10 @@
         <v>3.89</v>
       </c>
       <c r="O31" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="P31" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="Q31">
         <v>10</v>
@@ -5734,16 +5863,16 @@
         <v>25</v>
       </c>
       <c r="AF31" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="AG31" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AH31" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AI31" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="AJ31">
         <v>3</v>
@@ -5752,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="AM31">
         <v>43</v>
@@ -5776,26 +5905,3162 @@
         <v>300</v>
       </c>
       <c r="AT31">
-        <f t="shared" si="0"/>
         <v>660</v>
       </c>
       <c r="AU31">
         <v>10</v>
       </c>
       <c r="AV31">
-        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="AW31">
-        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="AX31">
-        <f t="shared" si="3"/>
         <v>430</v>
       </c>
       <c r="AY31">
         <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45549</v>
+      </c>
+      <c r="D32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>122</v>
+      </c>
+      <c r="L32">
+        <v>3.03</v>
+      </c>
+      <c r="M32">
+        <v>3.15</v>
+      </c>
+      <c r="N32">
+        <v>2.57</v>
+      </c>
+      <c r="O32" t="s">
+        <v>125</v>
+      </c>
+      <c r="P32" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q32">
+        <v>14</v>
+      </c>
+      <c r="R32">
+        <v>4</v>
+      </c>
+      <c r="S32">
+        <v>14</v>
+      </c>
+      <c r="T32">
+        <v>4</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>4</v>
+      </c>
+      <c r="Z32">
+        <v>3</v>
+      </c>
+      <c r="AA32">
+        <v>17</v>
+      </c>
+      <c r="AB32">
+        <v>12</v>
+      </c>
+      <c r="AC32">
+        <v>4</v>
+      </c>
+      <c r="AD32">
+        <v>7</v>
+      </c>
+      <c r="AE32">
+        <v>29</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ32">
+        <v>3</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM32">
+        <v>134</v>
+      </c>
+      <c r="AN32">
+        <v>4</v>
+      </c>
+      <c r="AO32">
+        <v>48</v>
+      </c>
+      <c r="AP32">
+        <v>30</v>
+      </c>
+      <c r="AQ32">
+        <v>200</v>
+      </c>
+      <c r="AR32">
+        <v>120</v>
+      </c>
+      <c r="AS32">
+        <v>210</v>
+      </c>
+      <c r="AT32">
+        <v>1440</v>
+      </c>
+      <c r="AU32">
+        <v>28</v>
+      </c>
+      <c r="AV32">
+        <v>192</v>
+      </c>
+      <c r="AW32">
+        <v>336</v>
+      </c>
+      <c r="AX32">
+        <v>938</v>
+      </c>
+      <c r="AY32">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45549</v>
+      </c>
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>121</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>121</v>
+      </c>
+      <c r="L33">
+        <v>5.54</v>
+      </c>
+      <c r="M33">
+        <v>3.68</v>
+      </c>
+      <c r="N33">
+        <v>1.7</v>
+      </c>
+      <c r="O33" t="s">
+        <v>126</v>
+      </c>
+      <c r="P33" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q33">
+        <v>8</v>
+      </c>
+      <c r="R33">
+        <v>3</v>
+      </c>
+      <c r="S33">
+        <v>15</v>
+      </c>
+      <c r="T33">
+        <v>3</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>4</v>
+      </c>
+      <c r="Z33">
+        <v>8</v>
+      </c>
+      <c r="AA33">
+        <v>11</v>
+      </c>
+      <c r="AB33">
+        <v>10</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>12</v>
+      </c>
+      <c r="AE33">
+        <v>21</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ33">
+        <v>3</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>30</v>
+      </c>
+      <c r="AQ33">
+        <v>200</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>360</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45549</v>
+      </c>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>122</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>122</v>
+      </c>
+      <c r="L34">
+        <v>1.3</v>
+      </c>
+      <c r="M34">
+        <v>5.83</v>
+      </c>
+      <c r="N34">
+        <v>9.65</v>
+      </c>
+      <c r="O34" t="s">
+        <v>132</v>
+      </c>
+      <c r="P34" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q34">
+        <v>12</v>
+      </c>
+      <c r="R34">
+        <v>8</v>
+      </c>
+      <c r="S34">
+        <v>6</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>3</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>6</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>12</v>
+      </c>
+      <c r="AB34">
+        <v>12</v>
+      </c>
+      <c r="AC34">
+        <v>4</v>
+      </c>
+      <c r="AD34">
+        <v>7</v>
+      </c>
+      <c r="AE34">
+        <v>24</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ34">
+        <v>4</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM34">
+        <v>72</v>
+      </c>
+      <c r="AN34">
+        <v>4</v>
+      </c>
+      <c r="AO34">
+        <v>149</v>
+      </c>
+      <c r="AP34">
+        <v>65</v>
+      </c>
+      <c r="AQ34">
+        <v>550</v>
+      </c>
+      <c r="AR34">
+        <v>260</v>
+      </c>
+      <c r="AS34">
+        <v>455</v>
+      </c>
+      <c r="AT34">
+        <v>9685</v>
+      </c>
+      <c r="AU34">
+        <v>28</v>
+      </c>
+      <c r="AV34">
+        <v>596</v>
+      </c>
+      <c r="AW34">
+        <v>1043</v>
+      </c>
+      <c r="AX34">
+        <v>504</v>
+      </c>
+      <c r="AY34">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45550</v>
+      </c>
+      <c r="D35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>121</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>123</v>
+      </c>
+      <c r="L35">
+        <v>3.37</v>
+      </c>
+      <c r="M35">
+        <v>3.28</v>
+      </c>
+      <c r="N35">
+        <v>2.29</v>
+      </c>
+      <c r="O35" t="s">
+        <v>127</v>
+      </c>
+      <c r="P35" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q35">
+        <v>20</v>
+      </c>
+      <c r="R35">
+        <v>8</v>
+      </c>
+      <c r="S35">
+        <v>16</v>
+      </c>
+      <c r="T35">
+        <v>6</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>3</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>4</v>
+      </c>
+      <c r="Z35">
+        <v>5</v>
+      </c>
+      <c r="AA35">
+        <v>9</v>
+      </c>
+      <c r="AB35">
+        <v>12</v>
+      </c>
+      <c r="AC35">
+        <v>2</v>
+      </c>
+      <c r="AD35">
+        <v>9</v>
+      </c>
+      <c r="AE35">
+        <v>21</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ35">
+        <v>4</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM35">
+        <v>127</v>
+      </c>
+      <c r="AN35">
+        <v>2</v>
+      </c>
+      <c r="AO35">
+        <v>15</v>
+      </c>
+      <c r="AP35">
+        <v>40</v>
+      </c>
+      <c r="AQ35">
+        <v>300</v>
+      </c>
+      <c r="AR35">
+        <v>80</v>
+      </c>
+      <c r="AS35">
+        <v>360</v>
+      </c>
+      <c r="AT35">
+        <v>600</v>
+      </c>
+      <c r="AU35">
+        <v>18</v>
+      </c>
+      <c r="AV35">
+        <v>30</v>
+      </c>
+      <c r="AW35">
+        <v>135</v>
+      </c>
+      <c r="AX35">
+        <v>1143</v>
+      </c>
+      <c r="AY35">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45550</v>
+      </c>
+      <c r="D36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36" t="s">
+        <v>122</v>
+      </c>
+      <c r="L36">
+        <v>1.83</v>
+      </c>
+      <c r="M36">
+        <v>3.85</v>
+      </c>
+      <c r="N36">
+        <v>4.29</v>
+      </c>
+      <c r="O36" t="s">
+        <v>133</v>
+      </c>
+      <c r="P36" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q36">
+        <v>13</v>
+      </c>
+      <c r="R36">
+        <v>7</v>
+      </c>
+      <c r="S36">
+        <v>13</v>
+      </c>
+      <c r="T36">
+        <v>5</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
+        <v>3</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>4</v>
+      </c>
+      <c r="Z36">
+        <v>2</v>
+      </c>
+      <c r="AA36">
+        <v>16</v>
+      </c>
+      <c r="AB36">
+        <v>15</v>
+      </c>
+      <c r="AC36">
+        <v>5</v>
+      </c>
+      <c r="AD36">
+        <v>6</v>
+      </c>
+      <c r="AE36">
+        <v>31</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ36">
+        <v>5</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM36">
+        <v>158</v>
+      </c>
+      <c r="AN36">
+        <v>5</v>
+      </c>
+      <c r="AO36">
+        <v>78</v>
+      </c>
+      <c r="AP36">
+        <v>50</v>
+      </c>
+      <c r="AQ36">
+        <v>600</v>
+      </c>
+      <c r="AR36">
+        <v>250</v>
+      </c>
+      <c r="AS36">
+        <v>300</v>
+      </c>
+      <c r="AT36">
+        <v>3900</v>
+      </c>
+      <c r="AU36">
+        <v>30</v>
+      </c>
+      <c r="AV36">
+        <v>390</v>
+      </c>
+      <c r="AW36">
+        <v>468</v>
+      </c>
+      <c r="AX36">
+        <v>948</v>
+      </c>
+      <c r="AY36">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45550</v>
+      </c>
+      <c r="D37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>121</v>
+      </c>
+      <c r="L37">
+        <v>1.84</v>
+      </c>
+      <c r="M37">
+        <v>3.34</v>
+      </c>
+      <c r="N37">
+        <v>5.07</v>
+      </c>
+      <c r="O37" t="s">
+        <v>126</v>
+      </c>
+      <c r="P37" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q37">
+        <v>5</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>20</v>
+      </c>
+      <c r="T37">
+        <v>6</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>3</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>2</v>
+      </c>
+      <c r="Z37">
+        <v>7</v>
+      </c>
+      <c r="AA37">
+        <v>13</v>
+      </c>
+      <c r="AB37">
+        <v>13</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>9</v>
+      </c>
+      <c r="AE37">
+        <v>26</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ37">
+        <v>4</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>40</v>
+      </c>
+      <c r="AQ37">
+        <v>300</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+      <c r="AS37">
+        <v>360</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <v>0</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45550</v>
+      </c>
+      <c r="D38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>123</v>
+      </c>
+      <c r="L38">
+        <v>4.43</v>
+      </c>
+      <c r="M38">
+        <v>3.73</v>
+      </c>
+      <c r="N38">
+        <v>1.83</v>
+      </c>
+      <c r="O38" t="s">
+        <v>127</v>
+      </c>
+      <c r="P38" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q38">
+        <v>16</v>
+      </c>
+      <c r="R38">
+        <v>3</v>
+      </c>
+      <c r="S38">
+        <v>12</v>
+      </c>
+      <c r="T38">
+        <v>5</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>2</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>7</v>
+      </c>
+      <c r="Z38">
+        <v>4</v>
+      </c>
+      <c r="AA38">
+        <v>22</v>
+      </c>
+      <c r="AB38">
+        <v>11</v>
+      </c>
+      <c r="AC38">
+        <v>4</v>
+      </c>
+      <c r="AD38">
+        <v>11</v>
+      </c>
+      <c r="AE38">
+        <v>33</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ38">
+        <v>3</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM38">
+        <v>244</v>
+      </c>
+      <c r="AN38">
+        <v>4</v>
+      </c>
+      <c r="AO38">
+        <v>114</v>
+      </c>
+      <c r="AP38">
+        <v>30</v>
+      </c>
+      <c r="AQ38">
+        <v>200</v>
+      </c>
+      <c r="AR38">
+        <v>120</v>
+      </c>
+      <c r="AS38">
+        <v>330</v>
+      </c>
+      <c r="AT38">
+        <v>3420</v>
+      </c>
+      <c r="AU38">
+        <v>44</v>
+      </c>
+      <c r="AV38">
+        <v>456</v>
+      </c>
+      <c r="AW38">
+        <v>1254</v>
+      </c>
+      <c r="AX38">
+        <v>2684</v>
+      </c>
+      <c r="AY38">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45550</v>
+      </c>
+      <c r="D39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>121</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>121</v>
+      </c>
+      <c r="L39">
+        <v>7.58</v>
+      </c>
+      <c r="M39">
+        <v>4.97</v>
+      </c>
+      <c r="N39">
+        <v>1.41</v>
+      </c>
+      <c r="O39" t="s">
+        <v>126</v>
+      </c>
+      <c r="P39" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q39">
+        <v>5</v>
+      </c>
+      <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="S39">
+        <v>16</v>
+      </c>
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>2</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>8</v>
+      </c>
+      <c r="AA39">
+        <v>11</v>
+      </c>
+      <c r="AB39">
+        <v>19</v>
+      </c>
+      <c r="AC39">
+        <v>2</v>
+      </c>
+      <c r="AD39">
+        <v>9</v>
+      </c>
+      <c r="AE39">
+        <v>30</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ39">
+        <v>3</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM39">
+        <v>169</v>
+      </c>
+      <c r="AN39">
+        <v>2</v>
+      </c>
+      <c r="AO39">
+        <v>49</v>
+      </c>
+      <c r="AP39">
+        <v>30</v>
+      </c>
+      <c r="AQ39">
+        <v>200</v>
+      </c>
+      <c r="AR39">
+        <v>60</v>
+      </c>
+      <c r="AS39">
+        <v>270</v>
+      </c>
+      <c r="AT39">
+        <v>1470</v>
+      </c>
+      <c r="AU39">
+        <v>18</v>
+      </c>
+      <c r="AV39">
+        <v>98</v>
+      </c>
+      <c r="AW39">
+        <v>441</v>
+      </c>
+      <c r="AX39">
+        <v>1521</v>
+      </c>
+      <c r="AY39">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45551</v>
+      </c>
+      <c r="D40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40" t="s">
+        <v>123</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>122</v>
+      </c>
+      <c r="L40">
+        <v>2.29</v>
+      </c>
+      <c r="M40">
+        <v>3.36</v>
+      </c>
+      <c r="N40">
+        <v>3.29</v>
+      </c>
+      <c r="O40" t="s">
+        <v>130</v>
+      </c>
+      <c r="P40" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q40">
+        <v>9</v>
+      </c>
+      <c r="R40">
+        <v>3</v>
+      </c>
+      <c r="S40">
+        <v>18</v>
+      </c>
+      <c r="T40">
+        <v>6</v>
+      </c>
+      <c r="U40">
+        <v>2</v>
+      </c>
+      <c r="V40">
+        <v>3</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>5</v>
+      </c>
+      <c r="Z40">
+        <v>6</v>
+      </c>
+      <c r="AA40">
+        <v>8</v>
+      </c>
+      <c r="AB40">
+        <v>18</v>
+      </c>
+      <c r="AC40">
+        <v>5</v>
+      </c>
+      <c r="AD40">
+        <v>11</v>
+      </c>
+      <c r="AE40">
+        <v>26</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ40">
+        <v>5</v>
+      </c>
+      <c r="AK40">
+        <v>1</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM40">
+        <v>239</v>
+      </c>
+      <c r="AN40">
+        <v>5</v>
+      </c>
+      <c r="AO40">
+        <v>65</v>
+      </c>
+      <c r="AP40">
+        <v>75</v>
+      </c>
+      <c r="AQ40">
+        <v>1350</v>
+      </c>
+      <c r="AR40">
+        <v>375</v>
+      </c>
+      <c r="AS40">
+        <v>825</v>
+      </c>
+      <c r="AT40">
+        <v>4875</v>
+      </c>
+      <c r="AU40">
+        <v>55</v>
+      </c>
+      <c r="AV40">
+        <v>325</v>
+      </c>
+      <c r="AW40">
+        <v>715</v>
+      </c>
+      <c r="AX40">
+        <v>2629</v>
+      </c>
+      <c r="AY40">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45551</v>
+      </c>
+      <c r="D41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>122</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>122</v>
+      </c>
+      <c r="L41">
+        <v>1.62</v>
+      </c>
+      <c r="M41">
+        <v>3.97</v>
+      </c>
+      <c r="N41">
+        <v>5.78</v>
+      </c>
+      <c r="O41" t="s">
+        <v>128</v>
+      </c>
+      <c r="P41" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q41">
+        <v>14</v>
+      </c>
+      <c r="R41">
+        <v>7</v>
+      </c>
+      <c r="S41">
+        <v>7</v>
+      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41">
+        <v>2</v>
+      </c>
+      <c r="V41">
+        <v>2</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>9</v>
+      </c>
+      <c r="Z41">
+        <v>6</v>
+      </c>
+      <c r="AA41">
+        <v>13</v>
+      </c>
+      <c r="AB41">
+        <v>10</v>
+      </c>
+      <c r="AC41">
+        <v>3</v>
+      </c>
+      <c r="AD41">
+        <v>15</v>
+      </c>
+      <c r="AE41">
+        <v>23</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ41">
+        <v>4</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM41">
+        <v>32</v>
+      </c>
+      <c r="AN41">
+        <v>3</v>
+      </c>
+      <c r="AO41">
+        <v>41</v>
+      </c>
+      <c r="AP41">
+        <v>40</v>
+      </c>
+      <c r="AQ41">
+        <v>400</v>
+      </c>
+      <c r="AR41">
+        <v>120</v>
+      </c>
+      <c r="AS41">
+        <v>600</v>
+      </c>
+      <c r="AT41">
+        <v>1640</v>
+      </c>
+      <c r="AU41">
+        <v>45</v>
+      </c>
+      <c r="AV41">
+        <v>123</v>
+      </c>
+      <c r="AW41">
+        <v>615</v>
+      </c>
+      <c r="AX41">
+        <v>480</v>
+      </c>
+      <c r="AY41">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>123</v>
+      </c>
+      <c r="L42">
+        <v>2.17</v>
+      </c>
+      <c r="M42">
+        <v>3.35</v>
+      </c>
+      <c r="N42">
+        <v>3.72</v>
+      </c>
+      <c r="O42" t="s">
+        <v>127</v>
+      </c>
+      <c r="P42" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q42">
+        <v>21</v>
+      </c>
+      <c r="R42">
+        <v>2</v>
+      </c>
+      <c r="S42">
+        <v>9</v>
+      </c>
+      <c r="T42">
+        <v>4</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>2</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>10</v>
+      </c>
+      <c r="Z42">
+        <v>4</v>
+      </c>
+      <c r="AA42">
+        <v>15</v>
+      </c>
+      <c r="AB42">
+        <v>21</v>
+      </c>
+      <c r="AC42">
+        <v>2</v>
+      </c>
+      <c r="AD42">
+        <v>14</v>
+      </c>
+      <c r="AE42">
+        <v>36</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ42">
+        <v>3</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM42">
+        <v>82</v>
+      </c>
+      <c r="AN42">
+        <v>2</v>
+      </c>
+      <c r="AO42">
+        <v>128</v>
+      </c>
+      <c r="AP42">
+        <v>30</v>
+      </c>
+      <c r="AQ42">
+        <v>200</v>
+      </c>
+      <c r="AR42">
+        <v>60</v>
+      </c>
+      <c r="AS42">
+        <v>420</v>
+      </c>
+      <c r="AT42">
+        <f>AO42*AP42</f>
+        <v>3840</v>
+      </c>
+      <c r="AU42">
+        <v>28</v>
+      </c>
+      <c r="AV42">
+        <f>AN42*AO42</f>
+        <v>256</v>
+      </c>
+      <c r="AW42">
+        <f>AO42*AD42</f>
+        <v>1792</v>
+      </c>
+      <c r="AX42">
+        <f>AM42*AD42</f>
+        <v>1148</v>
+      </c>
+      <c r="AY42">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D43" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43" t="s">
+        <v>123</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43" t="s">
+        <v>123</v>
+      </c>
+      <c r="L43">
+        <v>2.85</v>
+      </c>
+      <c r="M43">
+        <v>3.02</v>
+      </c>
+      <c r="N43">
+        <v>2.9</v>
+      </c>
+      <c r="O43" t="s">
+        <v>131</v>
+      </c>
+      <c r="P43" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q43">
+        <v>8</v>
+      </c>
+      <c r="R43">
+        <v>2</v>
+      </c>
+      <c r="S43">
+        <v>16</v>
+      </c>
+      <c r="T43">
+        <v>3</v>
+      </c>
+      <c r="U43">
+        <v>3</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>5</v>
+      </c>
+      <c r="Z43">
+        <v>6</v>
+      </c>
+      <c r="AA43">
+        <v>10</v>
+      </c>
+      <c r="AB43">
+        <v>8</v>
+      </c>
+      <c r="AC43">
+        <v>5</v>
+      </c>
+      <c r="AD43">
+        <v>11</v>
+      </c>
+      <c r="AE43">
+        <v>18</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ43">
+        <v>4</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM43">
+        <v>224</v>
+      </c>
+      <c r="AN43">
+        <v>5</v>
+      </c>
+      <c r="AO43">
+        <v>173</v>
+      </c>
+      <c r="AP43">
+        <v>65</v>
+      </c>
+      <c r="AQ43">
+        <v>550</v>
+      </c>
+      <c r="AR43">
+        <v>325</v>
+      </c>
+      <c r="AS43">
+        <v>715</v>
+      </c>
+      <c r="AT43">
+        <f t="shared" ref="AT43:AT51" si="0">AO43*AP43</f>
+        <v>11245</v>
+      </c>
+      <c r="AU43">
+        <v>55</v>
+      </c>
+      <c r="AV43">
+        <f t="shared" ref="AV43:AV51" si="1">AN43*AO43</f>
+        <v>865</v>
+      </c>
+      <c r="AW43">
+        <f t="shared" ref="AW43:AW51" si="2">AO43*AD43</f>
+        <v>1903</v>
+      </c>
+      <c r="AX43">
+        <f t="shared" ref="AX43:AX51" si="3">AM43*AD43</f>
+        <v>2464</v>
+      </c>
+      <c r="AY43">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D44" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>122</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>121</v>
+      </c>
+      <c r="L44">
+        <v>3.24</v>
+      </c>
+      <c r="M44">
+        <v>3.26</v>
+      </c>
+      <c r="N44">
+        <v>2.39</v>
+      </c>
+      <c r="O44" t="s">
+        <v>126</v>
+      </c>
+      <c r="P44" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q44">
+        <v>12</v>
+      </c>
+      <c r="R44">
+        <v>4</v>
+      </c>
+      <c r="S44">
+        <v>9</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>2</v>
+      </c>
+      <c r="V44">
+        <v>3</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>3</v>
+      </c>
+      <c r="Z44">
+        <v>4</v>
+      </c>
+      <c r="AA44">
+        <v>9</v>
+      </c>
+      <c r="AB44">
+        <v>12</v>
+      </c>
+      <c r="AC44">
+        <v>2</v>
+      </c>
+      <c r="AD44">
+        <v>7</v>
+      </c>
+      <c r="AE44">
+        <v>21</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ44">
+        <v>5</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM44">
+        <v>148</v>
+      </c>
+      <c r="AN44">
+        <v>2</v>
+      </c>
+      <c r="AO44">
+        <v>26</v>
+      </c>
+      <c r="AP44">
+        <v>50</v>
+      </c>
+      <c r="AQ44">
+        <v>600</v>
+      </c>
+      <c r="AR44">
+        <v>100</v>
+      </c>
+      <c r="AS44">
+        <v>350</v>
+      </c>
+      <c r="AT44">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="AU44">
+        <v>14</v>
+      </c>
+      <c r="AV44">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="AW44">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="AX44">
+        <f t="shared" si="3"/>
+        <v>1036</v>
+      </c>
+      <c r="AY44">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D45" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>121</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>121</v>
+      </c>
+      <c r="L45">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="M45">
+        <v>3.28</v>
+      </c>
+      <c r="N45">
+        <v>3.49</v>
+      </c>
+      <c r="O45" t="s">
+        <v>126</v>
+      </c>
+      <c r="P45" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q45">
+        <v>9</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>8</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>4</v>
+      </c>
+      <c r="Z45">
+        <v>3</v>
+      </c>
+      <c r="AA45">
+        <v>10</v>
+      </c>
+      <c r="AB45">
+        <v>13</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>7</v>
+      </c>
+      <c r="AE45">
+        <v>23</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ45">
+        <v>1</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>220</v>
+      </c>
+      <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>10</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <v>0</v>
+      </c>
+      <c r="AS45">
+        <v>70</v>
+      </c>
+      <c r="AT45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AV45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AY45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>121</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>122</v>
+      </c>
+      <c r="L46">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="M46">
+        <v>3.46</v>
+      </c>
+      <c r="N46">
+        <v>3.39</v>
+      </c>
+      <c r="O46" t="s">
+        <v>125</v>
+      </c>
+      <c r="P46" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q46">
+        <v>14</v>
+      </c>
+      <c r="R46">
+        <v>3</v>
+      </c>
+      <c r="S46">
+        <v>24</v>
+      </c>
+      <c r="T46">
+        <v>10</v>
+      </c>
+      <c r="U46">
+        <v>4</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <v>2</v>
+      </c>
+      <c r="Z46">
+        <v>12</v>
+      </c>
+      <c r="AA46">
+        <v>12</v>
+      </c>
+      <c r="AB46">
+        <v>11</v>
+      </c>
+      <c r="AC46">
+        <v>4</v>
+      </c>
+      <c r="AD46">
+        <v>14</v>
+      </c>
+      <c r="AE46">
+        <v>23</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ46">
+        <v>4</v>
+      </c>
+      <c r="AK46">
+        <v>2</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM46">
+        <v>271</v>
+      </c>
+      <c r="AN46">
+        <v>4</v>
+      </c>
+      <c r="AO46">
+        <v>60</v>
+      </c>
+      <c r="AP46">
+        <v>90</v>
+      </c>
+      <c r="AQ46">
+        <v>1625</v>
+      </c>
+      <c r="AR46">
+        <v>360</v>
+      </c>
+      <c r="AS46">
+        <v>1260</v>
+      </c>
+      <c r="AT46">
+        <f t="shared" si="0"/>
+        <v>5400</v>
+      </c>
+      <c r="AU46">
+        <v>56</v>
+      </c>
+      <c r="AV46">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="AW46">
+        <f t="shared" si="2"/>
+        <v>840</v>
+      </c>
+      <c r="AX46">
+        <f t="shared" si="3"/>
+        <v>3794</v>
+      </c>
+      <c r="AY46">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="1">
+        <v>45557</v>
+      </c>
+      <c r="D47" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>122</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" t="s">
+        <v>123</v>
+      </c>
+      <c r="L47">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="M47">
+        <v>3.43</v>
+      </c>
+      <c r="N47">
+        <v>3.23</v>
+      </c>
+      <c r="O47" t="s">
+        <v>127</v>
+      </c>
+      <c r="P47" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q47">
+        <v>14</v>
+      </c>
+      <c r="R47">
+        <v>5</v>
+      </c>
+      <c r="S47">
+        <v>20</v>
+      </c>
+      <c r="T47">
+        <v>6</v>
+      </c>
+      <c r="U47">
+        <v>3</v>
+      </c>
+      <c r="V47">
+        <v>4</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>3</v>
+      </c>
+      <c r="Z47">
+        <v>10</v>
+      </c>
+      <c r="AA47">
+        <v>11</v>
+      </c>
+      <c r="AB47">
+        <v>15</v>
+      </c>
+      <c r="AC47">
+        <v>3</v>
+      </c>
+      <c r="AD47">
+        <v>13</v>
+      </c>
+      <c r="AE47">
+        <v>26</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ47">
+        <v>7</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM47">
+        <v>180</v>
+      </c>
+      <c r="AN47">
+        <v>3</v>
+      </c>
+      <c r="AO47">
+        <v>54</v>
+      </c>
+      <c r="AP47">
+        <v>70</v>
+      </c>
+      <c r="AQ47">
+        <v>1200</v>
+      </c>
+      <c r="AR47">
+        <v>210</v>
+      </c>
+      <c r="AS47">
+        <v>910</v>
+      </c>
+      <c r="AT47">
+        <f t="shared" si="0"/>
+        <v>3780</v>
+      </c>
+      <c r="AU47">
+        <v>39</v>
+      </c>
+      <c r="AV47">
+        <f t="shared" si="1"/>
+        <v>162</v>
+      </c>
+      <c r="AW47">
+        <f t="shared" si="2"/>
+        <v>702</v>
+      </c>
+      <c r="AX47">
+        <f t="shared" si="3"/>
+        <v>2340</v>
+      </c>
+      <c r="AY47">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45557</v>
+      </c>
+      <c r="D48" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48" t="s">
+        <v>123</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
+        <v>121</v>
+      </c>
+      <c r="L48">
+        <v>3.21</v>
+      </c>
+      <c r="M48">
+        <v>3.23</v>
+      </c>
+      <c r="N48">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="O48" t="s">
+        <v>124</v>
+      </c>
+      <c r="P48" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q48">
+        <v>6</v>
+      </c>
+      <c r="R48">
+        <v>3</v>
+      </c>
+      <c r="S48">
+        <v>15</v>
+      </c>
+      <c r="T48">
+        <v>8</v>
+      </c>
+      <c r="U48">
+        <v>3</v>
+      </c>
+      <c r="V48">
+        <v>2</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>2</v>
+      </c>
+      <c r="Z48">
+        <v>2</v>
+      </c>
+      <c r="AA48">
+        <v>20</v>
+      </c>
+      <c r="AB48">
+        <v>16</v>
+      </c>
+      <c r="AC48">
+        <v>3</v>
+      </c>
+      <c r="AD48">
+        <v>4</v>
+      </c>
+      <c r="AE48">
+        <v>36</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ48">
+        <v>5</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM48">
+        <v>147</v>
+      </c>
+      <c r="AN48">
+        <v>3</v>
+      </c>
+      <c r="AO48">
+        <v>102</v>
+      </c>
+      <c r="AP48">
+        <v>50</v>
+      </c>
+      <c r="AQ48">
+        <v>600</v>
+      </c>
+      <c r="AR48">
+        <v>150</v>
+      </c>
+      <c r="AS48">
+        <v>200</v>
+      </c>
+      <c r="AT48">
+        <f t="shared" si="0"/>
+        <v>5100</v>
+      </c>
+      <c r="AU48">
+        <v>12</v>
+      </c>
+      <c r="AV48">
+        <f t="shared" si="1"/>
+        <v>306</v>
+      </c>
+      <c r="AW48">
+        <f t="shared" si="2"/>
+        <v>408</v>
+      </c>
+      <c r="AX48">
+        <f t="shared" si="3"/>
+        <v>588</v>
+      </c>
+      <c r="AY48">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="1">
+        <v>45557</v>
+      </c>
+      <c r="D49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>122</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>122</v>
+      </c>
+      <c r="L49">
+        <v>1.63</v>
+      </c>
+      <c r="M49">
+        <v>4.07</v>
+      </c>
+      <c r="N49">
+        <v>5.59</v>
+      </c>
+      <c r="O49" t="s">
+        <v>125</v>
+      </c>
+      <c r="P49" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q49">
+        <v>14</v>
+      </c>
+      <c r="R49">
+        <v>6</v>
+      </c>
+      <c r="S49">
+        <v>9</v>
+      </c>
+      <c r="T49">
+        <v>3</v>
+      </c>
+      <c r="U49">
+        <v>2</v>
+      </c>
+      <c r="V49">
+        <v>2</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>2</v>
+      </c>
+      <c r="Z49">
+        <v>1</v>
+      </c>
+      <c r="AA49">
+        <v>15</v>
+      </c>
+      <c r="AB49">
+        <v>11</v>
+      </c>
+      <c r="AC49">
+        <v>3</v>
+      </c>
+      <c r="AD49">
+        <v>3</v>
+      </c>
+      <c r="AE49">
+        <v>26</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ49">
+        <v>4</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM49">
+        <v>138</v>
+      </c>
+      <c r="AN49">
+        <v>3</v>
+      </c>
+      <c r="AO49">
+        <v>67</v>
+      </c>
+      <c r="AP49">
+        <v>40</v>
+      </c>
+      <c r="AQ49">
+        <v>400</v>
+      </c>
+      <c r="AR49">
+        <v>120</v>
+      </c>
+      <c r="AS49">
+        <v>120</v>
+      </c>
+      <c r="AT49">
+        <f t="shared" si="0"/>
+        <v>2680</v>
+      </c>
+      <c r="AU49">
+        <v>9</v>
+      </c>
+      <c r="AV49">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="AW49">
+        <f t="shared" si="2"/>
+        <v>201</v>
+      </c>
+      <c r="AX49">
+        <f t="shared" si="3"/>
+        <v>414</v>
+      </c>
+      <c r="AY49">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45557</v>
+      </c>
+      <c r="D50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>123</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>121</v>
+      </c>
+      <c r="L50">
+        <v>1.66</v>
+      </c>
+      <c r="M50">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="N50">
+        <v>5.25</v>
+      </c>
+      <c r="O50" t="s">
+        <v>124</v>
+      </c>
+      <c r="P50" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q50">
+        <v>13</v>
+      </c>
+      <c r="R50">
+        <v>4</v>
+      </c>
+      <c r="S50">
+        <v>16</v>
+      </c>
+      <c r="T50">
+        <v>8</v>
+      </c>
+      <c r="U50">
+        <v>4</v>
+      </c>
+      <c r="V50">
+        <v>1</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>6</v>
+      </c>
+      <c r="Z50">
+        <v>2</v>
+      </c>
+      <c r="AA50">
+        <v>13</v>
+      </c>
+      <c r="AB50">
+        <v>4</v>
+      </c>
+      <c r="AC50">
+        <v>3</v>
+      </c>
+      <c r="AD50">
+        <v>8</v>
+      </c>
+      <c r="AE50">
+        <v>17</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ50">
+        <v>5</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM50">
+        <v>126</v>
+      </c>
+      <c r="AN50">
+        <v>3</v>
+      </c>
+      <c r="AO50">
+        <v>89</v>
+      </c>
+      <c r="AP50">
+        <v>50</v>
+      </c>
+      <c r="AQ50">
+        <v>400</v>
+      </c>
+      <c r="AR50">
+        <v>150</v>
+      </c>
+      <c r="AS50">
+        <v>400</v>
+      </c>
+      <c r="AT50">
+        <f t="shared" si="0"/>
+        <v>4450</v>
+      </c>
+      <c r="AU50">
+        <v>24</v>
+      </c>
+      <c r="AV50">
+        <f t="shared" si="1"/>
+        <v>267</v>
+      </c>
+      <c r="AW50">
+        <f t="shared" si="2"/>
+        <v>712</v>
+      </c>
+      <c r="AX50">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="AY50">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="1">
+        <v>45559</v>
+      </c>
+      <c r="D51" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" t="s">
+        <v>119</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51" t="s">
+        <v>123</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>122</v>
+      </c>
+      <c r="L51">
+        <v>1.5</v>
+      </c>
+      <c r="M51">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="N51">
+        <v>6.4</v>
+      </c>
+      <c r="O51" t="s">
+        <v>125</v>
+      </c>
+      <c r="P51" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q51">
+        <v>8</v>
+      </c>
+      <c r="R51">
+        <v>5</v>
+      </c>
+      <c r="S51">
+        <v>14</v>
+      </c>
+      <c r="T51">
+        <v>7</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="V51">
+        <v>3</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>6</v>
+      </c>
+      <c r="Z51">
+        <v>2</v>
+      </c>
+      <c r="AA51">
+        <v>12</v>
+      </c>
+      <c r="AB51">
+        <v>17</v>
+      </c>
+      <c r="AC51">
+        <v>5</v>
+      </c>
+      <c r="AD51">
+        <v>8</v>
+      </c>
+      <c r="AE51">
+        <v>29</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ51">
+        <v>4</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM51">
+        <v>266</v>
+      </c>
+      <c r="AN51">
+        <v>5</v>
+      </c>
+      <c r="AO51">
+        <v>134</v>
+      </c>
+      <c r="AP51">
+        <v>40</v>
+      </c>
+      <c r="AQ51">
+        <v>300</v>
+      </c>
+      <c r="AR51">
+        <v>200</v>
+      </c>
+      <c r="AS51">
+        <v>320</v>
+      </c>
+      <c r="AT51">
+        <f t="shared" si="0"/>
+        <v>5360</v>
+      </c>
+      <c r="AU51">
+        <v>40</v>
+      </c>
+      <c r="AV51">
+        <f t="shared" si="1"/>
+        <v>670</v>
+      </c>
+      <c r="AW51">
+        <f t="shared" si="2"/>
+        <v>1072</v>
+      </c>
+      <c r="AX51">
+        <f t="shared" si="3"/>
+        <v>2128</v>
+      </c>
+      <c r="AY51">
+        <v>1600</v>
       </c>
     </row>
   </sheetData>

--- a/I1_spread.xlsx
+++ b/I1_spread.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8845928-4B9E-4F39-9FC3-59506A5700BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD878557-BD2A-4529-AF38-49B4021FF49F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5505" yWindow="6675" windowWidth="20355" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="252">
   <si>
     <t>Div</t>
   </si>
@@ -300,34 +300,64 @@
     <t>40</t>
   </si>
   <si>
-    <t>771</t>
-  </si>
-  <si>
-    <t>772</t>
-  </si>
-  <si>
-    <t>773</t>
-  </si>
-  <si>
-    <t>774</t>
-  </si>
-  <si>
-    <t>775</t>
-  </si>
-  <si>
-    <t>776</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>778</t>
-  </si>
-  <si>
-    <t>779</t>
-  </si>
-  <si>
-    <t>780</t>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>903</t>
+  </si>
+  <si>
+    <t>904</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>906</t>
+  </si>
+  <si>
+    <t>907</t>
+  </si>
+  <si>
+    <t>908</t>
+  </si>
+  <si>
+    <t>909</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>912</t>
   </si>
   <si>
     <t>I1</t>
@@ -432,12 +462,12 @@
     <t>3-2</t>
   </si>
   <si>
+    <t>3-0</t>
+  </si>
+  <si>
     <t>2-2</t>
   </si>
   <si>
-    <t>3-0</t>
-  </si>
-  <si>
     <t>3-1</t>
   </si>
   <si>
@@ -555,6 +585,21 @@
     <t>6-2</t>
   </si>
   <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>2-9</t>
+  </si>
+  <si>
+    <t>9-1</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -709,6 +754,36 @@
   </si>
   <si>
     <t>Atalanta-Como</t>
+  </si>
+  <si>
+    <t>Milan-Lecce</t>
+  </si>
+  <si>
+    <t>Udinese-Inter</t>
+  </si>
+  <si>
+    <t>Genoa-Juventus</t>
+  </si>
+  <si>
+    <t>Bologna-Atalanta</t>
+  </si>
+  <si>
+    <t>Torino-Lazio</t>
+  </si>
+  <si>
+    <t>Como-Verona</t>
+  </si>
+  <si>
+    <t>Roma-Venezia</t>
+  </si>
+  <si>
+    <t>Empoli-Fiorentina</t>
+  </si>
+  <si>
+    <t>Napoli-Monza</t>
+  </si>
+  <si>
+    <t>Parma-Cagliari</t>
   </si>
 </sst>
 </file>
@@ -1064,61 +1139,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY51"/>
+  <dimension ref="A1:AY61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AB35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="Y32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO52" sqref="AO52"/>
+      <selection pane="bottomRight" activeCell="AO62" sqref="AO62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -1278,16 +1353,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1">
         <v>45521</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1296,7 +1371,7 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1305,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L2">
         <v>6.6</v>
@@ -1317,10 +1392,10 @@
         <v>1.55</v>
       </c>
       <c r="O2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1368,16 +1443,16 @@
         <v>29</v>
       </c>
       <c r="AF2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AG2" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH2" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI2" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AJ2">
         <v>3</v>
@@ -1386,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="AM2">
         <v>222</v>
@@ -1433,16 +1508,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1">
         <v>45521</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1451,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1460,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L3">
         <v>3.37</v>
@@ -1472,10 +1547,10 @@
         <v>2.25</v>
       </c>
       <c r="O3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P3" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Q3">
         <v>13</v>
@@ -1523,16 +1598,16 @@
         <v>24</v>
       </c>
       <c r="AF3" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="AG3" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH3" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AI3" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ3">
         <v>5</v>
@@ -1541,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="AL3" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="AM3">
         <v>97</v>
@@ -1588,16 +1663,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1">
         <v>45521</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1606,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1615,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L4">
         <v>2.5299999999999998</v>
@@ -1627,10 +1702,10 @@
         <v>3.14</v>
       </c>
       <c r="O4" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P4" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1678,16 +1753,16 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="AG4" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AH4" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AI4" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ4">
         <v>2</v>
@@ -1696,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -1743,16 +1818,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1">
         <v>45521</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1761,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1770,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L5">
         <v>1.62</v>
@@ -1782,10 +1857,10 @@
         <v>5.76</v>
       </c>
       <c r="O5" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Q5">
         <v>20</v>
@@ -1833,16 +1908,16 @@
         <v>17</v>
       </c>
       <c r="AF5" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="AG5" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH5" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI5" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AJ5">
         <v>6</v>
@@ -1851,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="AM5">
         <v>277</v>
@@ -1898,16 +1973,16 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1">
         <v>45522</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1916,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1925,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L6">
         <v>1.95</v>
@@ -1937,10 +2012,10 @@
         <v>4.57</v>
       </c>
       <c r="O6" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Q6">
         <v>22</v>
@@ -1988,16 +2063,16 @@
         <v>28</v>
       </c>
       <c r="AF6" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="AG6" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH6" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AI6" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ6">
         <v>4</v>
@@ -2006,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="AM6">
         <v>125</v>
@@ -2053,16 +2128,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1">
         <v>45522</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -2071,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2080,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L7">
         <v>4.99</v>
@@ -2092,10 +2167,10 @@
         <v>1.78</v>
       </c>
       <c r="O7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="Q7">
         <v>8</v>
@@ -2143,16 +2218,16 @@
         <v>28</v>
       </c>
       <c r="AF7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="AG7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ7">
         <v>5</v>
@@ -2161,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="AM7">
         <v>215</v>
@@ -2208,16 +2283,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C8" s="1">
         <v>45522</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2226,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2235,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L8">
         <v>4.04</v>
@@ -2247,10 +2322,10 @@
         <v>1.99</v>
       </c>
       <c r="O8" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Q8">
         <v>12</v>
@@ -2298,16 +2373,16 @@
         <v>22</v>
       </c>
       <c r="AF8" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AG8" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AH8" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AI8" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ8">
         <v>2</v>
@@ -2316,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="AM8">
         <v>0</v>
@@ -2363,16 +2438,16 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C9" s="1">
         <v>45522</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -2381,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -2390,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L9">
         <v>1.48</v>
@@ -2402,10 +2477,10 @@
         <v>7.29</v>
       </c>
       <c r="O9" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Q9">
         <v>13</v>
@@ -2453,16 +2528,16 @@
         <v>25</v>
       </c>
       <c r="AF9" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="AG9" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH9" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI9" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AJ9">
         <v>3</v>
@@ -2471,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="AM9">
         <v>139</v>
@@ -2518,16 +2593,16 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C10" s="1">
         <v>45523</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2536,7 +2611,7 @@
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2545,7 +2620,7 @@
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L10">
         <v>4.4400000000000004</v>
@@ -2557,10 +2632,10 @@
         <v>1.88</v>
       </c>
       <c r="O10" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="Q10">
         <v>19</v>
@@ -2608,16 +2683,16 @@
         <v>34</v>
       </c>
       <c r="AF10" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AG10" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH10" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI10" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AJ10">
         <v>2</v>
@@ -2626,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="AM10">
         <v>203</v>
@@ -2673,16 +2748,16 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C11" s="1">
         <v>45523</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -2691,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -2700,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L11">
         <v>1.34</v>
@@ -2712,10 +2787,10 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="O11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="P11" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>12</v>
@@ -2763,16 +2838,16 @@
         <v>18</v>
       </c>
       <c r="AF11" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH11" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI11" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ11">
         <v>6</v>
@@ -2781,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="AM11">
         <v>158</v>
@@ -2828,16 +2903,16 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C12" s="1">
         <v>45528</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -2846,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2855,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L12">
         <v>4.9000000000000004</v>
@@ -2867,10 +2942,10 @@
         <v>1.69</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -2918,16 +2993,16 @@
         <v>22</v>
       </c>
       <c r="AF12" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH12" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI12" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ12">
         <v>3</v>
@@ -2936,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="AM12">
         <v>145</v>
@@ -2983,16 +3058,16 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C13" s="1">
         <v>45528</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -3001,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3010,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L13">
         <v>3.38</v>
@@ -3022,10 +3097,10 @@
         <v>2.4</v>
       </c>
       <c r="O13" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P13" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3073,16 +3148,16 @@
         <v>25</v>
       </c>
       <c r="AF13" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH13" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI13" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ13">
         <v>0</v>
@@ -3091,7 +3166,7 @@
         <v>1</v>
       </c>
       <c r="AL13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="AM13">
         <v>144</v>
@@ -3138,16 +3213,16 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C14" s="1">
         <v>45528</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -3156,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3165,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L14">
         <v>1.2</v>
@@ -3177,10 +3252,10 @@
         <v>15.07</v>
       </c>
       <c r="O14" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P14" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -3228,16 +3303,16 @@
         <v>21</v>
       </c>
       <c r="AF14" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AG14" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH14" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AI14" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ14">
         <v>2</v>
@@ -3246,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="AM14">
         <v>74</v>
@@ -3293,16 +3368,16 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C15" s="1">
         <v>45528</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -3311,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3320,7 +3395,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L15">
         <v>2.68</v>
@@ -3332,10 +3407,10 @@
         <v>2.96</v>
       </c>
       <c r="O15" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="P15" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -3383,16 +3458,16 @@
         <v>23</v>
       </c>
       <c r="AF15" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="AG15" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AH15" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AI15" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ15">
         <v>5</v>
@@ -3401,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="AM15">
         <v>45</v>
@@ -3448,16 +3523,16 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C16" s="1">
         <v>45529</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3466,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3475,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L16">
         <v>1.44</v>
@@ -3487,10 +3562,10 @@
         <v>7.64</v>
       </c>
       <c r="O16" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P16" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Q16">
         <v>12</v>
@@ -3538,16 +3613,16 @@
         <v>32</v>
       </c>
       <c r="AF16" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="AG16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AH16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AI16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ16">
         <v>3</v>
@@ -3556,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -3603,16 +3678,16 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C17" s="1">
         <v>45529</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -3621,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -3630,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L17">
         <v>3.32</v>
@@ -3642,10 +3717,10 @@
         <v>2.35</v>
       </c>
       <c r="O17" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P17" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Q17">
         <v>13</v>
@@ -3693,16 +3768,16 @@
         <v>21</v>
       </c>
       <c r="AF17" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="AG17" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH17" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI17" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ17">
         <v>7</v>
@@ -3711,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="AM17">
         <v>106</v>
@@ -3758,16 +3833,16 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C18" s="1">
         <v>45529</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -3776,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3785,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L18">
         <v>1.94</v>
@@ -3797,10 +3872,10 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="O18" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="Q18">
         <v>16</v>
@@ -3848,16 +3923,16 @@
         <v>28</v>
       </c>
       <c r="AF18" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="AG18" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH18" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI18" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ18">
         <v>4</v>
@@ -3866,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="AM18">
         <v>210</v>
@@ -3913,16 +3988,16 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C19" s="1">
         <v>45529</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -3931,7 +4006,7 @@
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -3940,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L19">
         <v>1.5</v>
@@ -3952,10 +4027,10 @@
         <v>6.8</v>
       </c>
       <c r="O19" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="P19" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Q19">
         <v>17</v>
@@ -4003,16 +4078,16 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AG19" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH19" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI19" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ19">
         <v>3</v>
@@ -4021,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="AM19">
         <v>186</v>
@@ -4068,16 +4143,16 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C20" s="1">
         <v>45530</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -4086,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -4095,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L20">
         <v>2.13</v>
@@ -4107,10 +4182,10 @@
         <v>3.66</v>
       </c>
       <c r="O20" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P20" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4158,16 +4233,16 @@
         <v>22</v>
       </c>
       <c r="AF20" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="AG20" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH20" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AI20" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ20">
         <v>4</v>
@@ -4176,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="AM20">
         <v>97</v>
@@ -4223,16 +4298,16 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C21" s="1">
         <v>45530</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -4241,7 +4316,7 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -4250,7 +4325,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L21">
         <v>5.23</v>
@@ -4262,10 +4337,10 @@
         <v>1.72</v>
       </c>
       <c r="O21" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P21" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4313,16 +4388,16 @@
         <v>16</v>
       </c>
       <c r="AF21" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="AG21" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH21" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI21" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ21">
         <v>2</v>
@@ -4331,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="AM21">
         <v>120</v>
@@ -4378,16 +4453,16 @@
         <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C22" s="1">
         <v>45534</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -4396,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -4405,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L22">
         <v>3.63</v>
@@ -4417,10 +4492,10 @@
         <v>2.23</v>
       </c>
       <c r="O22" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Q22">
         <v>13</v>
@@ -4468,16 +4543,16 @@
         <v>22</v>
       </c>
       <c r="AF22" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="AG22" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AH22" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AI22" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ22">
         <v>6</v>
@@ -4486,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="AM22">
         <v>86</v>
@@ -4533,16 +4608,16 @@
         <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C23" s="1">
         <v>45534</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -4551,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -4560,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L23">
         <v>1.58</v>
@@ -4572,10 +4647,10 @@
         <v>5.79</v>
       </c>
       <c r="O23" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="Q23">
         <v>13</v>
@@ -4623,16 +4698,16 @@
         <v>21</v>
       </c>
       <c r="AF23" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="AG23" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH23" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI23" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AJ23">
         <v>2</v>
@@ -4641,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="AM23">
         <v>116</v>
@@ -4688,16 +4763,16 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C24" s="1">
         <v>45535</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -4706,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -4715,7 +4790,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L24">
         <v>1.66</v>
@@ -4727,10 +4802,10 @@
         <v>5.89</v>
       </c>
       <c r="O24" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P24" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Q24">
         <v>14</v>
@@ -4778,16 +4853,16 @@
         <v>33</v>
       </c>
       <c r="AF24" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="AG24" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH24" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AI24" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ24">
         <v>3</v>
@@ -4796,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="AM24">
         <v>5</v>
@@ -4843,16 +4918,16 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C25" s="1">
         <v>45535</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -4861,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -4870,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L25">
         <v>2.33</v>
@@ -4882,10 +4957,10 @@
         <v>3.45</v>
       </c>
       <c r="O25" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P25" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Q25">
         <v>17</v>
@@ -4933,16 +5008,16 @@
         <v>23</v>
       </c>
       <c r="AF25" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="AG25" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AH25" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AI25" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ25">
         <v>4</v>
@@ -4951,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="AM25">
         <v>26</v>
@@ -4998,16 +5073,16 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C26" s="1">
         <v>45535</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -5016,7 +5091,7 @@
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -5025,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L26">
         <v>2.97</v>
@@ -5037,10 +5112,10 @@
         <v>2.46</v>
       </c>
       <c r="O26" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5088,16 +5163,16 @@
         <v>21</v>
       </c>
       <c r="AF26" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="AG26" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH26" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI26" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AJ26">
         <v>6</v>
@@ -5106,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="AL26" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="AM26">
         <v>208</v>
@@ -5153,16 +5228,16 @@
         <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C27" s="1">
         <v>45535</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -5171,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -5180,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L27">
         <v>1.5</v>
@@ -5192,10 +5267,10 @@
         <v>6.48</v>
       </c>
       <c r="O27" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="P27" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Q27">
         <v>29</v>
@@ -5243,16 +5318,16 @@
         <v>18</v>
       </c>
       <c r="AF27" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AG27" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH27" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI27" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ27">
         <v>6</v>
@@ -5261,7 +5336,7 @@
         <v>1</v>
       </c>
       <c r="AL27" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="AM27">
         <v>199</v>
@@ -5308,16 +5383,16 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C28" s="1">
         <v>45536</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -5326,7 +5401,7 @@
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -5335,7 +5410,7 @@
         <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L28">
         <v>1.7</v>
@@ -5347,10 +5422,10 @@
         <v>5.24</v>
       </c>
       <c r="O28" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Q28">
         <v>15</v>
@@ -5398,16 +5473,16 @@
         <v>32</v>
       </c>
       <c r="AF28" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="AG28" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH28" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI28" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AJ28">
         <v>6</v>
@@ -5416,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="AL28" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="AM28">
         <v>185</v>
@@ -5463,16 +5538,16 @@
         <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C29" s="1">
         <v>45536</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -5481,7 +5556,7 @@
         <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -5490,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L29">
         <v>2.02</v>
@@ -5502,10 +5577,10 @@
         <v>4.25</v>
       </c>
       <c r="O29" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P29" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -5553,16 +5628,16 @@
         <v>24</v>
       </c>
       <c r="AF29" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="AG29" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH29" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AI29" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ29">
         <v>8</v>
@@ -5571,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="AL29" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="AM29">
         <v>119</v>
@@ -5618,16 +5693,16 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C30" s="1">
         <v>45536</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -5636,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -5645,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L30">
         <v>1.76</v>
@@ -5657,10 +5732,10 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="O30" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P30" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -5708,16 +5783,16 @@
         <v>23</v>
       </c>
       <c r="AF30" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AG30" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AH30" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AI30" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ30">
         <v>4</v>
@@ -5726,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="AM30">
         <v>0</v>
@@ -5773,16 +5848,16 @@
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C31" s="1">
         <v>45536</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -5791,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -5800,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L31">
         <v>2.0699999999999998</v>
@@ -5812,10 +5887,10 @@
         <v>3.89</v>
       </c>
       <c r="O31" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P31" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Q31">
         <v>10</v>
@@ -5863,16 +5938,16 @@
         <v>25</v>
       </c>
       <c r="AF31" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="AG31" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AH31" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AI31" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ31">
         <v>3</v>
@@ -5881,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="AM31">
         <v>43</v>
@@ -5928,16 +6003,16 @@
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C32" s="1">
         <v>45549</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -5946,7 +6021,7 @@
         <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -5955,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L32">
         <v>3.03</v>
@@ -5967,10 +6042,10 @@
         <v>2.57</v>
       </c>
       <c r="O32" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P32" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Q32">
         <v>14</v>
@@ -6018,16 +6093,16 @@
         <v>29</v>
       </c>
       <c r="AF32" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG32" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH32" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI32" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AJ32">
         <v>3</v>
@@ -6036,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="AL32" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="AM32">
         <v>134</v>
@@ -6083,16 +6158,16 @@
         <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C33" s="1">
         <v>45549</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -6101,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -6110,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L33">
         <v>5.54</v>
@@ -6122,10 +6197,10 @@
         <v>1.7</v>
       </c>
       <c r="O33" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P33" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -6173,16 +6248,16 @@
         <v>21</v>
       </c>
       <c r="AF33" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AG33" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AH33" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AI33" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ33">
         <v>3</v>
@@ -6191,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AM33">
         <v>0</v>
@@ -6238,16 +6313,16 @@
         <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C34" s="1">
         <v>45549</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F34">
         <v>4</v>
@@ -6256,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I34">
         <v>4</v>
@@ -6265,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L34">
         <v>1.3</v>
@@ -6277,10 +6352,10 @@
         <v>9.65</v>
       </c>
       <c r="O34" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="P34" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="Q34">
         <v>12</v>
@@ -6328,16 +6403,16 @@
         <v>24</v>
       </c>
       <c r="AF34" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="AG34" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH34" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI34" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AJ34">
         <v>4</v>
@@ -6346,7 +6421,7 @@
         <v>1</v>
       </c>
       <c r="AL34" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AM34">
         <v>72</v>
@@ -6393,16 +6468,16 @@
         <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C35" s="1">
         <v>45550</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -6411,7 +6486,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -6420,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L35">
         <v>3.37</v>
@@ -6432,10 +6507,10 @@
         <v>2.29</v>
       </c>
       <c r="O35" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="P35" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Q35">
         <v>20</v>
@@ -6483,16 +6558,16 @@
         <v>21</v>
       </c>
       <c r="AF35" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="AG35" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH35" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AI35" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ35">
         <v>4</v>
@@ -6501,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="AL35" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="AM35">
         <v>127</v>
@@ -6548,16 +6623,16 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C36" s="1">
         <v>45550</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -6566,7 +6641,7 @@
         <v>2</v>
       </c>
       <c r="H36" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I36">
         <v>3</v>
@@ -6575,7 +6650,7 @@
         <v>2</v>
       </c>
       <c r="K36" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L36">
         <v>1.83</v>
@@ -6587,10 +6662,10 @@
         <v>4.29</v>
       </c>
       <c r="O36" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="P36" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Q36">
         <v>13</v>
@@ -6638,16 +6713,16 @@
         <v>31</v>
       </c>
       <c r="AF36" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AG36" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH36" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI36" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AJ36">
         <v>5</v>
@@ -6656,7 +6731,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="AM36">
         <v>158</v>
@@ -6703,16 +6778,16 @@
         <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C37" s="1">
         <v>45550</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -6721,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -6730,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L37">
         <v>1.84</v>
@@ -6742,10 +6817,10 @@
         <v>5.07</v>
       </c>
       <c r="O37" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P37" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -6793,16 +6868,16 @@
         <v>26</v>
       </c>
       <c r="AF37" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="AG37" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AH37" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AI37" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ37">
         <v>4</v>
@@ -6811,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="AL37" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="AM37">
         <v>0</v>
@@ -6858,16 +6933,16 @@
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C38" s="1">
         <v>45550</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -6876,7 +6951,7 @@
         <v>4</v>
       </c>
       <c r="H38" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -6885,7 +6960,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L38">
         <v>4.43</v>
@@ -6897,10 +6972,10 @@
         <v>1.83</v>
       </c>
       <c r="O38" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="P38" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="Q38">
         <v>16</v>
@@ -6948,16 +7023,16 @@
         <v>33</v>
       </c>
       <c r="AF38" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="AG38" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH38" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI38" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AJ38">
         <v>3</v>
@@ -6966,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="AL38" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="AM38">
         <v>244</v>
@@ -7013,16 +7088,16 @@
         <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C39" s="1">
         <v>45550</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -7031,7 +7106,7 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -7040,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L39">
         <v>7.58</v>
@@ -7052,10 +7127,10 @@
         <v>1.41</v>
       </c>
       <c r="O39" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P39" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -7103,16 +7178,16 @@
         <v>30</v>
       </c>
       <c r="AF39" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="AG39" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH39" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AI39" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ39">
         <v>3</v>
@@ -7121,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="AL39" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="AM39">
         <v>169</v>
@@ -7168,16 +7243,16 @@
         <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C40" s="1">
         <v>45551</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -7186,7 +7261,7 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -7195,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L40">
         <v>2.29</v>
@@ -7207,10 +7282,10 @@
         <v>3.29</v>
       </c>
       <c r="O40" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="P40" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="Q40">
         <v>9</v>
@@ -7258,16 +7333,16 @@
         <v>26</v>
       </c>
       <c r="AF40" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="AG40" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH40" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI40" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AJ40">
         <v>5</v>
@@ -7276,7 +7351,7 @@
         <v>1</v>
       </c>
       <c r="AL40" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="AM40">
         <v>239</v>
@@ -7323,16 +7398,16 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C41" s="1">
         <v>45551</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E41" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -7341,7 +7416,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I41">
         <v>2</v>
@@ -7350,7 +7425,7 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L41">
         <v>1.62</v>
@@ -7362,10 +7437,10 @@
         <v>5.78</v>
       </c>
       <c r="O41" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="P41" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Q41">
         <v>14</v>
@@ -7413,16 +7488,16 @@
         <v>23</v>
       </c>
       <c r="AF41" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AG41" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH41" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI41" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ41">
         <v>4</v>
@@ -7431,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="AL41" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="AM41">
         <v>32</v>
@@ -7478,16 +7553,16 @@
         <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C42" s="1">
         <v>45555</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -7496,7 +7571,7 @@
         <v>2</v>
       </c>
       <c r="H42" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -7505,7 +7580,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L42">
         <v>2.17</v>
@@ -7517,10 +7592,10 @@
         <v>3.72</v>
       </c>
       <c r="O42" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="P42" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Q42">
         <v>21</v>
@@ -7568,16 +7643,16 @@
         <v>36</v>
       </c>
       <c r="AF42" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="AG42" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH42" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AI42" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ42">
         <v>3</v>
@@ -7586,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="AL42" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="AM42">
         <v>82</v>
@@ -7610,22 +7685,18 @@
         <v>420</v>
       </c>
       <c r="AT42">
-        <f>AO42*AP42</f>
         <v>3840</v>
       </c>
       <c r="AU42">
         <v>28</v>
       </c>
       <c r="AV42">
-        <f>AN42*AO42</f>
         <v>256</v>
       </c>
       <c r="AW42">
-        <f>AO42*AD42</f>
         <v>1792</v>
       </c>
       <c r="AX42">
-        <f>AM42*AD42</f>
         <v>1148</v>
       </c>
       <c r="AY42">
@@ -7637,16 +7708,16 @@
         <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C43" s="1">
         <v>45555</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E43" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -7655,7 +7726,7 @@
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -7664,7 +7735,7 @@
         <v>2</v>
       </c>
       <c r="K43" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L43">
         <v>2.85</v>
@@ -7676,10 +7747,10 @@
         <v>2.9</v>
       </c>
       <c r="O43" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P43" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -7727,16 +7798,16 @@
         <v>18</v>
       </c>
       <c r="AF43" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="AG43" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH43" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI43" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AJ43">
         <v>4</v>
@@ -7745,7 +7816,7 @@
         <v>1</v>
       </c>
       <c r="AL43" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="AM43">
         <v>224</v>
@@ -7769,22 +7840,18 @@
         <v>715</v>
       </c>
       <c r="AT43">
-        <f t="shared" ref="AT43:AT51" si="0">AO43*AP43</f>
         <v>11245</v>
       </c>
       <c r="AU43">
         <v>55</v>
       </c>
       <c r="AV43">
-        <f t="shared" ref="AV43:AV51" si="1">AN43*AO43</f>
         <v>865</v>
       </c>
       <c r="AW43">
-        <f t="shared" ref="AW43:AW51" si="2">AO43*AD43</f>
         <v>1903</v>
       </c>
       <c r="AX43">
-        <f t="shared" ref="AX43:AX51" si="3">AM43*AD43</f>
         <v>2464</v>
       </c>
       <c r="AY43">
@@ -7796,16 +7863,16 @@
         <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C44" s="1">
         <v>45556</v>
       </c>
       <c r="D44" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -7814,7 +7881,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -7823,7 +7890,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L44">
         <v>3.24</v>
@@ -7835,10 +7902,10 @@
         <v>2.39</v>
       </c>
       <c r="O44" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P44" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Q44">
         <v>12</v>
@@ -7886,16 +7953,16 @@
         <v>21</v>
       </c>
       <c r="AF44" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="AG44" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH44" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AI44" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ44">
         <v>5</v>
@@ -7904,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="AL44" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="AM44">
         <v>148</v>
@@ -7928,22 +7995,18 @@
         <v>350</v>
       </c>
       <c r="AT44">
-        <f t="shared" si="0"/>
         <v>1300</v>
       </c>
       <c r="AU44">
         <v>14</v>
       </c>
       <c r="AV44">
-        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="AW44">
-        <f t="shared" si="2"/>
         <v>182</v>
       </c>
       <c r="AX44">
-        <f t="shared" si="3"/>
         <v>1036</v>
       </c>
       <c r="AY44">
@@ -7955,16 +8018,16 @@
         <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C45" s="1">
         <v>45556</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -7973,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -7982,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L45">
         <v>2.2599999999999998</v>
@@ -7994,10 +8057,10 @@
         <v>3.49</v>
       </c>
       <c r="O45" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P45" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -8045,16 +8108,16 @@
         <v>23</v>
       </c>
       <c r="AF45" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG45" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AH45" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AI45" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ45">
         <v>1</v>
@@ -8063,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="AL45" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="AM45">
         <v>0</v>
@@ -8087,22 +8150,18 @@
         <v>70</v>
       </c>
       <c r="AT45">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU45">
         <v>0</v>
       </c>
       <c r="AV45">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW45">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AX45">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY45">
@@ -8114,16 +8173,16 @@
         <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C46" s="1">
         <v>45556</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -8132,7 +8191,7 @@
         <v>2</v>
       </c>
       <c r="H46" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -8141,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L46">
         <v>2.2200000000000002</v>
@@ -8153,10 +8212,10 @@
         <v>3.39</v>
       </c>
       <c r="O46" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P46" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Q46">
         <v>14</v>
@@ -8204,16 +8263,16 @@
         <v>23</v>
       </c>
       <c r="AF46" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="AG46" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH46" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI46" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AJ46">
         <v>4</v>
@@ -8222,7 +8281,7 @@
         <v>2</v>
       </c>
       <c r="AL46" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="AM46">
         <v>271</v>
@@ -8246,22 +8305,18 @@
         <v>1260</v>
       </c>
       <c r="AT46">
-        <f t="shared" si="0"/>
         <v>5400</v>
       </c>
       <c r="AU46">
         <v>56</v>
       </c>
       <c r="AV46">
-        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="AW46">
-        <f t="shared" si="2"/>
         <v>840</v>
       </c>
       <c r="AX46">
-        <f t="shared" si="3"/>
         <v>3794</v>
       </c>
       <c r="AY46">
@@ -8273,16 +8328,16 @@
         <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C47" s="1">
         <v>45557</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -8291,7 +8346,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -8300,7 +8355,7 @@
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L47">
         <v>2.3199999999999998</v>
@@ -8312,10 +8367,10 @@
         <v>3.23</v>
       </c>
       <c r="O47" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="P47" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Q47">
         <v>14</v>
@@ -8363,16 +8418,16 @@
         <v>26</v>
       </c>
       <c r="AF47" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="AG47" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH47" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI47" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ47">
         <v>7</v>
@@ -8381,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="AL47" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="AM47">
         <v>180</v>
@@ -8405,22 +8460,18 @@
         <v>910</v>
       </c>
       <c r="AT47">
-        <f t="shared" si="0"/>
         <v>3780</v>
       </c>
       <c r="AU47">
         <v>39</v>
       </c>
       <c r="AV47">
-        <f t="shared" si="1"/>
         <v>162</v>
       </c>
       <c r="AW47">
-        <f t="shared" si="2"/>
         <v>702</v>
       </c>
       <c r="AX47">
-        <f t="shared" si="3"/>
         <v>2340</v>
       </c>
       <c r="AY47">
@@ -8432,16 +8483,16 @@
         <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C48" s="1">
         <v>45557</v>
       </c>
       <c r="D48" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -8450,7 +8501,7 @@
         <v>2</v>
       </c>
       <c r="H48" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -8459,7 +8510,7 @@
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L48">
         <v>3.21</v>
@@ -8471,10 +8522,10 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="O48" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P48" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -8522,16 +8573,16 @@
         <v>36</v>
       </c>
       <c r="AF48" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="AG48" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH48" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI48" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ48">
         <v>5</v>
@@ -8540,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="AL48" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="AM48">
         <v>147</v>
@@ -8564,22 +8615,18 @@
         <v>200</v>
       </c>
       <c r="AT48">
-        <f t="shared" si="0"/>
         <v>5100</v>
       </c>
       <c r="AU48">
         <v>12</v>
       </c>
       <c r="AV48">
-        <f t="shared" si="1"/>
         <v>306</v>
       </c>
       <c r="AW48">
-        <f t="shared" si="2"/>
         <v>408</v>
       </c>
       <c r="AX48">
-        <f t="shared" si="3"/>
         <v>588</v>
       </c>
       <c r="AY48">
@@ -8591,16 +8638,16 @@
         <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C49" s="1">
         <v>45557</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E49" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="F49">
         <v>3</v>
@@ -8609,7 +8656,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -8618,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L49">
         <v>1.63</v>
@@ -8630,10 +8677,10 @@
         <v>5.59</v>
       </c>
       <c r="O49" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P49" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="Q49">
         <v>14</v>
@@ -8681,16 +8728,16 @@
         <v>26</v>
       </c>
       <c r="AF49" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="AG49" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH49" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI49" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ49">
         <v>4</v>
@@ -8699,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="AL49" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="AM49">
         <v>138</v>
@@ -8723,22 +8770,18 @@
         <v>120</v>
       </c>
       <c r="AT49">
-        <f t="shared" si="0"/>
         <v>2680</v>
       </c>
       <c r="AU49">
         <v>9</v>
       </c>
       <c r="AV49">
-        <f t="shared" si="1"/>
         <v>201</v>
       </c>
       <c r="AW49">
-        <f t="shared" si="2"/>
         <v>201</v>
       </c>
       <c r="AX49">
-        <f t="shared" si="3"/>
         <v>414</v>
       </c>
       <c r="AY49">
@@ -8750,16 +8793,16 @@
         <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C50" s="1">
         <v>45557</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E50" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -8768,7 +8811,7 @@
         <v>2</v>
       </c>
       <c r="H50" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -8777,7 +8820,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L50">
         <v>1.66</v>
@@ -8789,10 +8832,10 @@
         <v>5.25</v>
       </c>
       <c r="O50" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P50" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Q50">
         <v>13</v>
@@ -8840,16 +8883,16 @@
         <v>17</v>
       </c>
       <c r="AF50" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="AG50" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH50" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI50" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AJ50">
         <v>5</v>
@@ -8858,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="AL50" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="AM50">
         <v>126</v>
@@ -8882,22 +8925,18 @@
         <v>400</v>
       </c>
       <c r="AT50">
-        <f t="shared" si="0"/>
         <v>4450</v>
       </c>
       <c r="AU50">
         <v>24</v>
       </c>
       <c r="AV50">
-        <f t="shared" si="1"/>
         <v>267</v>
       </c>
       <c r="AW50">
-        <f t="shared" si="2"/>
         <v>712</v>
       </c>
       <c r="AX50">
-        <f t="shared" si="3"/>
         <v>1008</v>
       </c>
       <c r="AY50">
@@ -8909,16 +8948,16 @@
         <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C51" s="1">
         <v>45559</v>
       </c>
       <c r="D51" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E51" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -8927,7 +8966,7 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -8936,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L51">
         <v>1.5</v>
@@ -8948,10 +8987,10 @@
         <v>6.4</v>
       </c>
       <c r="O51" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P51" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -8999,16 +9038,16 @@
         <v>29</v>
       </c>
       <c r="AF51" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="AG51" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AH51" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AI51" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AJ51">
         <v>4</v>
@@ -9017,7 +9056,7 @@
         <v>0</v>
       </c>
       <c r="AL51" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="AM51">
         <v>266</v>
@@ -9041,26 +9080,1612 @@
         <v>320</v>
       </c>
       <c r="AT51">
-        <f t="shared" si="0"/>
         <v>5360</v>
       </c>
       <c r="AU51">
         <v>40</v>
       </c>
       <c r="AV51">
-        <f t="shared" si="1"/>
         <v>670</v>
       </c>
       <c r="AW51">
-        <f t="shared" si="2"/>
         <v>1072</v>
       </c>
       <c r="AX51">
-        <f t="shared" si="3"/>
         <v>2128</v>
       </c>
       <c r="AY51">
         <v>1600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="1">
+        <v>45562</v>
+      </c>
+      <c r="D52" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" t="s">
+        <v>119</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>132</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>132</v>
+      </c>
+      <c r="L52">
+        <v>1.33</v>
+      </c>
+      <c r="M52">
+        <v>5.73</v>
+      </c>
+      <c r="N52">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="O52" t="s">
+        <v>144</v>
+      </c>
+      <c r="P52" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q52">
+        <v>15</v>
+      </c>
+      <c r="R52">
+        <v>6</v>
+      </c>
+      <c r="S52">
+        <v>16</v>
+      </c>
+      <c r="T52">
+        <v>7</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
+      <c r="W52">
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>4</v>
+      </c>
+      <c r="Z52">
+        <v>7</v>
+      </c>
+      <c r="AA52">
+        <v>5</v>
+      </c>
+      <c r="AB52">
+        <v>8</v>
+      </c>
+      <c r="AC52">
+        <v>3</v>
+      </c>
+      <c r="AD52">
+        <v>11</v>
+      </c>
+      <c r="AE52">
+        <v>13</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ52">
+        <v>2</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM52">
+        <v>122</v>
+      </c>
+      <c r="AN52">
+        <v>3</v>
+      </c>
+      <c r="AO52">
+        <v>37</v>
+      </c>
+      <c r="AP52">
+        <v>45</v>
+      </c>
+      <c r="AQ52">
+        <v>350</v>
+      </c>
+      <c r="AR52">
+        <v>135</v>
+      </c>
+      <c r="AS52">
+        <v>495</v>
+      </c>
+      <c r="AT52">
+        <f>AO52*AP52</f>
+        <v>1665</v>
+      </c>
+      <c r="AU52">
+        <v>33</v>
+      </c>
+      <c r="AV52">
+        <f>AN52*AO52</f>
+        <v>111</v>
+      </c>
+      <c r="AW52">
+        <f>AO52*AD52</f>
+        <v>407</v>
+      </c>
+      <c r="AX52">
+        <f>AM52*AD52</f>
+        <v>1342</v>
+      </c>
+      <c r="AY52">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45563</v>
+      </c>
+      <c r="D53" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53" t="s">
+        <v>133</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53" t="s">
+        <v>133</v>
+      </c>
+      <c r="L53">
+        <v>7.07</v>
+      </c>
+      <c r="M53">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="N53">
+        <v>1.48</v>
+      </c>
+      <c r="O53" t="s">
+        <v>141</v>
+      </c>
+      <c r="P53" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q53">
+        <v>10</v>
+      </c>
+      <c r="R53">
+        <v>3</v>
+      </c>
+      <c r="S53">
+        <v>16</v>
+      </c>
+      <c r="T53">
+        <v>7</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>7</v>
+      </c>
+      <c r="Z53">
+        <v>3</v>
+      </c>
+      <c r="AA53">
+        <v>13</v>
+      </c>
+      <c r="AB53">
+        <v>6</v>
+      </c>
+      <c r="AC53">
+        <v>5</v>
+      </c>
+      <c r="AD53">
+        <v>10</v>
+      </c>
+      <c r="AE53">
+        <v>19</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ53">
+        <v>1</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM53">
+        <v>211</v>
+      </c>
+      <c r="AN53">
+        <v>5</v>
+      </c>
+      <c r="AO53">
+        <v>80</v>
+      </c>
+      <c r="AP53">
+        <v>10</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <v>50</v>
+      </c>
+      <c r="AS53">
+        <v>100</v>
+      </c>
+      <c r="AT53">
+        <f t="shared" ref="AT53:AT61" si="0">AO53*AP53</f>
+        <v>800</v>
+      </c>
+      <c r="AU53">
+        <v>50</v>
+      </c>
+      <c r="AV53">
+        <f t="shared" ref="AV53:AV61" si="1">AN53*AO53</f>
+        <v>400</v>
+      </c>
+      <c r="AW53">
+        <f t="shared" ref="AW53:AW61" si="2">AO53*AD53</f>
+        <v>800</v>
+      </c>
+      <c r="AX53">
+        <f t="shared" ref="AX53:AX61" si="3">AM53*AD53</f>
+        <v>2110</v>
+      </c>
+      <c r="AY53">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="1">
+        <v>45563</v>
+      </c>
+      <c r="D54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54" t="s">
+        <v>133</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>131</v>
+      </c>
+      <c r="L54">
+        <v>5.56</v>
+      </c>
+      <c r="M54">
+        <v>3.6</v>
+      </c>
+      <c r="N54">
+        <v>1.73</v>
+      </c>
+      <c r="O54" t="s">
+        <v>136</v>
+      </c>
+      <c r="P54" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q54">
+        <v>7</v>
+      </c>
+      <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <v>12</v>
+      </c>
+      <c r="T54">
+        <v>3</v>
+      </c>
+      <c r="U54">
+        <v>2</v>
+      </c>
+      <c r="V54">
+        <v>1</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>5</v>
+      </c>
+      <c r="Z54">
+        <v>3</v>
+      </c>
+      <c r="AA54">
+        <v>8</v>
+      </c>
+      <c r="AB54">
+        <v>14</v>
+      </c>
+      <c r="AC54">
+        <v>3</v>
+      </c>
+      <c r="AD54">
+        <v>8</v>
+      </c>
+      <c r="AE54">
+        <v>22</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ54">
+        <v>3</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM54">
+        <v>192</v>
+      </c>
+      <c r="AN54">
+        <v>3</v>
+      </c>
+      <c r="AO54">
+        <v>25</v>
+      </c>
+      <c r="AP54">
+        <v>30</v>
+      </c>
+      <c r="AQ54">
+        <v>200</v>
+      </c>
+      <c r="AR54">
+        <v>90</v>
+      </c>
+      <c r="AS54">
+        <v>240</v>
+      </c>
+      <c r="AT54">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="AU54">
+        <v>24</v>
+      </c>
+      <c r="AV54">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="AW54">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="AX54">
+        <f t="shared" si="3"/>
+        <v>1536</v>
+      </c>
+      <c r="AY54">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45563</v>
+      </c>
+      <c r="D55" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" t="s">
+        <v>130</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>131</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>131</v>
+      </c>
+      <c r="L55">
+        <v>3.03</v>
+      </c>
+      <c r="M55">
+        <v>3.28</v>
+      </c>
+      <c r="N55">
+        <v>2.52</v>
+      </c>
+      <c r="O55" t="s">
+        <v>136</v>
+      </c>
+      <c r="P55" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q55">
+        <v>5</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>23</v>
+      </c>
+      <c r="T55">
+        <v>5</v>
+      </c>
+      <c r="U55">
+        <v>3</v>
+      </c>
+      <c r="V55">
+        <v>3</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>2</v>
+      </c>
+      <c r="Z55">
+        <v>9</v>
+      </c>
+      <c r="AA55">
+        <v>16</v>
+      </c>
+      <c r="AB55">
+        <v>12</v>
+      </c>
+      <c r="AC55">
+        <v>2</v>
+      </c>
+      <c r="AD55">
+        <v>11</v>
+      </c>
+      <c r="AE55">
+        <v>28</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ55">
+        <v>6</v>
+      </c>
+      <c r="AK55">
+        <v>1</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM55">
+        <v>136</v>
+      </c>
+      <c r="AN55">
+        <v>2</v>
+      </c>
+      <c r="AO55">
+        <v>33</v>
+      </c>
+      <c r="AP55">
+        <v>85</v>
+      </c>
+      <c r="AQ55">
+        <v>1650</v>
+      </c>
+      <c r="AR55">
+        <v>170</v>
+      </c>
+      <c r="AS55">
+        <v>935</v>
+      </c>
+      <c r="AT55">
+        <f t="shared" si="0"/>
+        <v>2805</v>
+      </c>
+      <c r="AU55">
+        <v>22</v>
+      </c>
+      <c r="AV55">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="AW55">
+        <f t="shared" si="2"/>
+        <v>363</v>
+      </c>
+      <c r="AX55">
+        <f t="shared" si="3"/>
+        <v>1496</v>
+      </c>
+      <c r="AY55">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="1">
+        <v>45564</v>
+      </c>
+      <c r="D56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56" t="s">
+        <v>133</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>133</v>
+      </c>
+      <c r="L56">
+        <v>2.91</v>
+      </c>
+      <c r="M56">
+        <v>3.24</v>
+      </c>
+      <c r="N56">
+        <v>2.63</v>
+      </c>
+      <c r="O56" t="s">
+        <v>137</v>
+      </c>
+      <c r="P56" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q56">
+        <v>12</v>
+      </c>
+      <c r="R56">
+        <v>7</v>
+      </c>
+      <c r="S56">
+        <v>13</v>
+      </c>
+      <c r="T56">
+        <v>7</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
+      <c r="V56">
+        <v>3</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>3</v>
+      </c>
+      <c r="Z56">
+        <v>1</v>
+      </c>
+      <c r="AA56">
+        <v>10</v>
+      </c>
+      <c r="AB56">
+        <v>13</v>
+      </c>
+      <c r="AC56">
+        <v>5</v>
+      </c>
+      <c r="AD56">
+        <v>4</v>
+      </c>
+      <c r="AE56">
+        <v>23</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ56">
+        <v>5</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM56">
+        <v>314</v>
+      </c>
+      <c r="AN56">
+        <v>5</v>
+      </c>
+      <c r="AO56">
+        <v>82</v>
+      </c>
+      <c r="AP56">
+        <v>50</v>
+      </c>
+      <c r="AQ56">
+        <v>600</v>
+      </c>
+      <c r="AR56">
+        <v>250</v>
+      </c>
+      <c r="AS56">
+        <v>200</v>
+      </c>
+      <c r="AT56">
+        <f t="shared" si="0"/>
+        <v>4100</v>
+      </c>
+      <c r="AU56">
+        <v>20</v>
+      </c>
+      <c r="AV56">
+        <f t="shared" si="1"/>
+        <v>410</v>
+      </c>
+      <c r="AW56">
+        <f t="shared" si="2"/>
+        <v>328</v>
+      </c>
+      <c r="AX56">
+        <f t="shared" si="3"/>
+        <v>1256</v>
+      </c>
+      <c r="AY56">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45564</v>
+      </c>
+      <c r="D57" t="s">
+        <v>129</v>
+      </c>
+      <c r="E57" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>132</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>132</v>
+      </c>
+      <c r="L57">
+        <v>2.13</v>
+      </c>
+      <c r="M57">
+        <v>3.39</v>
+      </c>
+      <c r="N57">
+        <v>3.7</v>
+      </c>
+      <c r="O57" t="s">
+        <v>135</v>
+      </c>
+      <c r="P57" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q57">
+        <v>24</v>
+      </c>
+      <c r="R57">
+        <v>11</v>
+      </c>
+      <c r="S57">
+        <v>6</v>
+      </c>
+      <c r="T57">
+        <v>3</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+      <c r="V57">
+        <v>5</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>1</v>
+      </c>
+      <c r="Y57">
+        <v>9</v>
+      </c>
+      <c r="Z57">
+        <v>1</v>
+      </c>
+      <c r="AA57">
+        <v>10</v>
+      </c>
+      <c r="AB57">
+        <v>19</v>
+      </c>
+      <c r="AC57">
+        <v>5</v>
+      </c>
+      <c r="AD57">
+        <v>10</v>
+      </c>
+      <c r="AE57">
+        <v>29</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ57">
+        <v>7</v>
+      </c>
+      <c r="AK57">
+        <v>1</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>247</v>
+      </c>
+      <c r="AM57">
+        <v>347</v>
+      </c>
+      <c r="AN57">
+        <v>5</v>
+      </c>
+      <c r="AO57">
+        <v>46</v>
+      </c>
+      <c r="AP57">
+        <v>95</v>
+      </c>
+      <c r="AQ57">
+        <v>1500</v>
+      </c>
+      <c r="AR57">
+        <v>475</v>
+      </c>
+      <c r="AS57">
+        <v>950</v>
+      </c>
+      <c r="AT57">
+        <f t="shared" si="0"/>
+        <v>4370</v>
+      </c>
+      <c r="AU57">
+        <v>50</v>
+      </c>
+      <c r="AV57">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="AW57">
+        <f t="shared" si="2"/>
+        <v>460</v>
+      </c>
+      <c r="AX57">
+        <f t="shared" si="3"/>
+        <v>3470</v>
+      </c>
+      <c r="AY57">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="1">
+        <v>45564</v>
+      </c>
+      <c r="D58" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>132</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>133</v>
+      </c>
+      <c r="L58">
+        <v>1.41</v>
+      </c>
+      <c r="M58">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="N58">
+        <v>7.88</v>
+      </c>
+      <c r="O58" t="s">
+        <v>137</v>
+      </c>
+      <c r="P58" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q58">
+        <v>22</v>
+      </c>
+      <c r="R58">
+        <v>5</v>
+      </c>
+      <c r="S58">
+        <v>18</v>
+      </c>
+      <c r="T58">
+        <v>7</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+      <c r="V58">
+        <v>2</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>6</v>
+      </c>
+      <c r="Z58">
+        <v>3</v>
+      </c>
+      <c r="AA58">
+        <v>8</v>
+      </c>
+      <c r="AB58">
+        <v>13</v>
+      </c>
+      <c r="AC58">
+        <v>3</v>
+      </c>
+      <c r="AD58">
+        <v>9</v>
+      </c>
+      <c r="AE58">
+        <v>21</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ58">
+        <v>3</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>248</v>
+      </c>
+      <c r="AM58">
+        <v>202</v>
+      </c>
+      <c r="AN58">
+        <v>3</v>
+      </c>
+      <c r="AO58">
+        <v>85</v>
+      </c>
+      <c r="AP58">
+        <v>30</v>
+      </c>
+      <c r="AQ58">
+        <v>200</v>
+      </c>
+      <c r="AR58">
+        <v>90</v>
+      </c>
+      <c r="AS58">
+        <v>270</v>
+      </c>
+      <c r="AT58">
+        <f t="shared" si="0"/>
+        <v>2550</v>
+      </c>
+      <c r="AU58">
+        <v>27</v>
+      </c>
+      <c r="AV58">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="AW58">
+        <f t="shared" si="2"/>
+        <v>765</v>
+      </c>
+      <c r="AX58">
+        <f t="shared" si="3"/>
+        <v>1818</v>
+      </c>
+      <c r="AY58">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45564</v>
+      </c>
+      <c r="D59" t="s">
+        <v>113</v>
+      </c>
+      <c r="E59" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>131</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>131</v>
+      </c>
+      <c r="L59">
+        <v>3.48</v>
+      </c>
+      <c r="M59">
+        <v>3.27</v>
+      </c>
+      <c r="N59">
+        <v>2.27</v>
+      </c>
+      <c r="O59" t="s">
+        <v>136</v>
+      </c>
+      <c r="P59" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q59">
+        <v>8</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>13</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>1</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>2</v>
+      </c>
+      <c r="Z59">
+        <v>4</v>
+      </c>
+      <c r="AA59">
+        <v>15</v>
+      </c>
+      <c r="AB59">
+        <v>12</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>6</v>
+      </c>
+      <c r="AE59">
+        <v>27</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ59">
+        <v>1</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>249</v>
+      </c>
+      <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>0</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <v>10</v>
+      </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
+      <c r="AR59">
+        <v>0</v>
+      </c>
+      <c r="AS59">
+        <v>60</v>
+      </c>
+      <c r="AT59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU59">
+        <v>0</v>
+      </c>
+      <c r="AV59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AY59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="1">
+        <v>45564</v>
+      </c>
+      <c r="D60" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" t="s">
+        <v>123</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>132</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>132</v>
+      </c>
+      <c r="L60">
+        <v>1.36</v>
+      </c>
+      <c r="M60">
+        <v>5.16</v>
+      </c>
+      <c r="N60">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="O60" t="s">
+        <v>140</v>
+      </c>
+      <c r="P60" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q60">
+        <v>11</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60">
+        <v>5</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="V60">
+        <v>2</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>1</v>
+      </c>
+      <c r="Z60">
+        <v>3</v>
+      </c>
+      <c r="AA60">
+        <v>16</v>
+      </c>
+      <c r="AB60">
+        <v>8</v>
+      </c>
+      <c r="AC60">
+        <v>2</v>
+      </c>
+      <c r="AD60">
+        <v>4</v>
+      </c>
+      <c r="AE60">
+        <v>24</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ60">
+        <v>3</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM60">
+        <v>55</v>
+      </c>
+      <c r="AN60">
+        <v>2</v>
+      </c>
+      <c r="AO60">
+        <v>98</v>
+      </c>
+      <c r="AP60">
+        <v>30</v>
+      </c>
+      <c r="AQ60">
+        <v>200</v>
+      </c>
+      <c r="AR60">
+        <v>60</v>
+      </c>
+      <c r="AS60">
+        <v>120</v>
+      </c>
+      <c r="AT60">
+        <f t="shared" si="0"/>
+        <v>2940</v>
+      </c>
+      <c r="AU60">
+        <v>8</v>
+      </c>
+      <c r="AV60">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
+      <c r="AW60">
+        <f t="shared" si="2"/>
+        <v>392</v>
+      </c>
+      <c r="AX60">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="AY60">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="1">
+        <v>45565</v>
+      </c>
+      <c r="D61" t="s">
+        <v>112</v>
+      </c>
+      <c r="E61" t="s">
+        <v>117</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61" t="s">
+        <v>133</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
+        <v>133</v>
+      </c>
+      <c r="L61">
+        <v>2.13</v>
+      </c>
+      <c r="M61">
+        <v>3.62</v>
+      </c>
+      <c r="N61">
+        <v>3.45</v>
+      </c>
+      <c r="O61" t="s">
+        <v>137</v>
+      </c>
+      <c r="P61" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q61">
+        <v>18</v>
+      </c>
+      <c r="R61">
+        <v>4</v>
+      </c>
+      <c r="S61">
+        <v>11</v>
+      </c>
+      <c r="T61">
+        <v>4</v>
+      </c>
+      <c r="U61">
+        <v>3</v>
+      </c>
+      <c r="V61">
+        <v>2</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>5</v>
+      </c>
+      <c r="Z61">
+        <v>3</v>
+      </c>
+      <c r="AA61">
+        <v>10</v>
+      </c>
+      <c r="AB61">
+        <v>16</v>
+      </c>
+      <c r="AC61">
+        <v>5</v>
+      </c>
+      <c r="AD61">
+        <v>8</v>
+      </c>
+      <c r="AE61">
+        <v>26</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ61">
+        <v>5</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>251</v>
+      </c>
+      <c r="AM61">
+        <v>345</v>
+      </c>
+      <c r="AN61">
+        <v>5</v>
+      </c>
+      <c r="AO61">
+        <v>253</v>
+      </c>
+      <c r="AP61">
+        <v>50</v>
+      </c>
+      <c r="AQ61">
+        <v>600</v>
+      </c>
+      <c r="AR61">
+        <v>250</v>
+      </c>
+      <c r="AS61">
+        <v>400</v>
+      </c>
+      <c r="AT61">
+        <f t="shared" si="0"/>
+        <v>12650</v>
+      </c>
+      <c r="AU61">
+        <v>40</v>
+      </c>
+      <c r="AV61">
+        <f t="shared" si="1"/>
+        <v>1265</v>
+      </c>
+      <c r="AW61">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="AX61">
+        <f t="shared" si="3"/>
+        <v>2760</v>
+      </c>
+      <c r="AY61">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/I1_spread.xlsx
+++ b/I1_spread.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD878557-BD2A-4529-AF38-49B4021FF49F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C2F73E-C40C-4A81-BA54-064B04E82DEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="304">
   <si>
     <t>Div</t>
   </si>
@@ -330,34 +330,94 @@
     <t>50</t>
   </si>
   <si>
-    <t>903</t>
-  </si>
-  <si>
-    <t>904</t>
-  </si>
-  <si>
-    <t>905</t>
-  </si>
-  <si>
-    <t>906</t>
-  </si>
-  <si>
-    <t>907</t>
-  </si>
-  <si>
-    <t>908</t>
-  </si>
-  <si>
-    <t>909</t>
-  </si>
-  <si>
-    <t>910</t>
-  </si>
-  <si>
-    <t>911</t>
-  </si>
-  <si>
-    <t>912</t>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>1271</t>
+  </si>
+  <si>
+    <t>1272</t>
+  </si>
+  <si>
+    <t>1273</t>
+  </si>
+  <si>
+    <t>1274</t>
+  </si>
+  <si>
+    <t>1275</t>
+  </si>
+  <si>
+    <t>1276</t>
+  </si>
+  <si>
+    <t>1277</t>
+  </si>
+  <si>
+    <t>1278</t>
+  </si>
+  <si>
+    <t>1279</t>
+  </si>
+  <si>
+    <t>1280</t>
   </si>
   <si>
     <t>I1</t>
@@ -465,6 +525,9 @@
     <t>3-0</t>
   </si>
   <si>
+    <t>0-3</t>
+  </si>
+  <si>
     <t>2-2</t>
   </si>
   <si>
@@ -474,12 +537,15 @@
     <t>0-4</t>
   </si>
   <si>
-    <t>0-3</t>
-  </si>
-  <si>
     <t>2-3</t>
   </si>
   <si>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>0-6</t>
+  </si>
+  <si>
     <t>1-4</t>
   </si>
   <si>
@@ -600,6 +666,36 @@
     <t>1-3</t>
   </si>
   <si>
+    <t>13-6</t>
+  </si>
+  <si>
+    <t>5-0</t>
+  </si>
+  <si>
+    <t>14-0</t>
+  </si>
+  <si>
+    <t>0-7</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>7-1</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>9-12</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -784,6 +880,66 @@
   </si>
   <si>
     <t>Parma-Cagliari</t>
+  </si>
+  <si>
+    <t>Napoli-Como</t>
+  </si>
+  <si>
+    <t>Verona-Venezia</t>
+  </si>
+  <si>
+    <t>Udinese-Lecce</t>
+  </si>
+  <si>
+    <t>Atalanta-Genoa</t>
+  </si>
+  <si>
+    <t>Inter-Torino</t>
+  </si>
+  <si>
+    <t>Juventus-Cagliari</t>
+  </si>
+  <si>
+    <t>Bologna-Parma</t>
+  </si>
+  <si>
+    <t>Lazio-Empoli</t>
+  </si>
+  <si>
+    <t>Monza-Roma</t>
+  </si>
+  <si>
+    <t>Fiorentina-Milan</t>
+  </si>
+  <si>
+    <t>Como-Parma</t>
+  </si>
+  <si>
+    <t>Genoa-Bologna</t>
+  </si>
+  <si>
+    <t>Milan-Udinese</t>
+  </si>
+  <si>
+    <t>Juventus-Lazio</t>
+  </si>
+  <si>
+    <t>Empoli-Napoli</t>
+  </si>
+  <si>
+    <t>Lecce-Fiorentina</t>
+  </si>
+  <si>
+    <t>Venezia-Atalanta</t>
+  </si>
+  <si>
+    <t>Cagliari-Torino</t>
+  </si>
+  <si>
+    <t>Roma-Inter</t>
+  </si>
+  <si>
+    <t>Verona-Monza</t>
   </si>
 </sst>
 </file>
@@ -1139,61 +1295,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY61"/>
+  <dimension ref="A1:AY81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Y32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="Y53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO62" sqref="AO62"/>
+      <selection pane="bottomRight" activeCell="AO82" sqref="AO82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -1353,16 +1509,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1">
         <v>45521</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1371,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1380,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L2">
         <v>6.6</v>
@@ -1392,10 +1548,10 @@
         <v>1.55</v>
       </c>
       <c r="O2" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="P2" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1443,16 +1599,16 @@
         <v>29</v>
       </c>
       <c r="AF2" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="AG2" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH2" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI2" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AJ2">
         <v>3</v>
@@ -1461,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="AM2">
         <v>222</v>
@@ -1508,16 +1664,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1">
         <v>45521</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1526,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1535,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L3">
         <v>3.37</v>
@@ -1547,10 +1703,10 @@
         <v>2.25</v>
       </c>
       <c r="O3" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P3" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="Q3">
         <v>13</v>
@@ -1598,16 +1754,16 @@
         <v>24</v>
       </c>
       <c r="AF3" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="AG3" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH3" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AI3" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ3">
         <v>5</v>
@@ -1616,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="AL3" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="AM3">
         <v>97</v>
@@ -1663,16 +1819,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1">
         <v>45521</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1681,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1690,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L4">
         <v>2.5299999999999998</v>
@@ -1702,10 +1858,10 @@
         <v>3.14</v>
       </c>
       <c r="O4" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1753,16 +1909,16 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="AG4" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AH4" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AI4" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ4">
         <v>2</v>
@@ -1771,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -1818,16 +1974,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C5" s="1">
         <v>45521</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1836,7 +1992,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1845,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L5">
         <v>1.62</v>
@@ -1857,10 +2013,10 @@
         <v>5.76</v>
       </c>
       <c r="O5" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="P5" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="Q5">
         <v>20</v>
@@ -1908,16 +2064,16 @@
         <v>17</v>
       </c>
       <c r="AF5" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="AG5" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH5" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI5" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AJ5">
         <v>6</v>
@@ -1926,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="AM5">
         <v>277</v>
@@ -1973,16 +2129,16 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1">
         <v>45522</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1991,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2000,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L6">
         <v>1.95</v>
@@ -2012,10 +2168,10 @@
         <v>4.57</v>
       </c>
       <c r="O6" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="Q6">
         <v>22</v>
@@ -2063,16 +2219,16 @@
         <v>28</v>
       </c>
       <c r="AF6" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="AG6" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH6" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AI6" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ6">
         <v>4</v>
@@ -2081,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="AM6">
         <v>125</v>
@@ -2128,16 +2284,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C7" s="1">
         <v>45522</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -2146,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2155,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L7">
         <v>4.99</v>
@@ -2167,10 +2323,10 @@
         <v>1.78</v>
       </c>
       <c r="O7" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P7" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="Q7">
         <v>8</v>
@@ -2218,16 +2374,16 @@
         <v>28</v>
       </c>
       <c r="AF7" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="AG7" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH7" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI7" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ7">
         <v>5</v>
@@ -2236,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="AM7">
         <v>215</v>
@@ -2283,16 +2439,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C8" s="1">
         <v>45522</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2301,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2310,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L8">
         <v>4.04</v>
@@ -2322,10 +2478,10 @@
         <v>1.99</v>
       </c>
       <c r="O8" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P8" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="Q8">
         <v>12</v>
@@ -2373,16 +2529,16 @@
         <v>22</v>
       </c>
       <c r="AF8" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="AG8" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AH8" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AI8" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ8">
         <v>2</v>
@@ -2391,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="AM8">
         <v>0</v>
@@ -2438,16 +2594,16 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C9" s="1">
         <v>45522</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -2456,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -2465,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L9">
         <v>1.48</v>
@@ -2477,10 +2633,10 @@
         <v>7.29</v>
       </c>
       <c r="O9" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="P9" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="Q9">
         <v>13</v>
@@ -2528,16 +2684,16 @@
         <v>25</v>
       </c>
       <c r="AF9" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="AG9" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH9" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI9" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AJ9">
         <v>3</v>
@@ -2546,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="AM9">
         <v>139</v>
@@ -2593,16 +2749,16 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C10" s="1">
         <v>45523</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2611,7 +2767,7 @@
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2620,7 +2776,7 @@
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L10">
         <v>4.4400000000000004</v>
@@ -2632,10 +2788,10 @@
         <v>1.88</v>
       </c>
       <c r="O10" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="P10" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="Q10">
         <v>19</v>
@@ -2683,16 +2839,16 @@
         <v>34</v>
       </c>
       <c r="AF10" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="AG10" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH10" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI10" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AJ10">
         <v>2</v>
@@ -2701,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="AM10">
         <v>203</v>
@@ -2748,16 +2904,16 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C11" s="1">
         <v>45523</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -2766,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -2775,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L11">
         <v>1.34</v>
@@ -2787,10 +2943,10 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="O11" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="Q11">
         <v>12</v>
@@ -2838,16 +2994,16 @@
         <v>18</v>
       </c>
       <c r="AF11" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="AG11" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH11" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI11" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ11">
         <v>6</v>
@@ -2856,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="AM11">
         <v>158</v>
@@ -2903,16 +3059,16 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C12" s="1">
         <v>45528</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -2921,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2930,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L12">
         <v>4.9000000000000004</v>
@@ -2942,10 +3098,10 @@
         <v>1.69</v>
       </c>
       <c r="O12" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P12" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -2993,16 +3149,16 @@
         <v>22</v>
       </c>
       <c r="AF12" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="AG12" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH12" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI12" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ12">
         <v>3</v>
@@ -3011,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="AM12">
         <v>145</v>
@@ -3058,16 +3214,16 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C13" s="1">
         <v>45528</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -3076,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3085,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L13">
         <v>3.38</v>
@@ -3097,10 +3253,10 @@
         <v>2.4</v>
       </c>
       <c r="O13" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3148,16 +3304,16 @@
         <v>25</v>
       </c>
       <c r="AF13" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="AG13" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH13" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI13" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ13">
         <v>0</v>
@@ -3166,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="AL13" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="AM13">
         <v>144</v>
@@ -3213,16 +3369,16 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C14" s="1">
         <v>45528</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -3231,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3240,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L14">
         <v>1.2</v>
@@ -3252,10 +3408,10 @@
         <v>15.07</v>
       </c>
       <c r="O14" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P14" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -3303,16 +3459,16 @@
         <v>21</v>
       </c>
       <c r="AF14" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="AG14" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH14" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AI14" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ14">
         <v>2</v>
@@ -3321,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="AM14">
         <v>74</v>
@@ -3368,16 +3524,16 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C15" s="1">
         <v>45528</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -3386,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3395,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L15">
         <v>2.68</v>
@@ -3407,10 +3563,10 @@
         <v>2.96</v>
       </c>
       <c r="O15" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="P15" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -3458,16 +3614,16 @@
         <v>23</v>
       </c>
       <c r="AF15" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AH15" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AI15" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ15">
         <v>5</v>
@@ -3476,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="AM15">
         <v>45</v>
@@ -3523,16 +3679,16 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C16" s="1">
         <v>45529</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3541,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3550,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L16">
         <v>1.44</v>
@@ -3562,10 +3718,10 @@
         <v>7.64</v>
       </c>
       <c r="O16" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P16" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="Q16">
         <v>12</v>
@@ -3613,16 +3769,16 @@
         <v>32</v>
       </c>
       <c r="AF16" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="AG16" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AH16" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AI16" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ16">
         <v>3</v>
@@ -3631,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -3678,16 +3834,16 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C17" s="1">
         <v>45529</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="E17" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -3696,7 +3852,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -3705,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L17">
         <v>3.32</v>
@@ -3717,10 +3873,10 @@
         <v>2.35</v>
       </c>
       <c r="O17" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="P17" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="Q17">
         <v>13</v>
@@ -3768,16 +3924,16 @@
         <v>21</v>
       </c>
       <c r="AF17" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH17" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI17" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ17">
         <v>7</v>
@@ -3786,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="AM17">
         <v>106</v>
@@ -3833,16 +3989,16 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C18" s="1">
         <v>45529</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -3851,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3860,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L18">
         <v>1.94</v>
@@ -3872,10 +4028,10 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="O18" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="Q18">
         <v>16</v>
@@ -3923,16 +4079,16 @@
         <v>28</v>
       </c>
       <c r="AF18" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="AG18" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH18" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI18" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ18">
         <v>4</v>
@@ -3941,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="AM18">
         <v>210</v>
@@ -3988,16 +4144,16 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C19" s="1">
         <v>45529</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -4006,7 +4162,7 @@
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -4015,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L19">
         <v>1.5</v>
@@ -4027,10 +4183,10 @@
         <v>6.8</v>
       </c>
       <c r="O19" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="P19" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="Q19">
         <v>17</v>
@@ -4078,16 +4234,16 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="AG19" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH19" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI19" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ19">
         <v>3</v>
@@ -4096,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="AM19">
         <v>186</v>
@@ -4143,16 +4299,16 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C20" s="1">
         <v>45530</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -4161,7 +4317,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -4170,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L20">
         <v>2.13</v>
@@ -4182,10 +4338,10 @@
         <v>3.66</v>
       </c>
       <c r="O20" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P20" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4233,16 +4389,16 @@
         <v>22</v>
       </c>
       <c r="AF20" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="AG20" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH20" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AI20" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ20">
         <v>4</v>
@@ -4251,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="AM20">
         <v>97</v>
@@ -4298,16 +4454,16 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C21" s="1">
         <v>45530</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -4316,7 +4472,7 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -4325,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L21">
         <v>5.23</v>
@@ -4337,10 +4493,10 @@
         <v>1.72</v>
       </c>
       <c r="O21" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4388,16 +4544,16 @@
         <v>16</v>
       </c>
       <c r="AF21" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="AG21" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH21" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI21" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ21">
         <v>2</v>
@@ -4406,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="AM21">
         <v>120</v>
@@ -4453,16 +4609,16 @@
         <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C22" s="1">
         <v>45534</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -4471,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -4480,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L22">
         <v>3.63</v>
@@ -4492,10 +4648,10 @@
         <v>2.23</v>
       </c>
       <c r="O22" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P22" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="Q22">
         <v>13</v>
@@ -4543,16 +4699,16 @@
         <v>22</v>
       </c>
       <c r="AF22" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="AG22" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AH22" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AI22" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ22">
         <v>6</v>
@@ -4561,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="AM22">
         <v>86</v>
@@ -4608,16 +4764,16 @@
         <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C23" s="1">
         <v>45534</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="E23" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -4626,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -4635,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L23">
         <v>1.58</v>
@@ -4647,10 +4803,10 @@
         <v>5.79</v>
       </c>
       <c r="O23" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="P23" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="Q23">
         <v>13</v>
@@ -4698,16 +4854,16 @@
         <v>21</v>
       </c>
       <c r="AF23" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="AG23" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH23" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI23" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AJ23">
         <v>2</v>
@@ -4716,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="AM23">
         <v>116</v>
@@ -4763,16 +4919,16 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C24" s="1">
         <v>45535</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -4781,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -4790,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L24">
         <v>1.66</v>
@@ -4802,10 +4958,10 @@
         <v>5.89</v>
       </c>
       <c r="O24" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="P24" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="Q24">
         <v>14</v>
@@ -4853,16 +5009,16 @@
         <v>33</v>
       </c>
       <c r="AF24" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="AG24" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH24" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AI24" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ24">
         <v>3</v>
@@ -4871,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="AM24">
         <v>5</v>
@@ -4918,16 +5074,16 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C25" s="1">
         <v>45535</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -4936,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -4945,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L25">
         <v>2.33</v>
@@ -4957,10 +5113,10 @@
         <v>3.45</v>
       </c>
       <c r="O25" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P25" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="Q25">
         <v>17</v>
@@ -5008,16 +5164,16 @@
         <v>23</v>
       </c>
       <c r="AF25" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="AG25" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AH25" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AI25" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ25">
         <v>4</v>
@@ -5026,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="AM25">
         <v>26</v>
@@ -5073,16 +5229,16 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C26" s="1">
         <v>45535</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -5091,7 +5247,7 @@
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -5100,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L26">
         <v>2.97</v>
@@ -5112,10 +5268,10 @@
         <v>2.46</v>
       </c>
       <c r="O26" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="P26" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5163,16 +5319,16 @@
         <v>21</v>
       </c>
       <c r="AF26" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="AG26" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH26" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI26" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AJ26">
         <v>6</v>
@@ -5181,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="AL26" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="AM26">
         <v>208</v>
@@ -5228,16 +5384,16 @@
         <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C27" s="1">
         <v>45535</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -5246,7 +5402,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -5255,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L27">
         <v>1.5</v>
@@ -5267,10 +5423,10 @@
         <v>6.48</v>
       </c>
       <c r="O27" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="P27" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="Q27">
         <v>29</v>
@@ -5318,16 +5474,16 @@
         <v>18</v>
       </c>
       <c r="AF27" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="AG27" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH27" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI27" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ27">
         <v>6</v>
@@ -5336,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="AL27" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="AM27">
         <v>199</v>
@@ -5383,16 +5539,16 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C28" s="1">
         <v>45536</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -5401,7 +5557,7 @@
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -5410,7 +5566,7 @@
         <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L28">
         <v>1.7</v>
@@ -5422,10 +5578,10 @@
         <v>5.24</v>
       </c>
       <c r="O28" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="Q28">
         <v>15</v>
@@ -5473,16 +5629,16 @@
         <v>32</v>
       </c>
       <c r="AF28" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="AG28" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH28" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI28" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AJ28">
         <v>6</v>
@@ -5491,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="AL28" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="AM28">
         <v>185</v>
@@ -5538,16 +5694,16 @@
         <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C29" s="1">
         <v>45536</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -5556,7 +5712,7 @@
         <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -5565,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L29">
         <v>2.02</v>
@@ -5577,10 +5733,10 @@
         <v>4.25</v>
       </c>
       <c r="O29" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P29" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -5628,16 +5784,16 @@
         <v>24</v>
       </c>
       <c r="AF29" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="AG29" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH29" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AI29" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ29">
         <v>8</v>
@@ -5646,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="AL29" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="AM29">
         <v>119</v>
@@ -5693,16 +5849,16 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C30" s="1">
         <v>45536</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -5711,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -5720,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L30">
         <v>1.76</v>
@@ -5732,10 +5888,10 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="O30" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P30" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -5783,16 +5939,16 @@
         <v>23</v>
       </c>
       <c r="AF30" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="AG30" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AH30" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AI30" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ30">
         <v>4</v>
@@ -5801,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="AM30">
         <v>0</v>
@@ -5848,16 +6004,16 @@
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C31" s="1">
         <v>45536</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -5866,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -5875,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L31">
         <v>2.0699999999999998</v>
@@ -5887,10 +6043,10 @@
         <v>3.89</v>
       </c>
       <c r="O31" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P31" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="Q31">
         <v>10</v>
@@ -5938,16 +6094,16 @@
         <v>25</v>
       </c>
       <c r="AF31" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="AG31" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AH31" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AI31" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ31">
         <v>3</v>
@@ -5956,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="AM31">
         <v>43</v>
@@ -6003,16 +6159,16 @@
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C32" s="1">
         <v>45549</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -6021,7 +6177,7 @@
         <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -6030,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L32">
         <v>3.03</v>
@@ -6042,10 +6198,10 @@
         <v>2.57</v>
       </c>
       <c r="O32" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P32" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="Q32">
         <v>14</v>
@@ -6093,16 +6249,16 @@
         <v>29</v>
       </c>
       <c r="AF32" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="AG32" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH32" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI32" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AJ32">
         <v>3</v>
@@ -6111,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="AL32" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="AM32">
         <v>134</v>
@@ -6158,16 +6314,16 @@
         <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C33" s="1">
         <v>45549</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E33" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -6176,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -6185,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L33">
         <v>5.54</v>
@@ -6197,10 +6353,10 @@
         <v>1.7</v>
       </c>
       <c r="O33" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P33" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -6248,16 +6404,16 @@
         <v>21</v>
       </c>
       <c r="AF33" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="AG33" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AH33" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AI33" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ33">
         <v>3</v>
@@ -6266,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="AM33">
         <v>0</v>
@@ -6313,16 +6469,16 @@
         <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C34" s="1">
         <v>45549</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E34" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F34">
         <v>4</v>
@@ -6331,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I34">
         <v>4</v>
@@ -6340,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L34">
         <v>1.3</v>
@@ -6352,10 +6508,10 @@
         <v>9.65</v>
       </c>
       <c r="O34" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="P34" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="Q34">
         <v>12</v>
@@ -6403,16 +6559,16 @@
         <v>24</v>
       </c>
       <c r="AF34" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="AG34" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH34" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI34" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AJ34">
         <v>4</v>
@@ -6421,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="AL34" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="AM34">
         <v>72</v>
@@ -6468,16 +6624,16 @@
         <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C35" s="1">
         <v>45550</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -6486,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -6495,7 +6651,7 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L35">
         <v>3.37</v>
@@ -6507,10 +6663,10 @@
         <v>2.29</v>
       </c>
       <c r="O35" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="P35" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="Q35">
         <v>20</v>
@@ -6558,16 +6714,16 @@
         <v>21</v>
       </c>
       <c r="AF35" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="AG35" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH35" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AI35" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ35">
         <v>4</v>
@@ -6576,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="AL35" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="AM35">
         <v>127</v>
@@ -6623,16 +6779,16 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C36" s="1">
         <v>45550</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -6641,7 +6797,7 @@
         <v>2</v>
       </c>
       <c r="H36" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I36">
         <v>3</v>
@@ -6650,7 +6806,7 @@
         <v>2</v>
       </c>
       <c r="K36" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L36">
         <v>1.83</v>
@@ -6662,10 +6818,10 @@
         <v>4.29</v>
       </c>
       <c r="O36" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="P36" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="Q36">
         <v>13</v>
@@ -6713,16 +6869,16 @@
         <v>31</v>
       </c>
       <c r="AF36" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="AG36" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH36" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI36" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AJ36">
         <v>5</v>
@@ -6731,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="AM36">
         <v>158</v>
@@ -6778,16 +6934,16 @@
         <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C37" s="1">
         <v>45550</v>
       </c>
       <c r="D37" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -6796,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -6805,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L37">
         <v>1.84</v>
@@ -6817,10 +6973,10 @@
         <v>5.07</v>
       </c>
       <c r="O37" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P37" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -6868,16 +7024,16 @@
         <v>26</v>
       </c>
       <c r="AF37" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="AG37" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AH37" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AI37" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ37">
         <v>4</v>
@@ -6886,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="AL37" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="AM37">
         <v>0</v>
@@ -6933,16 +7089,16 @@
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C38" s="1">
         <v>45550</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -6951,7 +7107,7 @@
         <v>4</v>
       </c>
       <c r="H38" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -6960,7 +7116,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L38">
         <v>4.43</v>
@@ -6972,10 +7128,10 @@
         <v>1.83</v>
       </c>
       <c r="O38" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="P38" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="Q38">
         <v>16</v>
@@ -7023,16 +7179,16 @@
         <v>33</v>
       </c>
       <c r="AF38" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="AG38" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH38" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI38" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AJ38">
         <v>3</v>
@@ -7041,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="AL38" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="AM38">
         <v>244</v>
@@ -7088,16 +7244,16 @@
         <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C39" s="1">
         <v>45550</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -7106,7 +7262,7 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -7115,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L39">
         <v>7.58</v>
@@ -7127,10 +7283,10 @@
         <v>1.41</v>
       </c>
       <c r="O39" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P39" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -7178,16 +7334,16 @@
         <v>30</v>
       </c>
       <c r="AF39" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="AG39" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH39" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AI39" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ39">
         <v>3</v>
@@ -7196,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="AL39" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="AM39">
         <v>169</v>
@@ -7243,16 +7399,16 @@
         <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C40" s="1">
         <v>45551</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E40" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -7261,7 +7417,7 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -7270,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L40">
         <v>2.29</v>
@@ -7282,10 +7438,10 @@
         <v>3.29</v>
       </c>
       <c r="O40" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="Q40">
         <v>9</v>
@@ -7333,16 +7489,16 @@
         <v>26</v>
       </c>
       <c r="AF40" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="AG40" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH40" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI40" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AJ40">
         <v>5</v>
@@ -7351,7 +7507,7 @@
         <v>1</v>
       </c>
       <c r="AL40" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="AM40">
         <v>239</v>
@@ -7398,16 +7554,16 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C41" s="1">
         <v>45551</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E41" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -7416,7 +7572,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I41">
         <v>2</v>
@@ -7425,7 +7581,7 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L41">
         <v>1.62</v>
@@ -7437,10 +7593,10 @@
         <v>5.78</v>
       </c>
       <c r="O41" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="P41" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="Q41">
         <v>14</v>
@@ -7488,16 +7644,16 @@
         <v>23</v>
       </c>
       <c r="AF41" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="AG41" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH41" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI41" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ41">
         <v>4</v>
@@ -7506,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="AL41" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="AM41">
         <v>32</v>
@@ -7553,16 +7709,16 @@
         <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C42" s="1">
         <v>45555</v>
       </c>
       <c r="D42" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="E42" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -7571,7 +7727,7 @@
         <v>2</v>
       </c>
       <c r="H42" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -7580,7 +7736,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L42">
         <v>2.17</v>
@@ -7592,10 +7748,10 @@
         <v>3.72</v>
       </c>
       <c r="O42" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="P42" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="Q42">
         <v>21</v>
@@ -7643,16 +7799,16 @@
         <v>36</v>
       </c>
       <c r="AF42" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="AG42" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH42" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AI42" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ42">
         <v>3</v>
@@ -7661,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="AL42" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="AM42">
         <v>82</v>
@@ -7708,16 +7864,16 @@
         <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C43" s="1">
         <v>45555</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E43" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -7726,7 +7882,7 @@
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -7735,7 +7891,7 @@
         <v>2</v>
       </c>
       <c r="K43" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L43">
         <v>2.85</v>
@@ -7747,10 +7903,10 @@
         <v>2.9</v>
       </c>
       <c r="O43" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="P43" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -7798,16 +7954,16 @@
         <v>18</v>
       </c>
       <c r="AF43" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="AG43" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH43" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI43" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AJ43">
         <v>4</v>
@@ -7816,7 +7972,7 @@
         <v>1</v>
       </c>
       <c r="AL43" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="AM43">
         <v>224</v>
@@ -7863,16 +8019,16 @@
         <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C44" s="1">
         <v>45556</v>
       </c>
       <c r="D44" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="E44" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -7881,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -7890,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L44">
         <v>3.24</v>
@@ -7902,10 +8058,10 @@
         <v>2.39</v>
       </c>
       <c r="O44" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P44" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="Q44">
         <v>12</v>
@@ -7953,16 +8109,16 @@
         <v>21</v>
       </c>
       <c r="AF44" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="AG44" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH44" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AI44" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ44">
         <v>5</v>
@@ -7971,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="AL44" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="AM44">
         <v>148</v>
@@ -8018,16 +8174,16 @@
         <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C45" s="1">
         <v>45556</v>
       </c>
       <c r="D45" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E45" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -8036,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -8045,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L45">
         <v>2.2599999999999998</v>
@@ -8057,10 +8213,10 @@
         <v>3.49</v>
       </c>
       <c r="O45" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P45" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -8108,16 +8264,16 @@
         <v>23</v>
       </c>
       <c r="AF45" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="AG45" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AH45" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AI45" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ45">
         <v>1</v>
@@ -8126,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="AL45" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="AM45">
         <v>0</v>
@@ -8173,16 +8329,16 @@
         <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C46" s="1">
         <v>45556</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="E46" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -8191,7 +8347,7 @@
         <v>2</v>
       </c>
       <c r="H46" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -8200,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L46">
         <v>2.2200000000000002</v>
@@ -8212,10 +8368,10 @@
         <v>3.39</v>
       </c>
       <c r="O46" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P46" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="Q46">
         <v>14</v>
@@ -8263,16 +8419,16 @@
         <v>23</v>
       </c>
       <c r="AF46" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="AG46" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH46" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI46" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AJ46">
         <v>4</v>
@@ -8281,7 +8437,7 @@
         <v>2</v>
       </c>
       <c r="AL46" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="AM46">
         <v>271</v>
@@ -8328,16 +8484,16 @@
         <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C47" s="1">
         <v>45557</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="E47" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -8346,7 +8502,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -8355,7 +8511,7 @@
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L47">
         <v>2.3199999999999998</v>
@@ -8367,10 +8523,10 @@
         <v>3.23</v>
       </c>
       <c r="O47" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="P47" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="Q47">
         <v>14</v>
@@ -8418,16 +8574,16 @@
         <v>26</v>
       </c>
       <c r="AF47" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="AG47" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH47" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI47" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ47">
         <v>7</v>
@@ -8436,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="AL47" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="AM47">
         <v>180</v>
@@ -8483,16 +8639,16 @@
         <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C48" s="1">
         <v>45557</v>
       </c>
       <c r="D48" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E48" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -8501,7 +8657,7 @@
         <v>2</v>
       </c>
       <c r="H48" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -8510,7 +8666,7 @@
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L48">
         <v>3.21</v>
@@ -8522,10 +8678,10 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="O48" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="P48" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -8573,16 +8729,16 @@
         <v>36</v>
       </c>
       <c r="AF48" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="AG48" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH48" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI48" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ48">
         <v>5</v>
@@ -8591,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="AL48" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="AM48">
         <v>147</v>
@@ -8638,16 +8794,16 @@
         <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C49" s="1">
         <v>45557</v>
       </c>
       <c r="D49" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E49" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F49">
         <v>3</v>
@@ -8656,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -8665,7 +8821,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L49">
         <v>1.63</v>
@@ -8677,10 +8833,10 @@
         <v>5.59</v>
       </c>
       <c r="O49" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P49" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="Q49">
         <v>14</v>
@@ -8728,16 +8884,16 @@
         <v>26</v>
       </c>
       <c r="AF49" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="AG49" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH49" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI49" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ49">
         <v>4</v>
@@ -8746,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="AL49" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="AM49">
         <v>138</v>
@@ -8793,16 +8949,16 @@
         <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C50" s="1">
         <v>45557</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="E50" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -8811,7 +8967,7 @@
         <v>2</v>
       </c>
       <c r="H50" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -8820,7 +8976,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L50">
         <v>1.66</v>
@@ -8832,10 +8988,10 @@
         <v>5.25</v>
       </c>
       <c r="O50" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="P50" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="Q50">
         <v>13</v>
@@ -8883,16 +9039,16 @@
         <v>17</v>
       </c>
       <c r="AF50" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="AG50" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH50" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI50" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ50">
         <v>5</v>
@@ -8901,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="AL50" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="AM50">
         <v>126</v>
@@ -8948,16 +9104,16 @@
         <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C51" s="1">
         <v>45559</v>
       </c>
       <c r="D51" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="E51" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -8966,7 +9122,7 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -8975,7 +9131,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L51">
         <v>1.5</v>
@@ -8987,10 +9143,10 @@
         <v>6.4</v>
       </c>
       <c r="O51" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P51" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -9038,16 +9194,16 @@
         <v>29</v>
       </c>
       <c r="AF51" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="AG51" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH51" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI51" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AJ51">
         <v>4</v>
@@ -9056,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="AL51" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="AM51">
         <v>266</v>
@@ -9103,16 +9259,16 @@
         <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C52" s="1">
         <v>45562</v>
       </c>
       <c r="D52" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E52" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F52">
         <v>3</v>
@@ -9121,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I52">
         <v>3</v>
@@ -9130,7 +9286,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L52">
         <v>1.33</v>
@@ -9142,10 +9298,10 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="O52" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="P52" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="Q52">
         <v>15</v>
@@ -9193,16 +9349,16 @@
         <v>13</v>
       </c>
       <c r="AF52" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="AG52" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH52" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI52" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ52">
         <v>2</v>
@@ -9211,7 +9367,7 @@
         <v>1</v>
       </c>
       <c r="AL52" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="AM52">
         <v>122</v>
@@ -9235,22 +9391,18 @@
         <v>495</v>
       </c>
       <c r="AT52">
-        <f>AO52*AP52</f>
         <v>1665</v>
       </c>
       <c r="AU52">
         <v>33</v>
       </c>
       <c r="AV52">
-        <f>AN52*AO52</f>
         <v>111</v>
       </c>
       <c r="AW52">
-        <f>AO52*AD52</f>
         <v>407</v>
       </c>
       <c r="AX52">
-        <f>AM52*AD52</f>
         <v>1342</v>
       </c>
       <c r="AY52">
@@ -9262,16 +9414,16 @@
         <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C53" s="1">
         <v>45563</v>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E53" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -9280,7 +9432,7 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -9289,7 +9441,7 @@
         <v>2</v>
       </c>
       <c r="K53" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L53">
         <v>7.07</v>
@@ -9301,10 +9453,10 @@
         <v>1.48</v>
       </c>
       <c r="O53" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="P53" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -9352,16 +9504,16 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="AG53" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH53" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI53" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AJ53">
         <v>1</v>
@@ -9370,7 +9522,7 @@
         <v>0</v>
       </c>
       <c r="AL53" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="AM53">
         <v>211</v>
@@ -9394,22 +9546,18 @@
         <v>100</v>
       </c>
       <c r="AT53">
-        <f t="shared" ref="AT53:AT61" si="0">AO53*AP53</f>
         <v>800</v>
       </c>
       <c r="AU53">
         <v>50</v>
       </c>
       <c r="AV53">
-        <f t="shared" ref="AV53:AV61" si="1">AN53*AO53</f>
         <v>400</v>
       </c>
       <c r="AW53">
-        <f t="shared" ref="AW53:AW61" si="2">AO53*AD53</f>
         <v>800</v>
       </c>
       <c r="AX53">
-        <f t="shared" ref="AX53:AX61" si="3">AM53*AD53</f>
         <v>2110</v>
       </c>
       <c r="AY53">
@@ -9421,16 +9569,16 @@
         <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C54" s="1">
         <v>45563</v>
       </c>
       <c r="D54" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E54" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -9439,7 +9587,7 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -9448,7 +9596,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L54">
         <v>5.56</v>
@@ -9460,10 +9608,10 @@
         <v>1.73</v>
       </c>
       <c r="O54" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P54" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -9511,16 +9659,16 @@
         <v>22</v>
       </c>
       <c r="AF54" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="AG54" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH54" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI54" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ54">
         <v>3</v>
@@ -9529,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="AL54" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="AM54">
         <v>192</v>
@@ -9553,22 +9701,18 @@
         <v>240</v>
       </c>
       <c r="AT54">
-        <f t="shared" si="0"/>
         <v>750</v>
       </c>
       <c r="AU54">
         <v>24</v>
       </c>
       <c r="AV54">
-        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="AW54">
-        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="AX54">
-        <f t="shared" si="3"/>
         <v>1536</v>
       </c>
       <c r="AY54">
@@ -9580,16 +9724,16 @@
         <v>103</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C55" s="1">
         <v>45563</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E55" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -9598,7 +9742,7 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -9607,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L55">
         <v>3.03</v>
@@ -9619,10 +9763,10 @@
         <v>2.52</v>
       </c>
       <c r="O55" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P55" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -9670,16 +9814,16 @@
         <v>28</v>
       </c>
       <c r="AF55" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="AG55" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH55" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AI55" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ55">
         <v>6</v>
@@ -9688,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AL55" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="AM55">
         <v>136</v>
@@ -9712,22 +9856,18 @@
         <v>935</v>
       </c>
       <c r="AT55">
-        <f t="shared" si="0"/>
         <v>2805</v>
       </c>
       <c r="AU55">
         <v>22</v>
       </c>
       <c r="AV55">
-        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="AW55">
-        <f t="shared" si="2"/>
         <v>363</v>
       </c>
       <c r="AX55">
-        <f t="shared" si="3"/>
         <v>1496</v>
       </c>
       <c r="AY55">
@@ -9739,16 +9879,16 @@
         <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C56" s="1">
         <v>45564</v>
       </c>
       <c r="D56" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="E56" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -9757,7 +9897,7 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -9766,7 +9906,7 @@
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L56">
         <v>2.91</v>
@@ -9778,10 +9918,10 @@
         <v>2.63</v>
       </c>
       <c r="O56" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="P56" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="Q56">
         <v>12</v>
@@ -9829,16 +9969,16 @@
         <v>23</v>
       </c>
       <c r="AF56" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="AG56" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH56" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI56" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AJ56">
         <v>5</v>
@@ -9847,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="AL56" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="AM56">
         <v>314</v>
@@ -9871,22 +10011,18 @@
         <v>200</v>
       </c>
       <c r="AT56">
-        <f t="shared" si="0"/>
         <v>4100</v>
       </c>
       <c r="AU56">
         <v>20</v>
       </c>
       <c r="AV56">
-        <f t="shared" si="1"/>
         <v>410</v>
       </c>
       <c r="AW56">
-        <f t="shared" si="2"/>
         <v>328</v>
       </c>
       <c r="AX56">
-        <f t="shared" si="3"/>
         <v>1256</v>
       </c>
       <c r="AY56">
@@ -9898,16 +10034,16 @@
         <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C57" s="1">
         <v>45564</v>
       </c>
       <c r="D57" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="E57" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="F57">
         <v>3</v>
@@ -9916,7 +10052,7 @@
         <v>2</v>
       </c>
       <c r="H57" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -9925,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L57">
         <v>2.13</v>
@@ -9937,10 +10073,10 @@
         <v>3.7</v>
       </c>
       <c r="O57" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P57" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="Q57">
         <v>24</v>
@@ -9988,16 +10124,16 @@
         <v>29</v>
       </c>
       <c r="AF57" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="AG57" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH57" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI57" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AJ57">
         <v>7</v>
@@ -10006,7 +10142,7 @@
         <v>1</v>
       </c>
       <c r="AL57" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="AM57">
         <v>347</v>
@@ -10030,22 +10166,18 @@
         <v>950</v>
       </c>
       <c r="AT57">
-        <f t="shared" si="0"/>
         <v>4370</v>
       </c>
       <c r="AU57">
         <v>50</v>
       </c>
       <c r="AV57">
-        <f t="shared" si="1"/>
         <v>230</v>
       </c>
       <c r="AW57">
-        <f t="shared" si="2"/>
         <v>460</v>
       </c>
       <c r="AX57">
-        <f t="shared" si="3"/>
         <v>3470</v>
       </c>
       <c r="AY57">
@@ -10057,16 +10189,16 @@
         <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C58" s="1">
         <v>45564</v>
       </c>
       <c r="D58" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E58" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -10075,7 +10207,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -10084,7 +10216,7 @@
         <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L58">
         <v>1.41</v>
@@ -10096,10 +10228,10 @@
         <v>7.88</v>
       </c>
       <c r="O58" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="P58" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="Q58">
         <v>22</v>
@@ -10147,16 +10279,16 @@
         <v>21</v>
       </c>
       <c r="AF58" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="AG58" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH58" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI58" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ58">
         <v>3</v>
@@ -10165,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="AL58" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="AM58">
         <v>202</v>
@@ -10189,22 +10321,18 @@
         <v>270</v>
       </c>
       <c r="AT58">
-        <f t="shared" si="0"/>
         <v>2550</v>
       </c>
       <c r="AU58">
         <v>27</v>
       </c>
       <c r="AV58">
-        <f t="shared" si="1"/>
         <v>255</v>
       </c>
       <c r="AW58">
-        <f t="shared" si="2"/>
         <v>765</v>
       </c>
       <c r="AX58">
-        <f t="shared" si="3"/>
         <v>1818</v>
       </c>
       <c r="AY58">
@@ -10216,16 +10344,16 @@
         <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C59" s="1">
         <v>45564</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E59" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -10234,7 +10362,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -10243,7 +10371,7 @@
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L59">
         <v>3.48</v>
@@ -10255,10 +10383,10 @@
         <v>2.27</v>
       </c>
       <c r="O59" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P59" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="Q59">
         <v>8</v>
@@ -10306,16 +10434,16 @@
         <v>27</v>
       </c>
       <c r="AF59" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="AG59" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AH59" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AI59" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ59">
         <v>1</v>
@@ -10324,7 +10452,7 @@
         <v>0</v>
       </c>
       <c r="AL59" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="AM59">
         <v>0</v>
@@ -10348,22 +10476,18 @@
         <v>60</v>
       </c>
       <c r="AT59">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU59">
         <v>0</v>
       </c>
       <c r="AV59">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW59">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AX59">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY59">
@@ -10375,16 +10499,16 @@
         <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C60" s="1">
         <v>45564</v>
       </c>
       <c r="D60" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="E60" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -10393,7 +10517,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I60">
         <v>2</v>
@@ -10402,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L60">
         <v>1.36</v>
@@ -10414,10 +10538,10 @@
         <v>9.2899999999999991</v>
       </c>
       <c r="O60" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="P60" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="Q60">
         <v>11</v>
@@ -10465,16 +10589,16 @@
         <v>24</v>
       </c>
       <c r="AF60" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="AG60" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH60" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AI60" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AJ60">
         <v>3</v>
@@ -10483,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="AL60" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="AM60">
         <v>55</v>
@@ -10507,22 +10631,18 @@
         <v>120</v>
       </c>
       <c r="AT60">
-        <f t="shared" si="0"/>
         <v>2940</v>
       </c>
       <c r="AU60">
         <v>8</v>
       </c>
       <c r="AV60">
-        <f t="shared" si="1"/>
         <v>196</v>
       </c>
       <c r="AW60">
-        <f t="shared" si="2"/>
         <v>392</v>
       </c>
       <c r="AX60">
-        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="AY60">
@@ -10534,16 +10654,16 @@
         <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C61" s="1">
         <v>45565</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="F61">
         <v>2</v>
@@ -10552,7 +10672,7 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -10561,7 +10681,7 @@
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L61">
         <v>2.13</v>
@@ -10573,10 +10693,10 @@
         <v>3.45</v>
       </c>
       <c r="O61" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="P61" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="Q61">
         <v>18</v>
@@ -10624,16 +10744,16 @@
         <v>26</v>
       </c>
       <c r="AF61" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="AG61" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AH61" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AI61" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AJ61">
         <v>5</v>
@@ -10642,7 +10762,7 @@
         <v>0</v>
       </c>
       <c r="AL61" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="AM61">
         <v>345</v>
@@ -10666,26 +10786,3162 @@
         <v>400</v>
       </c>
       <c r="AT61">
-        <f t="shared" si="0"/>
         <v>12650</v>
       </c>
       <c r="AU61">
         <v>40</v>
       </c>
       <c r="AV61">
-        <f t="shared" si="1"/>
         <v>1265</v>
       </c>
       <c r="AW61">
-        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
       <c r="AX61">
-        <f t="shared" si="3"/>
         <v>2760</v>
       </c>
       <c r="AY61">
         <v>2000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45569</v>
+      </c>
+      <c r="D62" t="s">
+        <v>146</v>
+      </c>
+      <c r="E62" t="s">
+        <v>149</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>152</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62" t="s">
+        <v>151</v>
+      </c>
+      <c r="L62">
+        <v>1.46</v>
+      </c>
+      <c r="M62">
+        <v>4.58</v>
+      </c>
+      <c r="N62">
+        <v>7.73</v>
+      </c>
+      <c r="O62" t="s">
+        <v>154</v>
+      </c>
+      <c r="P62" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q62">
+        <v>9</v>
+      </c>
+      <c r="R62">
+        <v>6</v>
+      </c>
+      <c r="S62">
+        <v>11</v>
+      </c>
+      <c r="T62">
+        <v>2</v>
+      </c>
+      <c r="U62">
+        <v>1</v>
+      </c>
+      <c r="V62">
+        <v>1</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>4</v>
+      </c>
+      <c r="Z62">
+        <v>1</v>
+      </c>
+      <c r="AA62">
+        <v>7</v>
+      </c>
+      <c r="AB62">
+        <v>10</v>
+      </c>
+      <c r="AC62">
+        <v>4</v>
+      </c>
+      <c r="AD62">
+        <v>5</v>
+      </c>
+      <c r="AE62">
+        <v>17</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ62">
+        <v>2</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>284</v>
+      </c>
+      <c r="AM62">
+        <v>183</v>
+      </c>
+      <c r="AN62">
+        <v>4</v>
+      </c>
+      <c r="AO62">
+        <v>33</v>
+      </c>
+      <c r="AP62">
+        <v>20</v>
+      </c>
+      <c r="AQ62">
+        <v>100</v>
+      </c>
+      <c r="AR62">
+        <v>80</v>
+      </c>
+      <c r="AS62">
+        <v>100</v>
+      </c>
+      <c r="AT62">
+        <v>660</v>
+      </c>
+      <c r="AU62">
+        <v>20</v>
+      </c>
+      <c r="AV62">
+        <v>132</v>
+      </c>
+      <c r="AW62">
+        <v>165</v>
+      </c>
+      <c r="AX62">
+        <v>915</v>
+      </c>
+      <c r="AY62">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45569</v>
+      </c>
+      <c r="D63" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63" t="s">
+        <v>148</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>152</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
+        <v>151</v>
+      </c>
+      <c r="L63">
+        <v>2.52</v>
+      </c>
+      <c r="M63">
+        <v>3.18</v>
+      </c>
+      <c r="N63">
+        <v>3.16</v>
+      </c>
+      <c r="O63" t="s">
+        <v>154</v>
+      </c>
+      <c r="P63" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q63">
+        <v>13</v>
+      </c>
+      <c r="R63">
+        <v>4</v>
+      </c>
+      <c r="S63">
+        <v>11</v>
+      </c>
+      <c r="T63">
+        <v>2</v>
+      </c>
+      <c r="U63">
+        <v>3</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>13</v>
+      </c>
+      <c r="Z63">
+        <v>6</v>
+      </c>
+      <c r="AA63">
+        <v>10</v>
+      </c>
+      <c r="AB63">
+        <v>7</v>
+      </c>
+      <c r="AC63">
+        <v>3</v>
+      </c>
+      <c r="AD63">
+        <v>19</v>
+      </c>
+      <c r="AE63">
+        <v>17</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>212</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ63">
+        <v>3</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM63">
+        <v>92</v>
+      </c>
+      <c r="AN63">
+        <v>3</v>
+      </c>
+      <c r="AO63">
+        <v>23</v>
+      </c>
+      <c r="AP63">
+        <v>30</v>
+      </c>
+      <c r="AQ63">
+        <v>0</v>
+      </c>
+      <c r="AR63">
+        <v>90</v>
+      </c>
+      <c r="AS63">
+        <v>570</v>
+      </c>
+      <c r="AT63">
+        <v>690</v>
+      </c>
+      <c r="AU63">
+        <v>57</v>
+      </c>
+      <c r="AV63">
+        <v>69</v>
+      </c>
+      <c r="AW63">
+        <v>437</v>
+      </c>
+      <c r="AX63">
+        <v>1748</v>
+      </c>
+      <c r="AY63">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="1">
+        <v>45570</v>
+      </c>
+      <c r="D64" t="s">
+        <v>141</v>
+      </c>
+      <c r="E64" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>152</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>151</v>
+      </c>
+      <c r="L64">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M64">
+        <v>3.22</v>
+      </c>
+      <c r="N64">
+        <v>3.47</v>
+      </c>
+      <c r="O64" t="s">
+        <v>156</v>
+      </c>
+      <c r="P64" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q64">
+        <v>13</v>
+      </c>
+      <c r="R64">
+        <v>4</v>
+      </c>
+      <c r="S64">
+        <v>9</v>
+      </c>
+      <c r="T64">
+        <v>3</v>
+      </c>
+      <c r="U64">
+        <v>2</v>
+      </c>
+      <c r="V64">
+        <v>2</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>5</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>12</v>
+      </c>
+      <c r="AB64">
+        <v>16</v>
+      </c>
+      <c r="AC64">
+        <v>1</v>
+      </c>
+      <c r="AD64">
+        <v>5</v>
+      </c>
+      <c r="AE64">
+        <v>28</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ64">
+        <v>4</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM64">
+        <v>75</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
+        <v>33</v>
+      </c>
+      <c r="AP64">
+        <v>40</v>
+      </c>
+      <c r="AQ64">
+        <v>400</v>
+      </c>
+      <c r="AR64">
+        <v>40</v>
+      </c>
+      <c r="AS64">
+        <v>200</v>
+      </c>
+      <c r="AT64">
+        <v>1320</v>
+      </c>
+      <c r="AU64">
+        <v>5</v>
+      </c>
+      <c r="AV64">
+        <v>33</v>
+      </c>
+      <c r="AW64">
+        <v>165</v>
+      </c>
+      <c r="AX64">
+        <v>375</v>
+      </c>
+      <c r="AY64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="1">
+        <v>45570</v>
+      </c>
+      <c r="D65" t="s">
+        <v>150</v>
+      </c>
+      <c r="E65" t="s">
+        <v>131</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>152</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>152</v>
+      </c>
+      <c r="L65">
+        <v>1.47</v>
+      </c>
+      <c r="M65">
+        <v>4.63</v>
+      </c>
+      <c r="N65">
+        <v>7.16</v>
+      </c>
+      <c r="O65" t="s">
+        <v>155</v>
+      </c>
+      <c r="P65" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q65">
+        <v>23</v>
+      </c>
+      <c r="R65">
+        <v>8</v>
+      </c>
+      <c r="S65">
+        <v>7</v>
+      </c>
+      <c r="T65">
+        <v>2</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>4</v>
+      </c>
+      <c r="Z65">
+        <v>2</v>
+      </c>
+      <c r="AA65">
+        <v>9</v>
+      </c>
+      <c r="AB65">
+        <v>15</v>
+      </c>
+      <c r="AC65">
+        <v>6</v>
+      </c>
+      <c r="AD65">
+        <v>6</v>
+      </c>
+      <c r="AE65">
+        <v>24</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM65">
+        <v>371</v>
+      </c>
+      <c r="AN65">
+        <v>6</v>
+      </c>
+      <c r="AO65">
+        <v>145</v>
+      </c>
+      <c r="AP65">
+        <v>0</v>
+      </c>
+      <c r="AQ65">
+        <v>0</v>
+      </c>
+      <c r="AR65">
+        <v>0</v>
+      </c>
+      <c r="AS65">
+        <v>0</v>
+      </c>
+      <c r="AT65">
+        <v>0</v>
+      </c>
+      <c r="AU65">
+        <v>36</v>
+      </c>
+      <c r="AV65">
+        <v>870</v>
+      </c>
+      <c r="AW65">
+        <v>870</v>
+      </c>
+      <c r="AX65">
+        <v>2226</v>
+      </c>
+      <c r="AY65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="1">
+        <v>45570</v>
+      </c>
+      <c r="D66" t="s">
+        <v>142</v>
+      </c>
+      <c r="E66" t="s">
+        <v>145</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66" t="s">
+        <v>152</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" t="s">
+        <v>152</v>
+      </c>
+      <c r="L66">
+        <v>1.32</v>
+      </c>
+      <c r="M66">
+        <v>5.52</v>
+      </c>
+      <c r="N66">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="O66" t="s">
+        <v>158</v>
+      </c>
+      <c r="P66" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q66">
+        <v>29</v>
+      </c>
+      <c r="R66">
+        <v>8</v>
+      </c>
+      <c r="S66">
+        <v>7</v>
+      </c>
+      <c r="T66">
+        <v>5</v>
+      </c>
+      <c r="U66">
+        <v>1</v>
+      </c>
+      <c r="V66">
+        <v>2</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
+      </c>
+      <c r="Y66">
+        <v>14</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>6</v>
+      </c>
+      <c r="AB66">
+        <v>9</v>
+      </c>
+      <c r="AC66">
+        <v>5</v>
+      </c>
+      <c r="AD66">
+        <v>14</v>
+      </c>
+      <c r="AE66">
+        <v>15</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ66">
+        <v>3</v>
+      </c>
+      <c r="AK66">
+        <v>1</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM66">
+        <v>242</v>
+      </c>
+      <c r="AN66">
+        <v>5</v>
+      </c>
+      <c r="AO66">
+        <v>128</v>
+      </c>
+      <c r="AP66">
+        <v>55</v>
+      </c>
+      <c r="AQ66">
+        <v>450</v>
+      </c>
+      <c r="AR66">
+        <v>275</v>
+      </c>
+      <c r="AS66">
+        <v>770</v>
+      </c>
+      <c r="AT66">
+        <v>7040</v>
+      </c>
+      <c r="AU66">
+        <v>70</v>
+      </c>
+      <c r="AV66">
+        <v>640</v>
+      </c>
+      <c r="AW66">
+        <v>1792</v>
+      </c>
+      <c r="AX66">
+        <v>3388</v>
+      </c>
+      <c r="AY66">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="1">
+        <v>45571</v>
+      </c>
+      <c r="D67" t="s">
+        <v>140</v>
+      </c>
+      <c r="E67" t="s">
+        <v>137</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>151</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>152</v>
+      </c>
+      <c r="L67">
+        <v>1.38</v>
+      </c>
+      <c r="M67">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="N67">
+        <v>9.15</v>
+      </c>
+      <c r="O67" t="s">
+        <v>155</v>
+      </c>
+      <c r="P67" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q67">
+        <v>21</v>
+      </c>
+      <c r="R67">
+        <v>9</v>
+      </c>
+      <c r="S67">
+        <v>9</v>
+      </c>
+      <c r="T67">
+        <v>2</v>
+      </c>
+      <c r="U67">
+        <v>5</v>
+      </c>
+      <c r="V67">
+        <v>2</v>
+      </c>
+      <c r="W67">
+        <v>1</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>8</v>
+      </c>
+      <c r="Z67">
+        <v>3</v>
+      </c>
+      <c r="AA67">
+        <v>13</v>
+      </c>
+      <c r="AB67">
+        <v>10</v>
+      </c>
+      <c r="AC67">
+        <v>2</v>
+      </c>
+      <c r="AD67">
+        <v>11</v>
+      </c>
+      <c r="AE67">
+        <v>23</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ67">
+        <v>7</v>
+      </c>
+      <c r="AK67">
+        <v>1</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>289</v>
+      </c>
+      <c r="AM67">
+        <v>103</v>
+      </c>
+      <c r="AN67">
+        <v>2</v>
+      </c>
+      <c r="AO67">
+        <v>27</v>
+      </c>
+      <c r="AP67">
+        <v>95</v>
+      </c>
+      <c r="AQ67">
+        <v>1500</v>
+      </c>
+      <c r="AR67">
+        <v>190</v>
+      </c>
+      <c r="AS67">
+        <v>1045</v>
+      </c>
+      <c r="AT67">
+        <v>2565</v>
+      </c>
+      <c r="AU67">
+        <v>22</v>
+      </c>
+      <c r="AV67">
+        <v>54</v>
+      </c>
+      <c r="AW67">
+        <v>297</v>
+      </c>
+      <c r="AX67">
+        <v>1133</v>
+      </c>
+      <c r="AY67">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="1">
+        <v>45571</v>
+      </c>
+      <c r="D68" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>151</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>151</v>
+      </c>
+      <c r="L68">
+        <v>1.87</v>
+      </c>
+      <c r="M68">
+        <v>3.8</v>
+      </c>
+      <c r="N68">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="O68" t="s">
+        <v>156</v>
+      </c>
+      <c r="P68" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q68">
+        <v>19</v>
+      </c>
+      <c r="R68">
+        <v>3</v>
+      </c>
+      <c r="S68">
+        <v>13</v>
+      </c>
+      <c r="T68">
+        <v>2</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
+      </c>
+      <c r="Y68">
+        <v>13</v>
+      </c>
+      <c r="Z68">
+        <v>6</v>
+      </c>
+      <c r="AA68">
+        <v>15</v>
+      </c>
+      <c r="AB68">
+        <v>16</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>19</v>
+      </c>
+      <c r="AE68">
+        <v>31</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>212</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ68">
+        <v>1</v>
+      </c>
+      <c r="AK68">
+        <v>1</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>290</v>
+      </c>
+      <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>0</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>35</v>
+      </c>
+      <c r="AQ68">
+        <v>250</v>
+      </c>
+      <c r="AR68">
+        <v>0</v>
+      </c>
+      <c r="AS68">
+        <v>665</v>
+      </c>
+      <c r="AT68">
+        <v>0</v>
+      </c>
+      <c r="AU68">
+        <v>0</v>
+      </c>
+      <c r="AV68">
+        <v>0</v>
+      </c>
+      <c r="AW68">
+        <v>0</v>
+      </c>
+      <c r="AX68">
+        <v>0</v>
+      </c>
+      <c r="AY68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="1">
+        <v>45571</v>
+      </c>
+      <c r="D69" t="s">
+        <v>138</v>
+      </c>
+      <c r="E69" t="s">
+        <v>133</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>152</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>151</v>
+      </c>
+      <c r="L69">
+        <v>1.59</v>
+      </c>
+      <c r="M69">
+        <v>3.99</v>
+      </c>
+      <c r="N69">
+        <v>6.38</v>
+      </c>
+      <c r="O69" t="s">
+        <v>154</v>
+      </c>
+      <c r="P69" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q69">
+        <v>16</v>
+      </c>
+      <c r="R69">
+        <v>6</v>
+      </c>
+      <c r="S69">
+        <v>7</v>
+      </c>
+      <c r="T69">
+        <v>2</v>
+      </c>
+      <c r="U69">
+        <v>2</v>
+      </c>
+      <c r="V69">
+        <v>4</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>5</v>
+      </c>
+      <c r="Z69">
+        <v>3</v>
+      </c>
+      <c r="AA69">
+        <v>10</v>
+      </c>
+      <c r="AB69">
+        <v>17</v>
+      </c>
+      <c r="AC69">
+        <v>3</v>
+      </c>
+      <c r="AD69">
+        <v>8</v>
+      </c>
+      <c r="AE69">
+        <v>27</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ69">
+        <v>6</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>291</v>
+      </c>
+      <c r="AM69">
+        <v>138</v>
+      </c>
+      <c r="AN69">
+        <v>3</v>
+      </c>
+      <c r="AO69">
+        <v>118</v>
+      </c>
+      <c r="AP69">
+        <v>60</v>
+      </c>
+      <c r="AQ69">
+        <v>800</v>
+      </c>
+      <c r="AR69">
+        <v>180</v>
+      </c>
+      <c r="AS69">
+        <v>480</v>
+      </c>
+      <c r="AT69">
+        <v>7080</v>
+      </c>
+      <c r="AU69">
+        <v>24</v>
+      </c>
+      <c r="AV69">
+        <v>354</v>
+      </c>
+      <c r="AW69">
+        <v>944</v>
+      </c>
+      <c r="AX69">
+        <v>1104</v>
+      </c>
+      <c r="AY69">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" s="1">
+        <v>45571</v>
+      </c>
+      <c r="D70" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70" t="s">
+        <v>147</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>151</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>151</v>
+      </c>
+      <c r="L70">
+        <v>4.29</v>
+      </c>
+      <c r="M70">
+        <v>3.38</v>
+      </c>
+      <c r="N70">
+        <v>1.98</v>
+      </c>
+      <c r="O70" t="s">
+        <v>156</v>
+      </c>
+      <c r="P70" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q70">
+        <v>3</v>
+      </c>
+      <c r="R70">
+        <v>3</v>
+      </c>
+      <c r="S70">
+        <v>15</v>
+      </c>
+      <c r="T70">
+        <v>4</v>
+      </c>
+      <c r="U70">
+        <v>3</v>
+      </c>
+      <c r="V70">
+        <v>1</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>1</v>
+      </c>
+      <c r="Z70">
+        <v>3</v>
+      </c>
+      <c r="AA70">
+        <v>16</v>
+      </c>
+      <c r="AB70">
+        <v>13</v>
+      </c>
+      <c r="AC70">
+        <v>2</v>
+      </c>
+      <c r="AD70">
+        <v>4</v>
+      </c>
+      <c r="AE70">
+        <v>29</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ70">
+        <v>4</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>292</v>
+      </c>
+      <c r="AM70">
+        <v>131</v>
+      </c>
+      <c r="AN70">
+        <v>2</v>
+      </c>
+      <c r="AO70">
+        <v>58</v>
+      </c>
+      <c r="AP70">
+        <v>40</v>
+      </c>
+      <c r="AQ70">
+        <v>300</v>
+      </c>
+      <c r="AR70">
+        <v>80</v>
+      </c>
+      <c r="AS70">
+        <v>160</v>
+      </c>
+      <c r="AT70">
+        <v>2320</v>
+      </c>
+      <c r="AU70">
+        <v>8</v>
+      </c>
+      <c r="AV70">
+        <v>116</v>
+      </c>
+      <c r="AW70">
+        <v>232</v>
+      </c>
+      <c r="AX70">
+        <v>524</v>
+      </c>
+      <c r="AY70">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="1">
+        <v>45571</v>
+      </c>
+      <c r="D71" t="s">
+        <v>144</v>
+      </c>
+      <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>152</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>152</v>
+      </c>
+      <c r="L71">
+        <v>3.35</v>
+      </c>
+      <c r="M71">
+        <v>3.55</v>
+      </c>
+      <c r="N71">
+        <v>2.21</v>
+      </c>
+      <c r="O71" t="s">
+        <v>155</v>
+      </c>
+      <c r="P71" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q71">
+        <v>12</v>
+      </c>
+      <c r="R71">
+        <v>3</v>
+      </c>
+      <c r="S71">
+        <v>16</v>
+      </c>
+      <c r="T71">
+        <v>8</v>
+      </c>
+      <c r="U71">
+        <v>2</v>
+      </c>
+      <c r="V71">
+        <v>3</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>1</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>7</v>
+      </c>
+      <c r="AA71">
+        <v>11</v>
+      </c>
+      <c r="AB71">
+        <v>21</v>
+      </c>
+      <c r="AC71">
+        <v>3</v>
+      </c>
+      <c r="AD71">
+        <v>7</v>
+      </c>
+      <c r="AE71">
+        <v>32</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ71">
+        <v>5</v>
+      </c>
+      <c r="AK71">
+        <v>1</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM71">
+        <v>168</v>
+      </c>
+      <c r="AN71">
+        <v>3</v>
+      </c>
+      <c r="AO71">
+        <v>50</v>
+      </c>
+      <c r="AP71">
+        <v>75</v>
+      </c>
+      <c r="AQ71">
+        <v>1100</v>
+      </c>
+      <c r="AR71">
+        <v>225</v>
+      </c>
+      <c r="AS71">
+        <v>525</v>
+      </c>
+      <c r="AT71">
+        <v>3750</v>
+      </c>
+      <c r="AU71">
+        <v>21</v>
+      </c>
+      <c r="AV71">
+        <v>150</v>
+      </c>
+      <c r="AW71">
+        <v>350</v>
+      </c>
+      <c r="AX71">
+        <v>1176</v>
+      </c>
+      <c r="AY71">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="1">
+        <v>45584</v>
+      </c>
+      <c r="D72" t="s">
+        <v>149</v>
+      </c>
+      <c r="E72" t="s">
+        <v>132</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>151</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
+        <v>151</v>
+      </c>
+      <c r="L72">
+        <v>2.02</v>
+      </c>
+      <c r="M72">
+        <v>3.72</v>
+      </c>
+      <c r="N72">
+        <v>3.71</v>
+      </c>
+      <c r="O72" t="s">
+        <v>154</v>
+      </c>
+      <c r="P72" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q72">
+        <v>11</v>
+      </c>
+      <c r="R72">
+        <v>3</v>
+      </c>
+      <c r="S72">
+        <v>9</v>
+      </c>
+      <c r="T72">
+        <v>3</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
+      </c>
+      <c r="V72">
+        <v>2</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>7</v>
+      </c>
+      <c r="Z72">
+        <v>4</v>
+      </c>
+      <c r="AA72">
+        <v>14</v>
+      </c>
+      <c r="AB72">
+        <v>10</v>
+      </c>
+      <c r="AC72">
+        <v>2</v>
+      </c>
+      <c r="AD72">
+        <v>11</v>
+      </c>
+      <c r="AE72">
+        <v>24</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ72">
+        <v>3</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>294</v>
+      </c>
+      <c r="AM72">
+        <v>65</v>
+      </c>
+      <c r="AN72">
+        <v>2</v>
+      </c>
+      <c r="AO72">
+        <v>92</v>
+      </c>
+      <c r="AP72">
+        <v>30</v>
+      </c>
+      <c r="AQ72">
+        <v>200</v>
+      </c>
+      <c r="AR72">
+        <v>60</v>
+      </c>
+      <c r="AS72">
+        <v>330</v>
+      </c>
+      <c r="AT72">
+        <f>AO72*AP72</f>
+        <v>2760</v>
+      </c>
+      <c r="AU72">
+        <v>22</v>
+      </c>
+      <c r="AV72">
+        <f>AN72*AO72</f>
+        <v>184</v>
+      </c>
+      <c r="AW72">
+        <f>AO72*AD72</f>
+        <v>1012</v>
+      </c>
+      <c r="AX72">
+        <f>AM72*AD72</f>
+        <v>715</v>
+      </c>
+      <c r="AY72">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="1">
+        <v>45584</v>
+      </c>
+      <c r="D73" t="s">
+        <v>131</v>
+      </c>
+      <c r="E73" t="s">
+        <v>135</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73" t="s">
+        <v>151</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
+        <v>153</v>
+      </c>
+      <c r="L73">
+        <v>3.85</v>
+      </c>
+      <c r="M73">
+        <v>3.16</v>
+      </c>
+      <c r="N73">
+        <v>2.19</v>
+      </c>
+      <c r="O73" t="s">
+        <v>157</v>
+      </c>
+      <c r="P73" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q73">
+        <v>10</v>
+      </c>
+      <c r="R73">
+        <v>4</v>
+      </c>
+      <c r="S73">
+        <v>12</v>
+      </c>
+      <c r="T73">
+        <v>7</v>
+      </c>
+      <c r="U73">
+        <v>2</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>1</v>
+      </c>
+      <c r="Z73">
+        <v>7</v>
+      </c>
+      <c r="AA73">
+        <v>20</v>
+      </c>
+      <c r="AB73">
+        <v>12</v>
+      </c>
+      <c r="AC73">
+        <v>4</v>
+      </c>
+      <c r="AD73">
+        <v>8</v>
+      </c>
+      <c r="AE73">
+        <v>32</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ73">
+        <v>2</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM73">
+        <v>251</v>
+      </c>
+      <c r="AN73">
+        <v>4</v>
+      </c>
+      <c r="AO73">
+        <v>66</v>
+      </c>
+      <c r="AP73">
+        <v>20</v>
+      </c>
+      <c r="AQ73">
+        <v>0</v>
+      </c>
+      <c r="AR73">
+        <v>80</v>
+      </c>
+      <c r="AS73">
+        <v>160</v>
+      </c>
+      <c r="AT73">
+        <f t="shared" ref="AT73:AT81" si="0">AO73*AP73</f>
+        <v>1320</v>
+      </c>
+      <c r="AU73">
+        <v>32</v>
+      </c>
+      <c r="AV73">
+        <f t="shared" ref="AV73:AV81" si="1">AN73*AO73</f>
+        <v>264</v>
+      </c>
+      <c r="AW73">
+        <f t="shared" ref="AW73:AW81" si="2">AO73*AD73</f>
+        <v>528</v>
+      </c>
+      <c r="AX73">
+        <f t="shared" ref="AX73:AX81" si="3">AM73*AD73</f>
+        <v>2008</v>
+      </c>
+      <c r="AY73">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="1">
+        <v>45584</v>
+      </c>
+      <c r="D74" t="s">
+        <v>134</v>
+      </c>
+      <c r="E74" t="s">
+        <v>141</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>152</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>152</v>
+      </c>
+      <c r="L74">
+        <v>1.38</v>
+      </c>
+      <c r="M74">
+        <v>5.23</v>
+      </c>
+      <c r="N74">
+        <v>8.24</v>
+      </c>
+      <c r="O74" t="s">
+        <v>155</v>
+      </c>
+      <c r="P74" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q74">
+        <v>10</v>
+      </c>
+      <c r="R74">
+        <v>5</v>
+      </c>
+      <c r="S74">
+        <v>13</v>
+      </c>
+      <c r="T74">
+        <v>1</v>
+      </c>
+      <c r="U74">
+        <v>2</v>
+      </c>
+      <c r="V74">
+        <v>3</v>
+      </c>
+      <c r="W74">
+        <v>1</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>8</v>
+      </c>
+      <c r="Z74">
+        <v>4</v>
+      </c>
+      <c r="AA74">
+        <v>3</v>
+      </c>
+      <c r="AB74">
+        <v>14</v>
+      </c>
+      <c r="AC74">
+        <v>1</v>
+      </c>
+      <c r="AD74">
+        <v>12</v>
+      </c>
+      <c r="AE74">
+        <v>17</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ74">
+        <v>5</v>
+      </c>
+      <c r="AK74">
+        <v>1</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>296</v>
+      </c>
+      <c r="AM74">
+        <v>13</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
+        <v>21</v>
+      </c>
+      <c r="AP74">
+        <v>75</v>
+      </c>
+      <c r="AQ74">
+        <v>1350</v>
+      </c>
+      <c r="AR74">
+        <v>75</v>
+      </c>
+      <c r="AS74">
+        <v>900</v>
+      </c>
+      <c r="AT74">
+        <f t="shared" si="0"/>
+        <v>1575</v>
+      </c>
+      <c r="AU74">
+        <v>12</v>
+      </c>
+      <c r="AV74">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="AW74">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+      <c r="AX74">
+        <f t="shared" si="3"/>
+        <v>156</v>
+      </c>
+      <c r="AY74">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="1">
+        <v>45584</v>
+      </c>
+      <c r="D75" t="s">
+        <v>140</v>
+      </c>
+      <c r="E75" t="s">
+        <v>138</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>152</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>151</v>
+      </c>
+      <c r="L75">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="M75">
+        <v>3.34</v>
+      </c>
+      <c r="N75">
+        <v>4.05</v>
+      </c>
+      <c r="O75" t="s">
+        <v>156</v>
+      </c>
+      <c r="P75" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q75">
+        <v>16</v>
+      </c>
+      <c r="R75">
+        <v>3</v>
+      </c>
+      <c r="S75">
+        <v>2</v>
+      </c>
+      <c r="T75">
+        <v>1</v>
+      </c>
+      <c r="U75">
+        <v>4</v>
+      </c>
+      <c r="V75">
+        <v>2</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>1</v>
+      </c>
+      <c r="Y75">
+        <v>7</v>
+      </c>
+      <c r="Z75">
+        <v>1</v>
+      </c>
+      <c r="AA75">
+        <v>16</v>
+      </c>
+      <c r="AB75">
+        <v>9</v>
+      </c>
+      <c r="AC75">
+        <v>1</v>
+      </c>
+      <c r="AD75">
+        <v>8</v>
+      </c>
+      <c r="AE75">
+        <v>25</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ75">
+        <v>6</v>
+      </c>
+      <c r="AK75">
+        <v>1</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM75">
+        <v>85</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
+        <v>34</v>
+      </c>
+      <c r="AP75">
+        <v>85</v>
+      </c>
+      <c r="AQ75">
+        <v>1800</v>
+      </c>
+      <c r="AR75">
+        <v>85</v>
+      </c>
+      <c r="AS75">
+        <v>680</v>
+      </c>
+      <c r="AT75">
+        <f t="shared" si="0"/>
+        <v>2890</v>
+      </c>
+      <c r="AU75">
+        <v>8</v>
+      </c>
+      <c r="AV75">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="AW75">
+        <f t="shared" si="2"/>
+        <v>272</v>
+      </c>
+      <c r="AX75">
+        <f t="shared" si="3"/>
+        <v>680</v>
+      </c>
+      <c r="AY75">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="1">
+        <v>45585</v>
+      </c>
+      <c r="D76" t="s">
+        <v>133</v>
+      </c>
+      <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>153</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>151</v>
+      </c>
+      <c r="L76">
+        <v>5.58</v>
+      </c>
+      <c r="M76">
+        <v>3.79</v>
+      </c>
+      <c r="N76">
+        <v>1.68</v>
+      </c>
+      <c r="O76" t="s">
+        <v>156</v>
+      </c>
+      <c r="P76" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q76">
+        <v>11</v>
+      </c>
+      <c r="R76">
+        <v>4</v>
+      </c>
+      <c r="S76">
+        <v>9</v>
+      </c>
+      <c r="T76">
+        <v>1</v>
+      </c>
+      <c r="U76">
+        <v>2</v>
+      </c>
+      <c r="V76">
+        <v>2</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>7</v>
+      </c>
+      <c r="Z76">
+        <v>7</v>
+      </c>
+      <c r="AA76">
+        <v>14</v>
+      </c>
+      <c r="AB76">
+        <v>13</v>
+      </c>
+      <c r="AC76">
+        <v>1</v>
+      </c>
+      <c r="AD76">
+        <v>14</v>
+      </c>
+      <c r="AE76">
+        <v>27</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ76">
+        <v>4</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM76">
+        <v>63</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
+        <v>77</v>
+      </c>
+      <c r="AP76">
+        <v>40</v>
+      </c>
+      <c r="AQ76">
+        <v>400</v>
+      </c>
+      <c r="AR76">
+        <v>40</v>
+      </c>
+      <c r="AS76">
+        <v>560</v>
+      </c>
+      <c r="AT76">
+        <f t="shared" si="0"/>
+        <v>3080</v>
+      </c>
+      <c r="AU76">
+        <v>14</v>
+      </c>
+      <c r="AV76">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="AW76">
+        <f t="shared" si="2"/>
+        <v>1078</v>
+      </c>
+      <c r="AX76">
+        <f t="shared" si="3"/>
+        <v>882</v>
+      </c>
+      <c r="AY76">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="1">
+        <v>45585</v>
+      </c>
+      <c r="D77" t="s">
+        <v>139</v>
+      </c>
+      <c r="E77" t="s">
+        <v>144</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>6</v>
+      </c>
+      <c r="H77" t="s">
+        <v>153</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>3</v>
+      </c>
+      <c r="K77" t="s">
+        <v>153</v>
+      </c>
+      <c r="L77">
+        <v>3.3</v>
+      </c>
+      <c r="M77">
+        <v>3.27</v>
+      </c>
+      <c r="N77">
+        <v>2.35</v>
+      </c>
+      <c r="O77" t="s">
+        <v>165</v>
+      </c>
+      <c r="P77" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q77">
+        <v>5</v>
+      </c>
+      <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>19</v>
+      </c>
+      <c r="T77">
+        <v>11</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>5</v>
+      </c>
+      <c r="W77">
+        <v>1</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>1</v>
+      </c>
+      <c r="Z77">
+        <v>3</v>
+      </c>
+      <c r="AA77">
+        <v>8</v>
+      </c>
+      <c r="AB77">
+        <v>14</v>
+      </c>
+      <c r="AC77">
+        <v>6</v>
+      </c>
+      <c r="AD77">
+        <v>4</v>
+      </c>
+      <c r="AE77">
+        <v>22</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ77">
+        <v>5</v>
+      </c>
+      <c r="AK77">
+        <v>1</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>299</v>
+      </c>
+      <c r="AM77">
+        <v>286</v>
+      </c>
+      <c r="AN77">
+        <v>6</v>
+      </c>
+      <c r="AO77">
+        <v>184</v>
+      </c>
+      <c r="AP77">
+        <v>75</v>
+      </c>
+      <c r="AQ77">
+        <v>1250</v>
+      </c>
+      <c r="AR77">
+        <v>450</v>
+      </c>
+      <c r="AS77">
+        <v>300</v>
+      </c>
+      <c r="AT77">
+        <f t="shared" si="0"/>
+        <v>13800</v>
+      </c>
+      <c r="AU77">
+        <v>24</v>
+      </c>
+      <c r="AV77">
+        <f t="shared" si="1"/>
+        <v>1104</v>
+      </c>
+      <c r="AW77">
+        <f t="shared" si="2"/>
+        <v>736</v>
+      </c>
+      <c r="AX77">
+        <f t="shared" si="3"/>
+        <v>1144</v>
+      </c>
+      <c r="AY77">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="78" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="1">
+        <v>45585</v>
+      </c>
+      <c r="D78" t="s">
+        <v>148</v>
+      </c>
+      <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78" t="s">
+        <v>153</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78" t="s">
+        <v>153</v>
+      </c>
+      <c r="L78">
+        <v>5.4</v>
+      </c>
+      <c r="M78">
+        <v>4.18</v>
+      </c>
+      <c r="N78">
+        <v>1.63</v>
+      </c>
+      <c r="O78" t="s">
+        <v>157</v>
+      </c>
+      <c r="P78" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q78">
+        <v>12</v>
+      </c>
+      <c r="R78">
+        <v>4</v>
+      </c>
+      <c r="S78">
+        <v>16</v>
+      </c>
+      <c r="T78">
+        <v>7</v>
+      </c>
+      <c r="U78">
+        <v>1</v>
+      </c>
+      <c r="V78">
+        <v>1</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>2</v>
+      </c>
+      <c r="Z78">
+        <v>5</v>
+      </c>
+      <c r="AA78">
+        <v>12</v>
+      </c>
+      <c r="AB78">
+        <v>6</v>
+      </c>
+      <c r="AC78">
+        <v>2</v>
+      </c>
+      <c r="AD78">
+        <v>7</v>
+      </c>
+      <c r="AE78">
+        <v>18</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ78">
+        <v>2</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>300</v>
+      </c>
+      <c r="AM78">
+        <v>54</v>
+      </c>
+      <c r="AN78">
+        <v>2</v>
+      </c>
+      <c r="AO78">
+        <v>40</v>
+      </c>
+      <c r="AP78">
+        <v>20</v>
+      </c>
+      <c r="AQ78">
+        <v>100</v>
+      </c>
+      <c r="AR78">
+        <v>40</v>
+      </c>
+      <c r="AS78">
+        <v>140</v>
+      </c>
+      <c r="AT78">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="AU78">
+        <v>14</v>
+      </c>
+      <c r="AV78">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="AW78">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="AX78">
+        <f t="shared" si="3"/>
+        <v>378</v>
+      </c>
+      <c r="AY78">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="79" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" s="1">
+        <v>45585</v>
+      </c>
+      <c r="D79" t="s">
+        <v>137</v>
+      </c>
+      <c r="E79" t="s">
+        <v>145</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79" t="s">
+        <v>152</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>151</v>
+      </c>
+      <c r="L79">
+        <v>2.85</v>
+      </c>
+      <c r="M79">
+        <v>3.18</v>
+      </c>
+      <c r="N79">
+        <v>2.72</v>
+      </c>
+      <c r="O79" t="s">
+        <v>154</v>
+      </c>
+      <c r="P79" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q79">
+        <v>18</v>
+      </c>
+      <c r="R79">
+        <v>5</v>
+      </c>
+      <c r="S79">
+        <v>17</v>
+      </c>
+      <c r="T79">
+        <v>5</v>
+      </c>
+      <c r="U79">
+        <v>1</v>
+      </c>
+      <c r="V79">
+        <v>3</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>9</v>
+      </c>
+      <c r="Z79">
+        <v>12</v>
+      </c>
+      <c r="AA79">
+        <v>9</v>
+      </c>
+      <c r="AB79">
+        <v>8</v>
+      </c>
+      <c r="AC79">
+        <v>5</v>
+      </c>
+      <c r="AD79">
+        <v>21</v>
+      </c>
+      <c r="AE79">
+        <v>17</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ79">
+        <v>4</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
+      <c r="AL79" t="s">
+        <v>301</v>
+      </c>
+      <c r="AM79">
+        <v>286</v>
+      </c>
+      <c r="AN79">
+        <v>5</v>
+      </c>
+      <c r="AO79">
+        <v>143</v>
+      </c>
+      <c r="AP79">
+        <v>40</v>
+      </c>
+      <c r="AQ79">
+        <v>300</v>
+      </c>
+      <c r="AR79">
+        <v>200</v>
+      </c>
+      <c r="AS79">
+        <v>840</v>
+      </c>
+      <c r="AT79">
+        <f t="shared" si="0"/>
+        <v>5720</v>
+      </c>
+      <c r="AU79">
+        <v>105</v>
+      </c>
+      <c r="AV79">
+        <f t="shared" si="1"/>
+        <v>715</v>
+      </c>
+      <c r="AW79">
+        <f t="shared" si="2"/>
+        <v>3003</v>
+      </c>
+      <c r="AX79">
+        <f t="shared" si="3"/>
+        <v>6006</v>
+      </c>
+      <c r="AY79">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" s="1">
+        <v>45585</v>
+      </c>
+      <c r="D80" t="s">
+        <v>147</v>
+      </c>
+      <c r="E80" t="s">
+        <v>142</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>153</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>151</v>
+      </c>
+      <c r="L80">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="M80">
+        <v>3.86</v>
+      </c>
+      <c r="N80">
+        <v>1.83</v>
+      </c>
+      <c r="O80" t="s">
+        <v>156</v>
+      </c>
+      <c r="P80" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q80">
+        <v>14</v>
+      </c>
+      <c r="R80">
+        <v>3</v>
+      </c>
+      <c r="S80">
+        <v>11</v>
+      </c>
+      <c r="T80">
+        <v>6</v>
+      </c>
+      <c r="U80">
+        <v>2</v>
+      </c>
+      <c r="V80">
+        <v>3</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>3</v>
+      </c>
+      <c r="Z80">
+        <v>3</v>
+      </c>
+      <c r="AA80">
+        <v>12</v>
+      </c>
+      <c r="AB80">
+        <v>13</v>
+      </c>
+      <c r="AC80">
+        <v>1</v>
+      </c>
+      <c r="AD80">
+        <v>6</v>
+      </c>
+      <c r="AE80">
+        <v>25</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ80">
+        <v>5</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM80">
+        <v>60</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
+        <v>10</v>
+      </c>
+      <c r="AP80">
+        <v>50</v>
+      </c>
+      <c r="AQ80">
+        <v>600</v>
+      </c>
+      <c r="AR80">
+        <v>50</v>
+      </c>
+      <c r="AS80">
+        <v>300</v>
+      </c>
+      <c r="AT80">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="AU80">
+        <v>6</v>
+      </c>
+      <c r="AV80">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AW80">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="AX80">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="AY80">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" s="1">
+        <v>45586</v>
+      </c>
+      <c r="D81" t="s">
+        <v>136</v>
+      </c>
+      <c r="E81" t="s">
+        <v>143</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+      <c r="H81" t="s">
+        <v>153</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81" t="s">
+        <v>153</v>
+      </c>
+      <c r="L81">
+        <v>2.38</v>
+      </c>
+      <c r="M81">
+        <v>3.01</v>
+      </c>
+      <c r="N81">
+        <v>3.56</v>
+      </c>
+      <c r="O81" t="s">
+        <v>157</v>
+      </c>
+      <c r="P81" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q81">
+        <v>16</v>
+      </c>
+      <c r="R81">
+        <v>4</v>
+      </c>
+      <c r="S81">
+        <v>10</v>
+      </c>
+      <c r="T81">
+        <v>4</v>
+      </c>
+      <c r="U81">
+        <v>3</v>
+      </c>
+      <c r="V81">
+        <v>2</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>9</v>
+      </c>
+      <c r="Z81">
+        <v>6</v>
+      </c>
+      <c r="AA81">
+        <v>8</v>
+      </c>
+      <c r="AB81">
+        <v>13</v>
+      </c>
+      <c r="AC81">
+        <v>3</v>
+      </c>
+      <c r="AD81">
+        <v>15</v>
+      </c>
+      <c r="AE81">
+        <v>21</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ81">
+        <v>5</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM81">
+        <v>162</v>
+      </c>
+      <c r="AN81">
+        <v>3</v>
+      </c>
+      <c r="AO81">
+        <v>136</v>
+      </c>
+      <c r="AP81">
+        <v>50</v>
+      </c>
+      <c r="AQ81">
+        <v>600</v>
+      </c>
+      <c r="AR81">
+        <v>150</v>
+      </c>
+      <c r="AS81">
+        <v>750</v>
+      </c>
+      <c r="AT81">
+        <f t="shared" si="0"/>
+        <v>6800</v>
+      </c>
+      <c r="AU81">
+        <v>45</v>
+      </c>
+      <c r="AV81">
+        <f t="shared" si="1"/>
+        <v>408</v>
+      </c>
+      <c r="AW81">
+        <f t="shared" si="2"/>
+        <v>2040</v>
+      </c>
+      <c r="AX81">
+        <f t="shared" si="3"/>
+        <v>2430</v>
+      </c>
+      <c r="AY81">
+        <v>2250</v>
       </c>
     </row>
   </sheetData>
